--- a/data_clean/Yara International 16.12.2020.xlsx
+++ b/data_clean/Yara International 16.12.2020.xlsx
@@ -1389,7 +1389,7 @@
         <v>1.032860860136936</v>
       </c>
       <c r="K2">
-        <v>48.73580784586685</v>
+        <v>-0.01264192154133169</v>
       </c>
       <c r="L2">
         <v>-0.0008220173798442087</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1460,7 +1460,7 @@
         <v>1.032860860136936</v>
       </c>
       <c r="K3">
-        <v>48.73580784586685</v>
+        <v>-0.01264192154133169</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1490,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1531,7 +1531,7 @@
         <v>1.032860860136936</v>
       </c>
       <c r="K4">
-        <v>48.73580784586685</v>
+        <v>-0.01264192154133169</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L5">
         <v>-0.005337052144114998</v>
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.9995757918552035</v>
+        <v>-0.0004242081447964896</v>
       </c>
       <c r="V5">
-        <v>0.9995757918552035</v>
+        <v>-0.0004242081447964896</v>
       </c>
       <c r="W5">
-        <v>0.9983031674208144</v>
+        <v>-0.001696832579185625</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L6">
         <v>-0.009313349122489609</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9996321969161126</v>
+        <v>-0.0003678030838873969</v>
       </c>
       <c r="V6">
-        <v>0.9996321969161126</v>
+        <v>-0.0003678030838873969</v>
       </c>
       <c r="W6">
-        <v>0.9994334277620397</v>
+        <v>-0.0005665722379603055</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L7">
         <v>-0.01268893554699627</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9996131929506773</v>
+        <v>-0.0003868070493227016</v>
       </c>
       <c r="V7">
-        <v>0.9996131929506773</v>
+        <v>-0.0003868070493227016</v>
       </c>
       <c r="W7">
-        <v>0.9991496598639455</v>
+        <v>-0.0008503401360544505</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L8">
         <v>-0.01575882111204416</v>
@@ -1845,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9996022570228601</v>
+        <v>-0.0003977429771399033</v>
       </c>
       <c r="V8">
-        <v>0.9996022570228601</v>
+        <v>-0.0003977429771399033</v>
       </c>
       <c r="W8">
-        <v>0.9991489361702127</v>
+        <v>-0.0008510638297872797</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1886,7 +1886,7 @@
         <v>0.2467249828577572</v>
       </c>
       <c r="K9">
-        <v>19.78984830256721</v>
+        <v>-0.3021015169743279</v>
       </c>
       <c r="L9">
         <v>-0.01712013340581614</v>
@@ -1916,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9998077934690245</v>
+        <v>-0.0001922065309755139</v>
       </c>
       <c r="V9">
-        <v>0.9998077934690245</v>
+        <v>-0.0001922065309755139</v>
       </c>
       <c r="W9">
-        <v>1.000851788756388</v>
+        <v>0.0008517887563883608</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1957,7 +1957,7 @@
         <v>0.2467249828577572</v>
       </c>
       <c r="K10">
-        <v>19.78984830256721</v>
+        <v>-0.3021015169743279</v>
       </c>
       <c r="L10">
         <v>-0.01752120482148845</v>
@@ -1987,13 +1987,13 @@
         <v>-0.08472222222218306</v>
       </c>
       <c r="U10">
-        <v>0.9998504772922224</v>
+        <v>-0.0001495227077775718</v>
       </c>
       <c r="V10">
-        <v>0.9998504772922224</v>
+        <v>-0.0001495227077775718</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2028,7 +2028,7 @@
         <v>0.150636286264884</v>
       </c>
       <c r="K11">
-        <v>13.09156403835213</v>
+        <v>-0.3690843596164787</v>
       </c>
       <c r="L11">
         <v>-0.01870873463104899</v>
@@ -2058,13 +2058,13 @@
         <v>-0.1974999999999909</v>
       </c>
       <c r="U11">
-        <v>0.9996820199603312</v>
+        <v>-0.0003179800396687638</v>
       </c>
       <c r="V11">
-        <v>0.9996820199603312</v>
+        <v>-0.0003179800396687638</v>
       </c>
       <c r="W11">
-        <v>0.9980141843971632</v>
+        <v>-0.001985815602836838</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2099,7 +2099,7 @@
         <v>0.1423023603881839</v>
       </c>
       <c r="K12">
-        <v>12.45750383811041</v>
+        <v>-0.3754249616188959</v>
       </c>
       <c r="L12">
         <v>-0.02009560187068123</v>
@@ -2129,13 +2129,13 @@
         <v>-0.3340909090909463</v>
       </c>
       <c r="U12">
-        <v>0.9997139846067031</v>
+        <v>-0.0002860153932968679</v>
       </c>
       <c r="V12">
-        <v>0.9997139846067031</v>
+        <v>-0.0002860153932968679</v>
       </c>
       <c r="W12">
-        <v>0.9997157475838544</v>
+        <v>-0.0002842524161456028</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2170,7 +2170,7 @@
         <v>0.4334856393955143</v>
       </c>
       <c r="K13">
-        <v>30.23997084325941</v>
+        <v>-0.1976002915674059</v>
       </c>
       <c r="L13">
         <v>-0.02048343889553997</v>
@@ -2200,13 +2200,13 @@
         <v>-0.3916666666667084</v>
       </c>
       <c r="U13">
-        <v>0.9998797188858531</v>
+        <v>-0.0001202811141468585</v>
       </c>
       <c r="V13">
-        <v>0.9998797188858531</v>
+        <v>-0.0001202811141468585</v>
       </c>
       <c r="W13">
-        <v>1.001421666192778</v>
+        <v>0.001421666192777948</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2241,7 +2241,7 @@
         <v>0.3661489356016938</v>
       </c>
       <c r="K14">
-        <v>26.80153869463952</v>
+        <v>-0.2319846130536048</v>
       </c>
       <c r="L14">
         <v>-0.02069125457834557</v>
@@ -2271,13 +2271,13 @@
         <v>-0.4451923076922526</v>
       </c>
       <c r="U14">
-        <v>0.9998327759197323</v>
+        <v>-0.0001672240802677027</v>
       </c>
       <c r="V14">
-        <v>0.9998327759197323</v>
+        <v>-0.0001672240802677027</v>
       </c>
       <c r="W14">
-        <v>0.9991482112436115</v>
+        <v>-0.0008517887563884718</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2312,7 +2312,7 @@
         <v>0.5296624050085283</v>
       </c>
       <c r="K15">
-        <v>34.62609810336389</v>
+        <v>-0.1537390189663611</v>
       </c>
       <c r="L15">
         <v>-0.02025837629902028</v>
@@ -2342,13 +2342,13 @@
         <v>-0.4535714285714789</v>
       </c>
       <c r="U15">
-        <v>0.9999174128081829</v>
+        <v>-8.258719181708507E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999174128081829</v>
+        <v>-8.258719181708507E-05</v>
       </c>
       <c r="W15">
-        <v>1.000852514919011</v>
+        <v>0.0008525149190110604</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2383,7 +2383,7 @@
         <v>0.587035552168832</v>
       </c>
       <c r="K16">
-        <v>36.98943929558435</v>
+        <v>-0.1301056070441565</v>
       </c>
       <c r="L16">
         <v>-0.01930323274267311</v>
@@ -2413,13 +2413,13 @@
         <v>-0.4225000000000136</v>
       </c>
       <c r="U16">
-        <v>0.9999473268369764</v>
+        <v>-5.26731630235977E-05</v>
       </c>
       <c r="V16">
-        <v>0.9999473268369764</v>
+        <v>-5.26731630235977E-05</v>
       </c>
       <c r="W16">
-        <v>1.000283929585463</v>
+        <v>0.000283929585462861</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2454,7 +2454,7 @@
         <v>0.8889994845914143</v>
       </c>
       <c r="K17">
-        <v>47.06192308907392</v>
+        <v>-0.0293807691092608</v>
       </c>
       <c r="L17">
         <v>-0.01742327079333843</v>
@@ -2484,13 +2484,13 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="U17">
-        <v>1.000042545949626</v>
+        <v>4.254594962560532E-05</v>
       </c>
       <c r="V17">
-        <v>0.9998487255124422</v>
+        <v>-0.0001512744875578065</v>
       </c>
       <c r="W17">
-        <v>1.00141924496168</v>
+        <v>0.001419244961680333</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2525,7 +2525,7 @@
         <v>0.7887195454269286</v>
       </c>
       <c r="K18">
-        <v>44.09408660197081</v>
+        <v>-0.05905913398029194</v>
       </c>
       <c r="L18">
         <v>-0.01536717728886135</v>
@@ -2555,13 +2555,13 @@
         <v>-0.3249999999999886</v>
       </c>
       <c r="U18">
-        <v>1.000004170994073</v>
+        <v>4.170994073016132E-06</v>
       </c>
       <c r="V18">
-        <v>0.999810878281262</v>
+        <v>-0.0001891217187379723</v>
       </c>
       <c r="W18">
-        <v>0.9994331065759637</v>
+        <v>-0.0005668934240362633</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2596,7 +2596,7 @@
         <v>0.8480884385078639</v>
       </c>
       <c r="K19">
-        <v>45.89003539206196</v>
+        <v>-0.04109964607938038</v>
       </c>
       <c r="L19">
         <v>-0.01318565206360067</v>
@@ -2626,13 +2626,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U19">
-        <v>1.000019464557821</v>
+        <v>1.946455782086964E-05</v>
       </c>
       <c r="V19">
-        <v>0.9998297582567245</v>
+        <v>-0.0001702417432755121</v>
       </c>
       <c r="W19">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2667,7 +2667,7 @@
         <v>0.9105820101720417</v>
       </c>
       <c r="K20">
-        <v>47.65992798655352</v>
+        <v>-0.02340072013446481</v>
       </c>
       <c r="L20">
         <v>-0.01092409459596697</v>
@@ -2697,13 +2697,13 @@
         <v>0.03125</v>
       </c>
       <c r="U20">
-        <v>1.000032342733459</v>
+        <v>3.234273345853467E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999621620598975</v>
+        <v>-3.783794010248087E-05</v>
       </c>
       <c r="W20">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2738,7 +2738,7 @@
         <v>1.042147424201852</v>
       </c>
       <c r="K21">
-        <v>51.0319388233767</v>
+        <v>0.01031938823376699</v>
       </c>
       <c r="L21">
         <v>-0.008507015393868951</v>
@@ -2768,13 +2768,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U21">
-        <v>1.000057468690759</v>
+        <v>5.746869075884398E-05</v>
       </c>
       <c r="V21">
-        <v>1.000037839371866</v>
+        <v>3.783937186629949E-05</v>
       </c>
       <c r="W21">
-        <v>1.000566893424036</v>
+        <v>0.0005668934240361523</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2809,7 +2809,7 @@
         <v>1.042147424201852</v>
       </c>
       <c r="K22">
-        <v>51.0319388233767</v>
+        <v>0.01031938823376699</v>
       </c>
       <c r="L22">
         <v>-0.006139507815990563</v>
@@ -2839,13 +2839,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U22">
-        <v>1.000051992494174</v>
+        <v>5.199249417442431E-05</v>
       </c>
       <c r="V22">
-        <v>1.000094594850256</v>
+        <v>9.459485025620218E-05</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2880,7 +2880,7 @@
         <v>0.8551526636684743</v>
       </c>
       <c r="K23">
-        <v>46.09608041515308</v>
+        <v>-0.03903919584846915</v>
       </c>
       <c r="L23">
         <v>-0.004276812042814705</v>
@@ -2910,13 +2910,13 @@
         <v>0.3062500000000341</v>
       </c>
       <c r="U23">
-        <v>1.0000085933539</v>
+        <v>8.593353900021583E-06</v>
       </c>
       <c r="V23">
-        <v>1.000094585902917</v>
+        <v>9.458590291711033E-05</v>
       </c>
       <c r="W23">
-        <v>0.9991501416430595</v>
+        <v>-0.0008498583569405138</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2951,7 +2951,7 @@
         <v>0.759516405972439</v>
       </c>
       <c r="K24">
-        <v>43.16620199700121</v>
+        <v>-0.06833798002998792</v>
       </c>
       <c r="L24">
         <v>-0.003039230985986354</v>
@@ -2981,13 +2981,13 @@
         <v>0.3125</v>
       </c>
       <c r="U24">
-        <v>0.9999831870607619</v>
+        <v>-1.681293923805338E-05</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.9994329458463284</v>
+        <v>-0.0005670541536716422</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3022,7 +3022,7 @@
         <v>0.8772377780971977</v>
       </c>
       <c r="K25">
-        <v>46.73024314407213</v>
+        <v>-0.03269756855927869</v>
       </c>
       <c r="L25">
         <v>-0.002021102057062658</v>
@@ -3052,13 +3052,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U25">
-        <v>1.000008219797382</v>
+        <v>8.219797382080785E-06</v>
       </c>
       <c r="V25">
-        <v>1.000037830782908</v>
+        <v>3.783078290808817E-05</v>
       </c>
       <c r="W25">
-        <v>1.000567375886525</v>
+        <v>0.0005673758865247791</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3093,7 +3093,7 @@
         <v>0.939196395004983</v>
       </c>
       <c r="K26">
-        <v>48.43224736928049</v>
+        <v>-0.0156775263071951</v>
       </c>
       <c r="L26">
         <v>-0.0010846776850313</v>
@@ -3123,13 +3123,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U26">
-        <v>1.00001890537858</v>
+        <v>1.890537857995866E-05</v>
       </c>
       <c r="V26">
-        <v>1.00018914675897</v>
+        <v>0.0001891467589703044</v>
       </c>
       <c r="W26">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3164,7 +3164,7 @@
         <v>0.7855053654733141</v>
       </c>
       <c r="K27">
-        <v>43.99344749463057</v>
+        <v>-0.06006552505369434</v>
       </c>
       <c r="L27">
         <v>-0.0005772442619521605</v>
@@ -3194,13 +3194,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U27">
-        <v>0.9999847305598213</v>
+        <v>-1.526944017871124E-05</v>
       </c>
       <c r="V27">
-        <v>1.000151288791392</v>
+        <v>0.0001512887913917016</v>
       </c>
       <c r="W27">
-        <v>0.9991496598639455</v>
+        <v>-0.0008503401360544505</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3235,7 +3235,7 @@
         <v>0.9003411491612712</v>
       </c>
       <c r="K28">
-        <v>47.37786947141796</v>
+        <v>-0.0262213052858204</v>
       </c>
       <c r="L28">
         <v>-0.0001420253131272141</v>
@@ -3265,13 +3265,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U28">
-        <v>1.000006867313406</v>
+        <v>6.867313406155873E-06</v>
       </c>
       <c r="V28">
-        <v>1.000094541191597</v>
+        <v>9.454119159735264E-05</v>
       </c>
       <c r="W28">
-        <v>1.000567375886525</v>
+        <v>0.0005673758865247791</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3306,7 +3306,7 @@
         <v>0.762148621431586</v>
       </c>
       <c r="K29">
-        <v>43.25109767486067</v>
+        <v>-0.06748902325139333</v>
       </c>
       <c r="L29">
         <v>-9.656288910642481E-05</v>
@@ -3336,13 +3336,13 @@
         <v>0.06249999999994316</v>
       </c>
       <c r="U29">
-        <v>0.9999759934221976</v>
+        <v>-2.400657780243787E-05</v>
       </c>
       <c r="V29">
-        <v>1.000094532254405</v>
+        <v>9.453225440525515E-05</v>
       </c>
       <c r="W29">
-        <v>0.9991494187694925</v>
+        <v>-0.0008505812305075189</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3377,7 +3377,7 @@
         <v>0.9237160659478537</v>
       </c>
       <c r="K30">
-        <v>48.01727668125078</v>
+        <v>-0.01982723318749213</v>
       </c>
       <c r="L30">
         <v>3.110906359941898E-05</v>
@@ -3407,13 +3407,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U30">
-        <v>1.000006984840103</v>
+        <v>6.984840102974843E-06</v>
       </c>
       <c r="V30">
-        <v>1.000094523318903</v>
+        <v>9.452331890269505E-05</v>
       </c>
       <c r="W30">
-        <v>1.000851305334847</v>
+        <v>0.0008513053348468969</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3448,7 +3448,7 @@
         <v>1.037096728766276</v>
       </c>
       <c r="K31">
-        <v>50.91052938828152</v>
+        <v>0.009105293882815224</v>
       </c>
       <c r="L31">
         <v>0.0004101755195716521</v>
@@ -3478,13 +3478,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U31">
-        <v>1.000025424640388</v>
+        <v>2.542464038812753E-05</v>
       </c>
       <c r="V31">
-        <v>1.000113417262107</v>
+        <v>0.0001134172621073404</v>
       </c>
       <c r="W31">
-        <v>1.000567054153672</v>
+        <v>0.0005670541536717533</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3519,7 +3519,7 @@
         <v>1.096770761828621</v>
       </c>
       <c r="K32">
-        <v>52.30761425116941</v>
+        <v>0.0230761425116941</v>
       </c>
       <c r="L32">
         <v>0.001018641267836743</v>
@@ -3549,13 +3549,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U32">
-        <v>0.999943284936479</v>
+        <v>-5.671506352100675E-05</v>
       </c>
       <c r="V32">
-        <v>1.000037801466697</v>
+        <v>3.78014666968518E-05</v>
       </c>
       <c r="W32">
-        <v>1.000283366392746</v>
+        <v>0.000283366392745954</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3590,7 +3590,7 @@
         <v>0.9228625591009045</v>
       </c>
       <c r="K33">
-        <v>47.99420295189575</v>
+        <v>-0.02005797048104246</v>
       </c>
       <c r="L33">
         <v>0.001407197281141288</v>
@@ -3620,13 +3620,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U33">
-        <v>0.9999149225795473</v>
+        <v>-8.507742045271716E-05</v>
       </c>
       <c r="V33">
-        <v>1.0000189000189</v>
+        <v>1.890001889992554E-05</v>
       </c>
       <c r="W33">
-        <v>0.9991501416430595</v>
+        <v>-0.0008498583569405138</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3661,7 +3661,7 @@
         <v>0.874223854989685</v>
       </c>
       <c r="K34">
-        <v>46.64458051060802</v>
+        <v>-0.03355419489391975</v>
       </c>
       <c r="L34">
         <v>0.0015287158876839</v>
@@ -3691,13 +3691,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U34">
-        <v>0.9999054614897379</v>
+        <v>-9.45385102620877E-05</v>
       </c>
       <c r="V34">
-        <v>0.9999811003383041</v>
+        <v>-1.889966169588142E-05</v>
       </c>
       <c r="W34">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3732,7 +3732,7 @@
         <v>0.8742238549896851</v>
       </c>
       <c r="K35">
-        <v>46.64458051060802</v>
+        <v>-0.03355419489391975</v>
       </c>
       <c r="L35">
         <v>0.001476074156325049</v>
@@ -3762,13 +3762,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U35">
-        <v>0.9999621810205452</v>
+        <v>-3.781897945476231E-05</v>
       </c>
       <c r="V35">
-        <v>0.9999621999622</v>
+        <v>-3.780003779996211E-05</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3803,7 +3803,7 @@
         <v>0.8259878410120297</v>
       </c>
       <c r="K36">
-        <v>45.23512273522243</v>
+        <v>-0.04764877264777573</v>
       </c>
       <c r="L36">
         <v>0.001212326829235367</v>
@@ -3833,13 +3833,13 @@
         <v>-0.03125000000005684</v>
       </c>
       <c r="U36">
-        <v>0.9999716346926619</v>
+        <v>-2.836530733807408E-05</v>
       </c>
       <c r="V36">
-        <v>0.9999054963332576</v>
+        <v>-9.450366674235156E-05</v>
       </c>
       <c r="W36">
-        <v>0.9997163925127622</v>
+        <v>-0.0002836074872377692</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3874,7 +3874,7 @@
         <v>0.884067646619743</v>
       </c>
       <c r="K37">
-        <v>46.92334949893507</v>
+        <v>-0.03076650501064926</v>
       </c>
       <c r="L37">
         <v>0.0009378462874134049</v>
@@ -3904,13 +3904,13 @@
         <v>0.01875000000006821</v>
       </c>
       <c r="U37">
-        <v>1.00000945537065</v>
+        <v>9.455370650446326E-06</v>
       </c>
       <c r="V37">
-        <v>0.9999243899211764</v>
+        <v>-7.561007882361803E-05</v>
       </c>
       <c r="W37">
-        <v>1.000283687943262</v>
+        <v>0.0002836879432623896</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3945,7 +3945,7 @@
         <v>0.8331327139148968</v>
       </c>
       <c r="K38">
-        <v>45.44857595910948</v>
+        <v>-0.04551424040890523</v>
       </c>
       <c r="L38">
         <v>0.0005671736032856991</v>
@@ -3975,13 +3975,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U38">
-        <v>1.000028365843742</v>
+        <v>2.836584374210638E-05</v>
       </c>
       <c r="V38">
-        <v>0.9999621921019302</v>
+        <v>-3.780789806984153E-05</v>
       </c>
       <c r="W38">
-        <v>0.9997163925127622</v>
+        <v>-0.0002836074872377692</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4016,7 +4016,7 @@
         <v>0.8331327139148968</v>
       </c>
       <c r="K39">
-        <v>45.44857595910948</v>
+        <v>-0.04551424040890523</v>
       </c>
       <c r="L39">
         <v>0.000160129765197209</v>
@@ -4046,13 +4046,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4087,7 +4087,7 @@
         <v>0.8331327139148968</v>
       </c>
       <c r="K40">
-        <v>45.44857595910948</v>
+        <v>-0.04551424040890523</v>
       </c>
       <c r="L40">
         <v>-0.0002433861640691222</v>
@@ -4117,13 +4117,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>0.999962190672439</v>
+        <v>-3.780932756103361E-05</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4158,7 +4158,7 @@
         <v>0.8331327139148968</v>
       </c>
       <c r="K41">
-        <v>45.44857595910948</v>
+        <v>-0.04551424040890523</v>
       </c>
       <c r="L41">
         <v>-0.0006180460752944974</v>
@@ -4188,13 +4188,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U41">
-        <v>1.000066185091335</v>
+        <v>6.618509133526906E-05</v>
       </c>
       <c r="V41">
-        <v>0.9999432838642595</v>
+        <v>-5.671613574054213E-05</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4229,7 +4229,7 @@
         <v>0.8331327139148968</v>
       </c>
       <c r="K42">
-        <v>45.44857595910948</v>
+        <v>-0.04551424040890523</v>
       </c>
       <c r="L42">
         <v>-0.000949033978392186</v>
@@ -4259,13 +4259,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U42">
-        <v>1.000075635098468</v>
+        <v>7.563509846764127E-05</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4300,7 +4300,7 @@
         <v>0.9075908590116573</v>
       </c>
       <c r="K43">
-        <v>47.5778574175958</v>
+        <v>-0.02422142582404196</v>
       </c>
       <c r="L43">
         <v>-0.00112544488870446</v>
@@ -4330,13 +4330,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U43">
-        <v>1.000037814689116</v>
+        <v>3.781468911578934E-05</v>
       </c>
       <c r="V43">
-        <v>0.999981093549119</v>
+        <v>-1.890645088098442E-05</v>
       </c>
       <c r="W43">
-        <v>1.000283687943262</v>
+        <v>0.0002836879432623896</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4371,7 +4371,7 @@
         <v>0.7348134492531387</v>
       </c>
       <c r="K44">
-        <v>42.35691448953696</v>
+        <v>-0.07643085510463038</v>
       </c>
       <c r="L44">
         <v>-0.001503457207500768</v>
@@ -4401,13 +4401,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U44">
-        <v>1.000037813259219</v>
+        <v>3.781325921936585E-05</v>
       </c>
       <c r="V44">
-        <v>0.9999810931916583</v>
+        <v>-1.89068083417121E-05</v>
       </c>
       <c r="W44">
-        <v>0.999149177538287</v>
+        <v>-0.0008508224617129745</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4442,7 +4442,7 @@
         <v>0.6482165931324161</v>
       </c>
       <c r="K45">
-        <v>39.3283622937255</v>
+        <v>-0.106716377062745</v>
       </c>
       <c r="L45">
         <v>-0.002180750762879446</v>
@@ -4472,13 +4472,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U45">
-        <v>0.9999905470426423</v>
+        <v>-9.452957357658498E-06</v>
       </c>
       <c r="V45">
-        <v>0.9998865570051049</v>
+        <v>-0.0001134429948951299</v>
       </c>
       <c r="W45">
-        <v>0.9994323020153278</v>
+        <v>-0.0005676979846721553</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4513,7 +4513,7 @@
         <v>0.5465215126760123</v>
       </c>
       <c r="K46">
-        <v>35.33875915701572</v>
+        <v>-0.1466124084298429</v>
       </c>
       <c r="L46">
         <v>-0.003298288410221705</v>
@@ -4543,13 +4543,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U46">
-        <v>0.9999527347664152</v>
+        <v>-4.726523358478119E-05</v>
       </c>
       <c r="V46">
-        <v>0.9997919975796082</v>
+        <v>-0.0002080024203917619</v>
       </c>
       <c r="W46">
-        <v>0.9991479693268958</v>
+        <v>-0.0008520306731042426</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4584,7 +4584,7 @@
         <v>0.7667101641157048</v>
       </c>
       <c r="K47">
-        <v>43.39762003347436</v>
+        <v>-0.0660237996652564</v>
       </c>
       <c r="L47">
         <v>-0.004185358353345878</v>
@@ -4614,13 +4614,13 @@
         <v>-0.1562499999999432</v>
       </c>
       <c r="U47">
-        <v>0.9999432790387687</v>
+        <v>-5.672096123132686E-05</v>
       </c>
       <c r="V47">
-        <v>0.9998486940404365</v>
+        <v>-0.0001513059595634747</v>
       </c>
       <c r="W47">
-        <v>1.001137009664582</v>
+        <v>0.001137009664582189</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4655,7 +4655,7 @@
         <v>0.6531679283474229</v>
       </c>
       <c r="K48">
-        <v>39.51007741847238</v>
+        <v>-0.1048992258152762</v>
       </c>
       <c r="L48">
         <v>-0.005171261110996431</v>
@@ -4685,13 +4685,13 @@
         <v>-0.1625000000000796</v>
       </c>
       <c r="U48">
-        <v>0.9999338217915389</v>
+        <v>-6.617820846110956E-05</v>
       </c>
       <c r="V48">
-        <v>0.9998486711434789</v>
+        <v>-0.0001513288565211379</v>
       </c>
       <c r="W48">
-        <v>0.9991482112436115</v>
+        <v>-0.0008517887563884718</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4726,7 +4726,7 @@
         <v>0.6531679283474229</v>
       </c>
       <c r="K49">
-        <v>39.51007741847238</v>
+        <v>-0.1048992258152762</v>
       </c>
       <c r="L49">
         <v>-0.006135330516123904</v>
@@ -4756,13 +4756,13 @@
         <v>-0.1875000000000568</v>
       </c>
       <c r="U49">
-        <v>0.9999243627562211</v>
+        <v>-7.563724377890324E-05</v>
       </c>
       <c r="V49">
-        <v>0.9998675672096409</v>
+        <v>-0.0001324327903591271</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4797,7 +4797,7 @@
         <v>0.7078642040183073</v>
       </c>
       <c r="K50">
-        <v>41.44733535329249</v>
+        <v>-0.08552664646707503</v>
       </c>
       <c r="L50">
         <v>-0.006899035679222018</v>
@@ -4827,13 +4827,13 @@
         <v>-0.2124999999999773</v>
       </c>
       <c r="U50">
-        <v>0.9999243570347959</v>
+        <v>-7.564296520412572E-05</v>
       </c>
       <c r="V50">
-        <v>0.9998864711447493</v>
+        <v>-0.000113528855250733</v>
       </c>
       <c r="W50">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4868,7 +4868,7 @@
         <v>0.7078642040183074</v>
       </c>
       <c r="K51">
-        <v>41.44733535329249</v>
+        <v>-0.08552664646707503</v>
       </c>
       <c r="L51">
         <v>-0.007467617100188238</v>
@@ -4898,13 +4898,13 @@
         <v>-0.25</v>
       </c>
       <c r="U51">
-        <v>0.9999054391406308</v>
+        <v>-9.456085936920822E-05</v>
       </c>
       <c r="V51">
-        <v>0.9999053818787375</v>
+        <v>-9.461812126254632E-05</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4939,7 +4939,7 @@
         <v>0.7078642040183074</v>
       </c>
       <c r="K52">
-        <v>41.44733535329249</v>
+        <v>-0.08552664646707503</v>
       </c>
       <c r="L52">
         <v>-0.007854609142942065</v>
@@ -4969,13 +4969,13 @@
         <v>-0.2562499999999659</v>
       </c>
       <c r="U52">
-        <v>0.9999054301980291</v>
+        <v>-9.45698019708674E-05</v>
       </c>
       <c r="V52">
-        <v>0.9998864475103618</v>
+        <v>-0.0001135524896381801</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5010,7 +5010,7 @@
         <v>0.6654140834265178</v>
       </c>
       <c r="K53">
-        <v>39.95487308822662</v>
+        <v>-0.1004512691177338</v>
       </c>
       <c r="L53">
         <v>-0.008181726336584127</v>
@@ -5040,13 +5040,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U53">
-        <v>0.9999243370029886</v>
+        <v>-7.566299701144974E-05</v>
       </c>
       <c r="V53">
-        <v>0.9998864346147294</v>
+        <v>-0.0001135653852706309</v>
       </c>
       <c r="W53">
-        <v>0.999715909090909</v>
+        <v>-0.0002840909090909838</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5081,7 +5081,7 @@
         <v>0.728539662049344</v>
       </c>
       <c r="K54">
-        <v>42.14769715990159</v>
+        <v>-0.07852302840098413</v>
       </c>
       <c r="L54">
         <v>-0.008318610260465598</v>
@@ -5111,13 +5111,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U54">
-        <v>0.9999527070485416</v>
+        <v>-4.729295145844414E-05</v>
       </c>
       <c r="V54">
-        <v>0.9999053514301398</v>
+        <v>-9.464856986018955E-05</v>
       </c>
       <c r="W54">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5152,7 +5152,7 @@
         <v>0.728539662049344</v>
       </c>
       <c r="K55">
-        <v>42.14769715990159</v>
+        <v>-0.07852302840098413</v>
       </c>
       <c r="L55">
         <v>-0.008301256722704094</v>
@@ -5182,13 +5182,13 @@
         <v>-0.1750000000000114</v>
       </c>
       <c r="U55">
-        <v>0.9999337867365373</v>
+        <v>-6.621326346267775E-05</v>
       </c>
       <c r="V55">
-        <v>0.9999053424709402</v>
+        <v>-9.465752905979397E-05</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5223,7 +5223,7 @@
         <v>0.6809130366422859</v>
       </c>
       <c r="K56">
-        <v>40.50852255881401</v>
+        <v>-0.09491477441185991</v>
       </c>
       <c r="L56">
         <v>-0.008264721021919814</v>
@@ -5253,13 +5253,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U56">
-        <v>0.9999148630240655</v>
+        <v>-8.513697593448555E-05</v>
       </c>
       <c r="V56">
-        <v>0.999886400212053</v>
+        <v>-0.0001135997879470052</v>
       </c>
       <c r="W56">
-        <v>0.999715909090909</v>
+        <v>-0.0002840909090909838</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5294,7 +5294,7 @@
         <v>0.6809130366422858</v>
       </c>
       <c r="K57">
-        <v>40.508522558814</v>
+        <v>-0.09491477441185997</v>
       </c>
       <c r="L57">
         <v>-0.008188823958462595</v>
@@ -5324,13 +5324,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U57">
-        <v>0.9999432371834293</v>
+        <v>-5.676281657074345E-05</v>
       </c>
       <c r="V57">
-        <v>0.9998863873056749</v>
+        <v>-0.0001136126943250826</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5365,7 +5365,7 @@
         <v>0.7533481926900691</v>
       </c>
       <c r="K58">
-        <v>42.96626282394297</v>
+        <v>-0.07033737176057031</v>
       </c>
       <c r="L58">
         <v>-0.007960747887679049</v>
@@ -5395,13 +5395,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U58">
-        <v>0.9999337729547668</v>
+        <v>-6.622704523318035E-05</v>
       </c>
       <c r="V58">
-        <v>0.9998863743963637</v>
+        <v>-0.0001136256036362582</v>
       </c>
       <c r="W58">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5436,7 +5436,7 @@
         <v>0.8295957253719464</v>
       </c>
       <c r="K59">
-        <v>45.3431167261442</v>
+        <v>-0.046568832738558</v>
       </c>
       <c r="L59">
         <v>-0.007522643922165864</v>
@@ -5466,13 +5466,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U59">
-        <v>0.9999716151007663</v>
+        <v>-2.838489923373544E-05</v>
       </c>
       <c r="V59">
-        <v>0.9999621204947063</v>
+        <v>-3.787950529365869E-05</v>
       </c>
       <c r="W59">
-        <v>1.000284090909091</v>
+        <v>0.0002840909090908728</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5507,7 +5507,7 @@
         <v>0.8295957253719464</v>
       </c>
       <c r="K60">
-        <v>45.3431167261442</v>
+        <v>-0.046568832738558</v>
       </c>
       <c r="L60">
         <v>-0.006957800827399573</v>
@@ -5537,13 +5537,13 @@
         <v>5.684341886080801E-14</v>
       </c>
       <c r="U60">
-        <v>0.9999432285900822</v>
+        <v>-5.67714099177774E-05</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5578,7 +5578,7 @@
         <v>0.7096811793048834</v>
       </c>
       <c r="K61">
-        <v>41.50956259537367</v>
+        <v>-0.08490437404626328</v>
       </c>
       <c r="L61">
         <v>-0.006533588158816537</v>
@@ -5608,13 +5608,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U61">
-        <v>0.9999053756115098</v>
+        <v>-9.462438849017207E-05</v>
       </c>
       <c r="V61">
-        <v>1.000018940470103</v>
+        <v>1.89404701025353E-05</v>
       </c>
       <c r="W61">
-        <v>0.9994319795512637</v>
+        <v>-0.0005680204487362728</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5649,7 +5649,7 @@
         <v>0.6159606513507025</v>
       </c>
       <c r="K62">
-        <v>38.11730507397263</v>
+        <v>-0.1188269492602737</v>
       </c>
       <c r="L62">
         <v>-0.006404617093017709</v>
@@ -5679,13 +5679,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U62">
-        <v>0.9998769766539544</v>
+        <v>-0.0001230233460456365</v>
       </c>
       <c r="V62">
-        <v>0.9999052994431606</v>
+        <v>-9.470055683935552E-05</v>
       </c>
       <c r="W62">
-        <v>0.9994316567206593</v>
+        <v>-0.0005683432793407439</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5720,7 +5720,7 @@
         <v>0.6159606513507025</v>
       </c>
       <c r="K63">
-        <v>38.11730507397263</v>
+        <v>-0.1188269492602737</v>
       </c>
       <c r="L63">
         <v>-0.006439458997616206</v>
@@ -5750,13 +5750,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U63">
-        <v>0.999905355013345</v>
+        <v>-9.464498665501253E-05</v>
       </c>
       <c r="V63">
-        <v>0.9999621161896463</v>
+        <v>-3.788381035374488E-05</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5791,7 +5791,7 @@
         <v>0.6159606513507025</v>
       </c>
       <c r="K64">
-        <v>38.11730507397263</v>
+        <v>-0.1188269492602737</v>
       </c>
       <c r="L64">
         <v>-0.006547919165783228</v>
@@ -5821,13 +5821,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U64">
-        <v>0.9999148114493411</v>
+        <v>-8.518855065886566E-05</v>
       </c>
       <c r="V64">
-        <v>0.9999621147544089</v>
+        <v>-3.788524559111828E-05</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5862,7 +5862,7 @@
         <v>0.6159606513507025</v>
       </c>
       <c r="K65">
-        <v>38.11730507397263</v>
+        <v>-0.1188269492602737</v>
       </c>
       <c r="L65">
         <v>-0.006670264188856686</v>
@@ -5892,13 +5892,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U65">
-        <v>0.9999148041916338</v>
+        <v>-8.519580836618967E-05</v>
       </c>
       <c r="V65">
-        <v>0.9999431699785942</v>
+        <v>-5.683002140577376E-05</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5933,7 +5933,7 @@
         <v>0.6159606513507027</v>
       </c>
       <c r="K66">
-        <v>38.11730507397263</v>
+        <v>-0.1188269492602737</v>
       </c>
       <c r="L66">
         <v>-0.006768970552497564</v>
@@ -5963,13 +5963,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U66">
-        <v>0.9999242639401684</v>
+        <v>-7.573605983157705E-05</v>
       </c>
       <c r="V66">
-        <v>0.999943166748759</v>
+        <v>-5.683325124095084E-05</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6004,7 +6004,7 @@
         <v>0.5261614564354736</v>
       </c>
       <c r="K67">
-        <v>34.47613319133248</v>
+        <v>-0.1552386680866752</v>
       </c>
       <c r="L67">
         <v>-0.0070292856221167</v>
@@ -6034,13 +6034,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U67">
-        <v>0.999895855030202</v>
+        <v>-0.0001041449697980479</v>
       </c>
       <c r="V67">
-        <v>0.9999052725309286</v>
+        <v>-9.472746907135399E-05</v>
       </c>
       <c r="W67">
-        <v>0.9994313335228888</v>
+        <v>-0.0005686664771111793</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6075,7 +6075,7 @@
         <v>0.6028915755790973</v>
       </c>
       <c r="K68">
-        <v>37.61274840821862</v>
+        <v>-0.1238725159178138</v>
       </c>
       <c r="L68">
         <v>-0.007241967770284713</v>
@@ -6105,13 +6105,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U68">
-        <v>0.9999147816041889</v>
+        <v>-8.521839581110413E-05</v>
       </c>
       <c r="V68">
-        <v>0.9999431581340709</v>
+        <v>-5.684186592913587E-05</v>
       </c>
       <c r="W68">
-        <v>1.000284495021337</v>
+        <v>0.0002844950213372055</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6146,7 +6146,7 @@
         <v>0.6836601220460238</v>
       </c>
       <c r="K69">
-        <v>40.60558975615718</v>
+        <v>-0.09394410243842821</v>
       </c>
       <c r="L69">
         <v>-0.007282474983924759</v>
@@ -6176,13 +6176,13 @@
         <v>-0.1625000000000796</v>
       </c>
       <c r="U69">
-        <v>0.9999242438590179</v>
+        <v>-7.575614098209726E-05</v>
       </c>
       <c r="V69">
-        <v>0.9999431549028899</v>
+        <v>-5.684509711012531E-05</v>
       </c>
       <c r="W69">
-        <v>1.00028441410694</v>
+        <v>0.0002844141069395789</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6217,7 +6217,7 @@
         <v>0.8536991672396013</v>
       </c>
       <c r="K70">
-        <v>46.05381403450001</v>
+        <v>-0.03946185965499993</v>
       </c>
       <c r="L70">
         <v>-0.006982701368662525</v>
@@ -6247,13 +6247,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U70">
-        <v>0.9999431785896926</v>
+        <v>-5.682141030738386E-05</v>
       </c>
       <c r="V70">
-        <v>0.9999810505571135</v>
+        <v>-1.894944288649558E-05</v>
       </c>
       <c r="W70">
-        <v>1.000568666477111</v>
+        <v>0.0005686664771111793</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6288,7 +6288,7 @@
         <v>0.7835738275186003</v>
       </c>
       <c r="K71">
-        <v>43.93279467487749</v>
+        <v>-0.0606720532512251</v>
       </c>
       <c r="L71">
         <v>-0.006573852423860574</v>
@@ -6318,13 +6318,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U71">
-        <v>0.9999337045876424</v>
+        <v>-6.629541235758651E-05</v>
       </c>
       <c r="V71">
-        <v>0.9999810501980254</v>
+        <v>-1.894980197458818E-05</v>
       </c>
       <c r="W71">
-        <v>0.9997158283603297</v>
+        <v>-0.0002841716396703164</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6359,7 +6359,7 @@
         <v>0.6680468454425466</v>
       </c>
       <c r="K72">
-        <v>40.04964532427794</v>
+        <v>-0.09950354675722062</v>
       </c>
       <c r="L72">
         <v>-0.006307928087364233</v>
@@ -6389,13 +6389,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U72">
-        <v>0.9999147573900607</v>
+        <v>-8.524260993925115E-05</v>
       </c>
       <c r="V72">
-        <v>0.9999431495167708</v>
+        <v>-5.685048322923159E-05</v>
       </c>
       <c r="W72">
-        <v>0.9994314951677089</v>
+        <v>-0.0005685048322910946</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6430,7 +6430,7 @@
         <v>0.9008405120052089</v>
       </c>
       <c r="K73">
-        <v>47.39169363845821</v>
+        <v>-0.0260830636154179</v>
       </c>
       <c r="L73">
         <v>-0.005812220805818378</v>
@@ -6460,13 +6460,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U73">
-        <v>0.9999336945402191</v>
+        <v>-6.630545978092428E-05</v>
       </c>
       <c r="V73">
-        <v>0.9999810487615367</v>
+        <v>-1.895123846329394E-05</v>
       </c>
       <c r="W73">
-        <v>1.000853242320819</v>
+        <v>0.0008532423208189588</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6501,7 +6501,7 @@
         <v>0.9825225002728406</v>
       </c>
       <c r="K74">
-        <v>49.55921055814615</v>
+        <v>-0.004407894418538505</v>
       </c>
       <c r="L74">
         <v>-0.005084225627447804</v>
@@ -6531,13 +6531,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U74">
-        <v>0.999971581490077</v>
+        <v>-2.841850992296724E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999810484023802</v>
+        <v>-1.895159761977627E-05</v>
       </c>
       <c r="W74">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6572,7 +6572,7 @@
         <v>0.9047326461776548</v>
       </c>
       <c r="K75">
-        <v>47.4991935478839</v>
+        <v>-0.025008064521161</v>
       </c>
       <c r="L75">
         <v>-0.004346805922241086</v>
@@ -6602,13 +6602,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U75">
-        <v>0.9999810537882952</v>
+        <v>-1.894621170484001E-05</v>
       </c>
       <c r="V75">
-        <v>0.9999620960864209</v>
+        <v>-3.790391357905154E-05</v>
       </c>
       <c r="W75">
-        <v>0.999715909090909</v>
+        <v>-0.0002840909090909838</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6643,7 +6643,7 @@
         <v>0.9047326461776547</v>
       </c>
       <c r="K76">
-        <v>47.49919354788389</v>
+        <v>-0.02500806452116111</v>
       </c>
       <c r="L76">
         <v>-0.003634826139585073</v>
@@ -6673,13 +6673,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U76">
-        <v>1.000009473285335</v>
+        <v>9.473285335293014E-06</v>
       </c>
       <c r="V76">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6714,7 +6714,7 @@
         <v>0.9047326461776549</v>
       </c>
       <c r="K77">
-        <v>47.49919354788391</v>
+        <v>-0.02500806452116094</v>
       </c>
       <c r="L77">
         <v>-0.002970385482661098</v>
@@ -6744,13 +6744,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U77">
-        <v>0.9999715804132207</v>
+        <v>-2.841958677934908E-05</v>
       </c>
       <c r="V77">
-        <v>1.00003790535034</v>
+        <v>3.790535034031706E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6785,7 +6785,7 @@
         <v>0.7084647958650441</v>
       </c>
       <c r="K78">
-        <v>41.46791889301578</v>
+        <v>-0.08532081106984224</v>
       </c>
       <c r="L78">
         <v>-0.002676707919220922</v>
@@ -6815,13 +6815,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U78">
-        <v>0.9999715796055251</v>
+        <v>-2.842039447492617E-05</v>
       </c>
       <c r="V78">
-        <v>0.9999810480432105</v>
+        <v>-1.895195678947026E-05</v>
       </c>
       <c r="W78">
-        <v>0.9991474850809891</v>
+        <v>-0.0008525149190109493</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6856,7 +6856,7 @@
         <v>0.7845822131831033</v>
       </c>
       <c r="K79">
-        <v>43.96447568440507</v>
+        <v>-0.06035524315594931</v>
       </c>
       <c r="L79">
         <v>-0.002513157512055358</v>
@@ -6886,13 +6886,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U79">
-        <v>0.9999810525318553</v>
+        <v>-1.894746814468107E-05</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W79">
-        <v>1.00028441410694</v>
+        <v>0.0002844141069395789</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6927,7 +6927,7 @@
         <v>0.8647058103600536</v>
       </c>
       <c r="K80">
-        <v>46.37223767716414</v>
+        <v>-0.03627762322835865</v>
       </c>
       <c r="L80">
         <v>-0.002326235082706281</v>
@@ -6957,13 +6957,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U80">
-        <v>0.9999810521728423</v>
+        <v>-1.894782715772259E-05</v>
       </c>
       <c r="V80">
-        <v>1.000018952315973</v>
+        <v>1.895231597281999E-05</v>
       </c>
       <c r="W80">
-        <v>1.000284333238556</v>
+        <v>0.0002843332385555897</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6998,7 +6998,7 @@
         <v>0.7974485023867889</v>
       </c>
       <c r="K81">
-        <v>44.36558273173758</v>
+        <v>-0.05634417268262426</v>
       </c>
       <c r="L81">
         <v>-0.002232080068204441</v>
@@ -7028,13 +7028,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U81">
-        <v>0.9999715777207225</v>
+        <v>-2.842227927746244E-05</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0.9997157475838544</v>
+        <v>-0.0002842524161456028</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7069,7 +7069,7 @@
         <v>0.7974485023867889</v>
       </c>
       <c r="K82">
-        <v>44.36558273173758</v>
+        <v>-0.05634417268262426</v>
       </c>
       <c r="L82">
         <v>-0.00219200431602309</v>
@@ -7099,13 +7099,13 @@
         <v>0.01250000000004547</v>
       </c>
       <c r="U82">
-        <v>0.9999715769128737</v>
+        <v>-2.84230871262503E-05</v>
       </c>
       <c r="V82">
-        <v>1.000037903913579</v>
+        <v>3.790391357894052E-05</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7140,7 +7140,7 @@
         <v>0.883631955812798</v>
       </c>
       <c r="K83">
-        <v>46.9110726798806</v>
+        <v>-0.03088927320119406</v>
       </c>
       <c r="L83">
         <v>-0.002075775593801247</v>
@@ -7170,13 +7170,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U83">
-        <v>0.9999905253683263</v>
+        <v>-9.474631673667133E-06</v>
       </c>
       <c r="V83">
-        <v>1.000037902476927</v>
+        <v>3.790247692703197E-05</v>
       </c>
       <c r="W83">
-        <v>1.000284333238556</v>
+        <v>0.0002843332385555897</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7211,7 +7211,7 @@
         <v>0.8101368104717577</v>
       </c>
       <c r="K84">
-        <v>44.75555691619905</v>
+        <v>-0.05244443083800943</v>
       </c>
       <c r="L84">
         <v>-0.002016750260811679</v>
@@ -7241,13 +7241,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U84">
-        <v>0.9999715758356704</v>
+        <v>-2.842416432957684E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W84">
-        <v>0.9997157475838544</v>
+        <v>-0.0002842524161456028</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7282,7 +7282,7 @@
         <v>0.8976883191925392</v>
       </c>
       <c r="K85">
-        <v>47.30430756798371</v>
+        <v>-0.02695692432016294</v>
       </c>
       <c r="L85">
         <v>-0.001885305454352824</v>
@@ -7312,13 +7312,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U85">
-        <v>0.9999810500184763</v>
+        <v>-1.89499815237415E-05</v>
       </c>
       <c r="V85">
-        <v>0.9999810494798084</v>
+        <v>-1.895052019162957E-05</v>
       </c>
       <c r="W85">
-        <v>1.000284333238556</v>
+        <v>0.0002843332385555897</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7353,7 +7353,7 @@
         <v>0.6558990501144705</v>
       </c>
       <c r="K86">
-        <v>39.60984518163284</v>
+        <v>-0.1039015481836716</v>
       </c>
       <c r="L86">
         <v>-0.002125488518606267</v>
@@ -7383,13 +7383,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U86">
-        <v>0.9999526241484191</v>
+        <v>-4.737585158087754E-05</v>
       </c>
       <c r="V86">
-        <v>0.9999241964827167</v>
+        <v>-7.580351728331269E-05</v>
       </c>
       <c r="W86">
-        <v>0.9988629903354177</v>
+        <v>-0.0011370096645823</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7424,7 +7424,7 @@
         <v>0.6558990501144704</v>
       </c>
       <c r="K87">
-        <v>39.60984518163283</v>
+        <v>-0.1039015481836717</v>
       </c>
       <c r="L87">
         <v>-0.002567794201981145</v>
@@ -7454,13 +7454,13 @@
         <v>-0.07499999999993179</v>
       </c>
       <c r="U87">
-        <v>0.9999526219038413</v>
+        <v>-4.737809615873445E-05</v>
       </c>
       <c r="V87">
-        <v>0.999962095368054</v>
+        <v>-3.790463194597304E-05</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7495,7 +7495,7 @@
         <v>0.610359381048702</v>
       </c>
       <c r="K88">
-        <v>37.90206013835386</v>
+        <v>-0.1209793986164614</v>
       </c>
       <c r="L88">
         <v>-0.003198547052374604</v>
@@ -7525,13 +7525,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U88">
-        <v>0.9999336675226714</v>
+        <v>-6.633247732856784E-05</v>
       </c>
       <c r="V88">
-        <v>0.9998862817937151</v>
+        <v>-0.0001137182062849185</v>
       </c>
       <c r="W88">
-        <v>0.999715424018213</v>
+        <v>-0.0002845759817869942</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7566,7 +7566,7 @@
         <v>0.6834445513124404</v>
       </c>
       <c r="K89">
-        <v>40.59798410227506</v>
+        <v>-0.09402015897724936</v>
       </c>
       <c r="L89">
         <v>-0.003788162059025347</v>
@@ -7596,13 +7596,13 @@
         <v>-0.125</v>
       </c>
       <c r="U89">
-        <v>0.9999336631223821</v>
+        <v>-6.633687761792295E-05</v>
       </c>
       <c r="V89">
-        <v>0.9998862688604141</v>
+        <v>-0.0001137311395859042</v>
       </c>
       <c r="W89">
-        <v>1.000284656988329</v>
+        <v>0.000284656988329024</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7637,7 +7637,7 @@
         <v>0.6834445513124404</v>
       </c>
       <c r="K90">
-        <v>40.59798410227506</v>
+        <v>-0.09402015897724936</v>
       </c>
       <c r="L90">
         <v>-0.004301521398585435</v>
@@ -7667,13 +7667,13 @@
         <v>-0.125</v>
       </c>
       <c r="U90">
-        <v>0.9999336587215089</v>
+        <v>-6.634127849114435E-05</v>
       </c>
       <c r="V90">
-        <v>0.9999052132701421</v>
+        <v>-9.478672985785419E-05</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7708,7 +7708,7 @@
         <v>0.8454061474648618</v>
       </c>
       <c r="K91">
-        <v>45.81138675766545</v>
+        <v>-0.04188613242334555</v>
       </c>
       <c r="L91">
         <v>-0.00451330721301847</v>
@@ -7738,13 +7738,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U91">
-        <v>0.999971566137165</v>
+        <v>-2.843386283502003E-05</v>
       </c>
       <c r="V91">
-        <v>0.99994312257086</v>
+        <v>-5.687742913995653E-05</v>
       </c>
       <c r="W91">
-        <v>1.000569151963574</v>
+        <v>0.0005691519635744324</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7779,7 +7779,7 @@
         <v>0.8454061474648616</v>
       </c>
       <c r="K92">
-        <v>45.81138675766545</v>
+        <v>-0.04188613242334555</v>
       </c>
       <c r="L92">
         <v>-0.004512453726532735</v>
@@ -7809,13 +7809,13 @@
         <v>-0.1250000000000568</v>
       </c>
       <c r="U92">
-        <v>0.9999905217762192</v>
+        <v>-9.478223780834405E-06</v>
       </c>
       <c r="V92">
-        <v>0.9999431193356336</v>
+        <v>-5.688066436637662E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7850,7 +7850,7 @@
         <v>0.7757945549923324</v>
       </c>
       <c r="K93">
-        <v>43.687179511353</v>
+        <v>-0.06312820488646997</v>
       </c>
       <c r="L93">
         <v>-0.004469914334416928</v>
@@ -7880,13 +7880,13 @@
         <v>-0.1374999999999318</v>
       </c>
       <c r="U93">
-        <v>0.9999810433727629</v>
+        <v>-1.895662723705449E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999810387000133</v>
+        <v>-1.896129998668616E-05</v>
       </c>
       <c r="W93">
-        <v>0.9997155858930602</v>
+        <v>-0.000284414106939801</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7921,7 +7921,7 @@
         <v>0.8624692979157567</v>
       </c>
       <c r="K94">
-        <v>46.30783975236128</v>
+        <v>-0.03692160247638726</v>
       </c>
       <c r="L94">
         <v>-0.00428503158387408</v>
@@ -7951,13 +7951,13 @@
         <v>-0.1124999999999545</v>
       </c>
       <c r="U94">
-        <v>0.9999905215067014</v>
+        <v>-9.478493298575863E-06</v>
       </c>
       <c r="V94">
-        <v>0.9999810383404756</v>
+        <v>-1.896165952441908E-05</v>
       </c>
       <c r="W94">
-        <v>1.000284495021337</v>
+        <v>0.0002844950213372055</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7992,7 +7992,7 @@
         <v>0.9537058694140459</v>
       </c>
       <c r="K95">
-        <v>48.81522261588336</v>
+        <v>-0.01184777384116642</v>
       </c>
       <c r="L95">
         <v>-0.003906546601229801</v>
@@ -8022,13 +8022,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V95">
-        <v>0.9999810379809242</v>
+        <v>-1.896201907580775E-05</v>
       </c>
       <c r="W95">
-        <v>1.00028441410694</v>
+        <v>0.0002844141069395789</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8063,7 +8063,7 @@
         <v>0.8701390257927873</v>
       </c>
       <c r="K96">
-        <v>46.528039562402</v>
+        <v>-0.03471960437597998</v>
       </c>
       <c r="L96">
         <v>-0.003524179272556415</v>
@@ -8093,13 +8093,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U96">
-        <v>0.9999905214168586</v>
+        <v>-9.478583141375729E-06</v>
       </c>
       <c r="V96">
-        <v>0.9999810376213593</v>
+        <v>-1.896237864074113E-05</v>
       </c>
       <c r="W96">
-        <v>0.9997156667614445</v>
+        <v>-0.0002843332385554787</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8134,7 +8134,7 @@
         <v>1.146844144330294</v>
       </c>
       <c r="K97">
-        <v>53.42000011314519</v>
+        <v>0.03420000113145194</v>
       </c>
       <c r="L97">
         <v>-0.002840365941147436</v>
@@ -8164,13 +8164,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U97">
-        <v>1.000037914691943</v>
+        <v>3.791469194336372E-05</v>
       </c>
       <c r="V97">
-        <v>1.000037925476439</v>
+        <v>3.792547643866051E-05</v>
       </c>
       <c r="W97">
-        <v>1.000853242320819</v>
+        <v>0.0008532423208189588</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8205,7 +8205,7 @@
         <v>0.9603619850865621</v>
       </c>
       <c r="K98">
-        <v>48.98901286560891</v>
+        <v>-0.01010987134391095</v>
       </c>
       <c r="L98">
         <v>-0.002214214790275183</v>
@@ -8235,13 +8235,13 @@
         <v>0.0625</v>
       </c>
       <c r="U98">
-        <v>1.000009478313618</v>
+        <v>9.478313618194179E-06</v>
       </c>
       <c r="V98">
-        <v>0.9999810379809242</v>
+        <v>-1.896201907580775E-05</v>
       </c>
       <c r="W98">
-        <v>0.9994316567206593</v>
+        <v>-0.0005683432793407439</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8276,7 +8276,7 @@
         <v>1.217106125998</v>
       </c>
       <c r="K99">
-        <v>54.89615998648402</v>
+        <v>0.04896159986484017</v>
       </c>
       <c r="L99">
         <v>-0.001344195296301537</v>
@@ -8306,13 +8306,13 @@
         <v>0.1000000000000796</v>
       </c>
       <c r="U99">
-        <v>1.000028434671343</v>
+        <v>2.843467134261424E-05</v>
       </c>
       <c r="V99">
-        <v>1.000056887135922</v>
+        <v>5.688713592233441E-05</v>
       </c>
       <c r="W99">
-        <v>1.000852999715667</v>
+        <v>0.000852999715666769</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8347,7 +8347,7 @@
         <v>1.217106125998</v>
       </c>
       <c r="K100">
-        <v>54.89615998648402</v>
+        <v>0.04896159986484017</v>
       </c>
       <c r="L100">
         <v>-0.0003769665788750343</v>
@@ -8377,13 +8377,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U100">
-        <v>1.000009477954278</v>
+        <v>9.477954278303002E-06</v>
       </c>
       <c r="V100">
-        <v>1.000037922599973</v>
+        <v>3.792259997337233E-05</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8418,7 +8418,7 @@
         <v>1.217106125997999</v>
       </c>
       <c r="K101">
-        <v>54.89615998648401</v>
+        <v>0.04896159986484006</v>
       </c>
       <c r="L101">
         <v>0.0005888849955354817</v>
@@ -8448,13 +8448,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U101">
-        <v>1.000018955728895</v>
+        <v>1.895572889520913E-05</v>
       </c>
       <c r="V101">
-        <v>1.000113763485713</v>
+        <v>0.0001137634857133474</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8489,7 +8489,7 @@
         <v>1.106643304583511</v>
       </c>
       <c r="K102">
-        <v>52.53111915888852</v>
+        <v>0.02531119158888517</v>
       </c>
       <c r="L102">
         <v>0.001386643629203582</v>
@@ -8519,13 +8519,13 @@
         <v>0.1874999999999432</v>
       </c>
       <c r="U102">
-        <v>1.000028433054373</v>
+        <v>2.843305437338906E-05</v>
       </c>
       <c r="V102">
-        <v>1.000094792120879</v>
+        <v>9.479212087915023E-05</v>
       </c>
       <c r="W102">
-        <v>0.999715909090909</v>
+        <v>-0.0002840909090909838</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8560,7 +8560,7 @@
         <v>1.202178649971055</v>
       </c>
       <c r="K103">
-        <v>54.5904234421152</v>
+        <v>0.04590423442115199</v>
       </c>
       <c r="L103">
         <v>0.002130207899839667</v>
@@ -8590,13 +8590,13 @@
         <v>0.1874999999999432</v>
       </c>
       <c r="U103">
-        <v>1.000009477415319</v>
+        <v>9.47741531920343E-06</v>
       </c>
       <c r="V103">
-        <v>1.000132696390658</v>
+        <v>0.0001326963906580492</v>
       </c>
       <c r="W103">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8631,7 +8631,7 @@
         <v>1.000875516920683</v>
       </c>
       <c r="K104">
-        <v>50.0218783455862</v>
+        <v>0.000218783455861904</v>
       </c>
       <c r="L104">
         <v>0.0025786881851539</v>
@@ -8661,13 +8661,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U104">
-        <v>0.9999810453490027</v>
+        <v>-1.895465099732707E-05</v>
       </c>
       <c r="V104">
-        <v>1.000075816448378</v>
+        <v>7.581644837828527E-05</v>
       </c>
       <c r="W104">
-        <v>0.9994318181818183</v>
+        <v>-0.0005681818181817455</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8702,7 +8702,7 @@
         <v>1.000875516920683</v>
       </c>
       <c r="K105">
-        <v>50.0218783455862</v>
+        <v>0.000218783455861904</v>
       </c>
       <c r="L105">
         <v>0.002810425862126331</v>
@@ -8732,13 +8732,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U105">
-        <v>0.9999905224948583</v>
+        <v>-9.477505141686215E-06</v>
       </c>
       <c r="V105">
-        <v>1.00007581070068</v>
+        <v>7.581070068041207E-05</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8773,7 +8773,7 @@
         <v>1.000875516920683</v>
       </c>
       <c r="K106">
-        <v>50.0218783455862</v>
+        <v>0.000218783455861904</v>
       </c>
       <c r="L106">
         <v>0.002885855395781236</v>
@@ -8803,13 +8803,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U106">
-        <v>0.9999905224050345</v>
+        <v>-9.477594965501268E-06</v>
       </c>
       <c r="V106">
-        <v>1.000037902476927</v>
+        <v>3.790247692680992E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8844,7 +8844,7 @@
         <v>1.098527420094452</v>
       </c>
       <c r="K107">
-        <v>52.34753711462147</v>
+        <v>0.02347537114621479</v>
       </c>
       <c r="L107">
         <v>0.002954812717185774</v>
@@ -8874,13 +8874,13 @@
         <v>0.1000000000000796</v>
       </c>
       <c r="U107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V107">
-        <v>1.000056851560575</v>
+        <v>5.685156057544383E-05</v>
       </c>
       <c r="W107">
-        <v>1.000284252416145</v>
+        <v>0.0002842524161454918</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8915,7 +8915,7 @@
         <v>1.098527420094452</v>
       </c>
       <c r="K108">
-        <v>52.34753711462148</v>
+        <v>0.02347537114621479</v>
       </c>
       <c r="L108">
         <v>0.003004688484132385</v>
@@ -8945,13 +8945,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U108">
-        <v>1.000028433054373</v>
+        <v>2.843305437338906E-05</v>
       </c>
       <c r="V108">
-        <v>1.000075797771546</v>
+        <v>7.579777154553824E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8986,7 +8986,7 @@
         <v>0.9912704195124555</v>
       </c>
       <c r="K109">
-        <v>49.78080374212354</v>
+        <v>-0.002191962578764639</v>
       </c>
       <c r="L109">
         <v>0.002925350293702386</v>
@@ -9016,13 +9016,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U109">
-        <v>1.000009477415319</v>
+        <v>9.47741531920343E-06</v>
       </c>
       <c r="V109">
-        <v>1.000037896013339</v>
+        <v>3.789601333936687E-05</v>
       </c>
       <c r="W109">
-        <v>0.9997158283603297</v>
+        <v>-0.0002841716396703164</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9057,7 +9057,7 @@
         <v>0.9912704195124555</v>
       </c>
       <c r="K110">
-        <v>49.78080374212354</v>
+        <v>-0.002191962578764639</v>
       </c>
       <c r="L110">
         <v>0.002762140872343539</v>
@@ -9087,13 +9087,13 @@
         <v>5.684341886080801E-14</v>
       </c>
       <c r="U110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110">
-        <v>1.000018947288643</v>
+        <v>1.894728864271222E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9128,7 +9128,7 @@
         <v>0.9912704195124555</v>
       </c>
       <c r="K111">
-        <v>49.78080374212354</v>
+        <v>-0.002191962578764639</v>
       </c>
       <c r="L111">
         <v>0.002548467915663075</v>
@@ -9158,13 +9158,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U111">
-        <v>1.000009477325499</v>
+        <v>9.477325498830069E-06</v>
       </c>
       <c r="V111">
-        <v>1.0000378938593</v>
+        <v>3.789385929997557E-05</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9199,7 +9199,7 @@
         <v>0.8073824798210353</v>
       </c>
       <c r="K112">
-        <v>44.6713680604551</v>
+        <v>-0.05328631939544898</v>
       </c>
       <c r="L112">
         <v>0.002101522344426596</v>
@@ -9229,13 +9229,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U112">
-        <v>0.99999052276432</v>
+        <v>-9.47723568001102E-06</v>
       </c>
       <c r="V112">
-        <v>0.9999431613648853</v>
+        <v>-5.683863511474208E-05</v>
       </c>
       <c r="W112">
-        <v>0.9994314951677089</v>
+        <v>-0.0005685048322910946</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9270,7 +9270,7 @@
         <v>0.9050179224290706</v>
       </c>
       <c r="K113">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L113">
         <v>0.001637619273984859</v>
@@ -9300,13 +9300,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U113">
-        <v>0.9999905226745014</v>
+        <v>-9.477325498608025E-06</v>
       </c>
       <c r="V113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W113">
-        <v>1.00028441410694</v>
+        <v>0.0002844141069395789</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9341,7 +9341,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K114">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L114">
         <v>0.001187044842765244</v>
@@ -9371,13 +9371,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U114">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V114">
-        <v>0.9999431581340709</v>
+        <v>-5.684186592913587E-05</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9412,7 +9412,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K115">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L115">
         <v>0.000768935770816019</v>
@@ -9442,13 +9442,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U115">
-        <v>0.9999905225846809</v>
+        <v>-9.477415319092408E-06</v>
       </c>
       <c r="V115">
-        <v>0.9999431549028897</v>
+        <v>-5.684509711034735E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9483,7 +9483,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K116">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L116">
         <v>0.0003943375965462856</v>
@@ -9513,13 +9513,13 @@
         <v>-0.08125000000006821</v>
       </c>
       <c r="U116">
-        <v>1.000028432515425</v>
+        <v>2.843251542450353E-05</v>
       </c>
       <c r="V116">
-        <v>0.999943151671341</v>
+        <v>-5.684832865904266E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9554,7 +9554,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K117">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L117">
         <v>6.853252799736379E-05</v>
@@ -9584,13 +9584,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U117">
-        <v>1.00002843170704</v>
+        <v>2.843170703958897E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999620989596163</v>
+        <v>-3.790104038370323E-05</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9625,7 +9625,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K118">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L118">
         <v>-0.0002072025278541575</v>
@@ -9655,13 +9655,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U118">
-        <v>1.000037907864934</v>
+        <v>3.790786493418352E-05</v>
       </c>
       <c r="V118">
-        <v>0.9999431462846098</v>
+        <v>-5.685371539021489E-05</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9696,7 +9696,7 @@
         <v>0.9050179224290706</v>
       </c>
       <c r="K119">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L119">
         <v>-0.0004342805376432242</v>
@@ -9726,13 +9726,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U119">
-        <v>1.000028429820987</v>
+        <v>2.842982098694158E-05</v>
       </c>
       <c r="V119">
-        <v>0.999981047684027</v>
+        <v>-1.895231597304203E-05</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9767,7 +9767,7 @@
         <v>0.9050179224290706</v>
       </c>
       <c r="K120">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L120">
         <v>-0.0006158310231641412</v>
@@ -9797,13 +9797,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U120">
-        <v>1.000028429012755</v>
+        <v>2.842901275523779E-05</v>
       </c>
       <c r="V120">
-        <v>0.99998104732483</v>
+        <v>-1.895267517004751E-05</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9838,7 +9838,7 @@
         <v>0.9050179224290706</v>
       </c>
       <c r="K121">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L121">
         <v>-0.0007559897228729996</v>
@@ -9868,13 +9868,13 @@
         <v>-0.04375000000004547</v>
       </c>
       <c r="U121">
-        <v>1.00000947606819</v>
+        <v>9.476068189684383E-06</v>
       </c>
       <c r="V121">
-        <v>0.9999810469656192</v>
+        <v>-1.895303438081974E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9909,7 +9909,7 @@
         <v>0.9050179224290708</v>
       </c>
       <c r="K122">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L122">
         <v>-0.0008593891345498473</v>
@@ -9939,13 +9939,13 @@
         <v>-0.03750000000007958</v>
       </c>
       <c r="U122">
-        <v>1.000009475978395</v>
+        <v>9.475978394846152E-06</v>
       </c>
       <c r="V122">
-        <v>0.9999620932127898</v>
+        <v>-3.790678721016238E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9980,7 +9980,7 @@
         <v>0.9050179224290705</v>
       </c>
       <c r="K123">
-        <v>47.50705553862142</v>
+        <v>-0.02492944461378577</v>
       </c>
       <c r="L123">
         <v>-0.0009308013843747767</v>
@@ -10010,13 +10010,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U123">
-        <v>1.000018951777203</v>
+        <v>1.895177720268038E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999620917758106</v>
+        <v>-3.790822418936468E-05</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10051,7 +10051,7 @@
         <v>0.9050179224290706</v>
       </c>
       <c r="K124">
-        <v>47.50705553862143</v>
+        <v>-0.02492944461378571</v>
       </c>
       <c r="L124">
         <v>-0.0009748956096064249</v>
@@ -10081,13 +10081,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U124">
-        <v>1.00000947570902</v>
+        <v>9.475709019879375E-06</v>
       </c>
       <c r="V124">
-        <v>0.9999810451693615</v>
+        <v>-1.895483063851788E-05</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10122,7 +10122,7 @@
         <v>0.9050179224290705</v>
       </c>
       <c r="K125">
-        <v>47.50705553862142</v>
+        <v>-0.02492944461378577</v>
       </c>
       <c r="L125">
         <v>-0.0009960805400310293</v>
@@ -10152,13 +10152,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>0.999981044810069</v>
+        <v>-1.895518993100254E-05</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10193,7 +10193,7 @@
         <v>1.095213594648935</v>
       </c>
       <c r="K126">
-        <v>52.27216916910298</v>
+        <v>0.02272169169102978</v>
       </c>
       <c r="L126">
         <v>-0.0008948896383013566</v>
@@ -10223,13 +10223,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U126">
-        <v>1.000018951238464</v>
+        <v>1.895123846362701E-05</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>1.000284333238556</v>
+        <v>0.0002843332385555897</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10264,7 +10264,7 @@
         <v>0.7820653067723778</v>
       </c>
       <c r="K127">
-        <v>43.88533370804635</v>
+        <v>-0.06114666291953652</v>
       </c>
       <c r="L127">
         <v>-0.000929788596449511</v>
@@ -10294,13 +10294,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U127">
-        <v>0.9999715736810186</v>
+        <v>-2.842631898136716E-05</v>
       </c>
       <c r="V127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W127">
-        <v>0.9994314951677089</v>
+        <v>-0.0005685048322910946</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10335,7 +10335,7 @@
         <v>1.083038357438195</v>
       </c>
       <c r="K128">
-        <v>51.99320279297014</v>
+        <v>0.01993202792970139</v>
       </c>
       <c r="L128">
         <v>-0.0008344848620990955</v>
@@ -10365,13 +10365,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U128">
-        <v>1.00000947570902</v>
+        <v>9.475709019879375E-06</v>
       </c>
       <c r="V128">
-        <v>1.000018955549237</v>
+        <v>1.895554923714293E-05</v>
       </c>
       <c r="W128">
-        <v>1.000568828213879</v>
+        <v>0.0005688282138793799</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10406,7 +10406,7 @@
         <v>0.9349377896789753</v>
       </c>
       <c r="K129">
-        <v>48.31875188266856</v>
+        <v>-0.01681248117331441</v>
       </c>
       <c r="L129">
         <v>-0.0007668550068777111</v>
@@ -10436,13 +10436,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U129">
-        <v>0.999971573142305</v>
+        <v>-2.842685769499642E-05</v>
       </c>
       <c r="V129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>0.9997157475838544</v>
+        <v>-0.0002842524161456028</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10477,7 +10477,7 @@
         <v>0.8172943351555697</v>
       </c>
       <c r="K130">
-        <v>44.97314052792693</v>
+        <v>-0.0502685947207307</v>
       </c>
       <c r="L130">
         <v>-0.0008210319931708102</v>
@@ -10507,13 +10507,13 @@
         <v>5.684341886080801E-14</v>
       </c>
       <c r="U130">
-        <v>0.9999620964455942</v>
+        <v>-3.790355440580484E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999810448100689</v>
+        <v>-1.895518993111356E-05</v>
       </c>
       <c r="W130">
-        <v>0.9997156667614445</v>
+        <v>-0.0002843332385554787</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10548,7 +10548,7 @@
         <v>0.8172943351555698</v>
       </c>
       <c r="K131">
-        <v>44.97314052792693</v>
+        <v>-0.0502685947207307</v>
       </c>
       <c r="L131">
         <v>-0.0009425639676942301</v>
@@ -10578,13 +10578,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U131">
-        <v>0.99996209500886</v>
+        <v>-3.790499113998091E-05</v>
       </c>
       <c r="V131">
-        <v>0.999981044450763</v>
+        <v>-1.895554923703191E-05</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10619,7 +10619,7 @@
         <v>0.9567184333540586</v>
       </c>
       <c r="K132">
-        <v>48.89402670542252</v>
+        <v>-0.01105973294577484</v>
       </c>
       <c r="L132">
         <v>-0.0009902025596429137</v>
@@ -10649,13 +10649,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U132">
-        <v>0.999981046786009</v>
+        <v>-1.895321399103533E-05</v>
       </c>
       <c r="V132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W132">
-        <v>1.00028441410694</v>
+        <v>0.0002844141069395789</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10690,7 +10690,7 @@
         <v>0.9567184333540586</v>
       </c>
       <c r="K133">
-        <v>48.89402670542252</v>
+        <v>-0.01105973294577484</v>
       </c>
       <c r="L133">
         <v>-0.00098643272717206</v>
@@ -10720,13 +10720,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U133">
-        <v>0.9999715696401664</v>
+        <v>-2.843035983357556E-05</v>
       </c>
       <c r="V133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10761,7 +10761,7 @@
         <v>1.111204968754134</v>
       </c>
       <c r="K134">
-        <v>52.63368480085943</v>
+        <v>0.02633684800859437</v>
       </c>
       <c r="L134">
         <v>-0.0008446385086473973</v>
@@ -10791,13 +10791,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U134">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V134">
-        <v>1.000018955908557</v>
+        <v>1.8955908556606E-05</v>
       </c>
       <c r="W134">
-        <v>1.000284333238556</v>
+        <v>0.0002843332385555897</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10832,7 +10832,7 @@
         <v>1.436439780122621</v>
       </c>
       <c r="K135">
-        <v>58.9565066143489</v>
+        <v>0.08956506614348902</v>
       </c>
       <c r="L135">
         <v>-0.0004181250859675929</v>
@@ -10862,13 +10862,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U135">
-        <v>1.000018954112095</v>
+        <v>1.895411209473785E-05</v>
       </c>
       <c r="V135">
-        <v>1.000056866647711</v>
+        <v>5.686664771120675E-05</v>
       </c>
       <c r="W135">
-        <v>1.000568504832291</v>
+        <v>0.0005685048322909836</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10903,7 +10903,7 @@
         <v>1.607615996632399</v>
       </c>
       <c r="K136">
-        <v>61.65079515958454</v>
+        <v>0.1165079515958454</v>
       </c>
       <c r="L136">
         <v>0.0002587561607705446</v>
@@ -10933,13 +10933,13 @@
         <v>0.03125</v>
       </c>
       <c r="U136">
-        <v>1.000028430629264</v>
+        <v>2.843062926438655E-05</v>
       </c>
       <c r="V136">
-        <v>1.000075817885439</v>
+        <v>7.581788543919998E-05</v>
       </c>
       <c r="W136">
-        <v>1.000284090909091</v>
+        <v>0.0002840909090908728</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10974,7 +10974,7 @@
         <v>1.181748227325593</v>
       </c>
       <c r="K137">
-        <v>54.16519708940893</v>
+        <v>0.04165197089408934</v>
       </c>
       <c r="L137">
         <v>0.000836179099611324</v>
@@ -11004,13 +11004,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V137">
-        <v>1.000037906068762</v>
+        <v>3.790606876163949E-05</v>
       </c>
       <c r="W137">
-        <v>0.9994319795512637</v>
+        <v>-0.0005680204487362728</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11045,7 +11045,7 @@
         <v>1.878870337591923</v>
       </c>
       <c r="K138">
-        <v>65.26415285391192</v>
+        <v>0.1526415285391193</v>
       </c>
       <c r="L138">
         <v>0.001831135684211391</v>
@@ -11075,13 +11075,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U138">
-        <v>1.000047383034978</v>
+        <v>4.738303497830998E-05</v>
       </c>
       <c r="V138">
-        <v>1.000132666211811</v>
+        <v>0.0001326662118110722</v>
       </c>
       <c r="W138">
-        <v>1.001420858198352</v>
+        <v>0.001420858198351915</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11116,7 +11116,7 @@
         <v>1.638412710950896</v>
       </c>
       <c r="K139">
-        <v>62.09842395583383</v>
+        <v>0.1209842395583383</v>
       </c>
       <c r="L139">
         <v>0.002905407893922251</v>
@@ -11146,13 +11146,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U139">
-        <v>1.000047380789933</v>
+        <v>4.738078993260508E-05</v>
       </c>
       <c r="V139">
-        <v>1.000113698811847</v>
+        <v>0.000113698811847307</v>
       </c>
       <c r="W139">
-        <v>0.9997162315550512</v>
+        <v>-0.0002837684449488176</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11187,7 +11187,7 @@
         <v>2.042559744628988</v>
       </c>
       <c r="K140">
-        <v>67.13293792290213</v>
+        <v>0.1713293792290213</v>
       </c>
       <c r="L140">
         <v>0.004259207849149644</v>
@@ -11217,13 +11217,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U140">
-        <v>1.000075805672159</v>
+        <v>7.580567215925704E-05</v>
       </c>
       <c r="V140">
-        <v>1.000170528828846</v>
+        <v>0.0001705288288460505</v>
       </c>
       <c r="W140">
-        <v>1.000851546977008</v>
+        <v>0.0008515469770082884</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11258,7 +11258,7 @@
         <v>2.18436572135809</v>
       </c>
       <c r="K141">
-        <v>68.59657189207799</v>
+        <v>0.1859657189207798</v>
       </c>
       <c r="L141">
         <v>0.005783980426966072</v>
@@ -11288,13 +11288,13 @@
         <v>0.2687499999999545</v>
       </c>
       <c r="U141">
-        <v>1.000085274916857</v>
+        <v>8.527491685694777E-05</v>
       </c>
       <c r="V141">
-        <v>1.000170499753722</v>
+        <v>0.0001704997537224084</v>
       </c>
       <c r="W141">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11329,7 +11329,7 @@
         <v>2.18436572135809</v>
       </c>
       <c r="K142">
-        <v>68.59657189207799</v>
+        <v>0.1859657189207798</v>
       </c>
       <c r="L142">
         <v>0.007293949485100404</v>
@@ -11359,13 +11359,13 @@
         <v>0.3250000000000455</v>
       </c>
       <c r="U142">
-        <v>1.000104216011369</v>
+        <v>0.0001042160113691182</v>
       </c>
       <c r="V142">
-        <v>1.000208353063737</v>
+        <v>0.0002083530637371211</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11400,7 +11400,7 @@
         <v>2.498617193334027</v>
       </c>
       <c r="K143">
-        <v>71.41727874929225</v>
+        <v>0.2141727874929225</v>
       </c>
       <c r="L143">
         <v>0.008879006786319655</v>
@@ -11430,13 +11430,13 @@
         <v>0.3562500000000455</v>
       </c>
       <c r="U143">
-        <v>1.000113678347117</v>
+        <v>0.0001136783471167302</v>
       </c>
       <c r="V143">
-        <v>1.000208309661781</v>
+        <v>0.000208309661781092</v>
       </c>
       <c r="W143">
-        <v>1.000567054153672</v>
+        <v>0.0005670541536717533</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11471,7 +11471,7 @@
         <v>1.669990429259562</v>
       </c>
       <c r="K144">
-        <v>62.54668222622362</v>
+        <v>0.1254668222622362</v>
       </c>
       <c r="L144">
         <v>0.01006549450430121</v>
@@ -11501,13 +11501,13 @@
         <v>0.3687500000000341</v>
       </c>
       <c r="U144">
-        <v>1.000085249069364</v>
+        <v>8.524906936435706E-05</v>
       </c>
       <c r="V144">
-        <v>1.00017039968192</v>
+        <v>0.0001703996819204523</v>
       </c>
       <c r="W144">
-        <v>0.9991499008217627</v>
+        <v>-0.0008500991782373069</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11542,7 +11542,7 @@
         <v>1.902716141532962</v>
       </c>
       <c r="K145">
-        <v>65.54950772858254</v>
+        <v>0.1554950772858255</v>
       </c>
       <c r="L145">
         <v>0.01110511172927186</v>
@@ -11572,13 +11572,13 @@
         <v>0.4125000000000227</v>
       </c>
       <c r="U145">
-        <v>1.000104184425376</v>
+        <v>0.0001041844253755198</v>
       </c>
       <c r="V145">
-        <v>1.000227160867755</v>
+        <v>0.0002271608677546499</v>
       </c>
       <c r="W145">
-        <v>1.000567214974475</v>
+        <v>0.0005672149744753163</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11613,7 +11613,7 @@
         <v>1.391421938743168</v>
       </c>
       <c r="K146">
-        <v>58.18387446401206</v>
+        <v>0.08183874464012053</v>
       </c>
       <c r="L146">
         <v>0.01163847487340552</v>
@@ -11643,13 +11643,13 @@
         <v>0.3687499999999773</v>
       </c>
       <c r="U146">
-        <v>1.0000757625979</v>
+        <v>7.576259789954243E-05</v>
       </c>
       <c r="V146">
-        <v>1.000170331958061</v>
+        <v>0.0001703319580605989</v>
       </c>
       <c r="W146">
-        <v>0.9991496598639455</v>
+        <v>-0.0008503401360544505</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11684,7 +11684,7 @@
         <v>1.170664883277195</v>
       </c>
       <c r="K147">
-        <v>53.93116608169223</v>
+        <v>0.03931166081692228</v>
       </c>
       <c r="L147">
         <v>0.01158183145430504</v>
@@ -11714,13 +11714,13 @@
         <v>0.3249999999999886</v>
       </c>
       <c r="U147">
-        <v>1.000056817643773</v>
+        <v>5.681764377252208E-05</v>
       </c>
       <c r="V147">
-        <v>1.000113535300017</v>
+        <v>0.0001135353000170092</v>
       </c>
       <c r="W147">
-        <v>0.9994326241134752</v>
+        <v>-0.0005673758865247791</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11755,7 +11755,7 @@
         <v>1.003135251783207</v>
       </c>
       <c r="K148">
-        <v>50.07825861435007</v>
+        <v>0.0007825861435006853</v>
       </c>
       <c r="L148">
         <v>0.01092237385173215</v>
@@ -11785,13 +11785,13 @@
         <v>0.2374999999999545</v>
       </c>
       <c r="U148">
-        <v>1.00003787627714</v>
+        <v>3.787627714046948E-05</v>
       </c>
       <c r="V148">
-        <v>1.000075681607477</v>
+        <v>7.568160747739583E-05</v>
       </c>
       <c r="W148">
-        <v>0.9994323020153278</v>
+        <v>-0.0005676979846721553</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11826,7 +11826,7 @@
         <v>1.078454407179013</v>
       </c>
       <c r="K149">
-        <v>51.88732567113405</v>
+        <v>0.01887325671134055</v>
       </c>
       <c r="L149">
         <v>0.01000356744328422</v>
@@ -11856,13 +11856,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U149">
-        <v>1.000047343553228</v>
+        <v>4.734355322844053E-05</v>
       </c>
       <c r="V149">
-        <v>1.000075675880205</v>
+        <v>7.567588020496174E-05</v>
       </c>
       <c r="W149">
-        <v>1.000284010224368</v>
+        <v>0.0002840102243679699</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11897,7 +11897,7 @@
         <v>1.078454407179013</v>
       </c>
       <c r="K150">
-        <v>51.88732567113405</v>
+        <v>0.01887325671134055</v>
       </c>
       <c r="L150">
         <v>0.008949851909250874</v>
@@ -11927,13 +11927,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U150">
-        <v>1.000047341311922</v>
+        <v>4.734131192218882E-05</v>
       </c>
       <c r="V150">
-        <v>1.0000378350769</v>
+        <v>3.78350768996949E-05</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11968,7 +11968,7 @@
         <v>1.078454407179013</v>
       </c>
       <c r="K151">
-        <v>51.88732567113405</v>
+        <v>0.01887325671134055</v>
       </c>
       <c r="L151">
         <v>0.007849024040245215</v>
@@ -11998,13 +11998,13 @@
         <v>-0.04375000000004547</v>
       </c>
       <c r="U151">
-        <v>1.000047339070829</v>
+        <v>4.733907082909994E-05</v>
       </c>
       <c r="V151">
-        <v>1.00001891682273</v>
+        <v>1.891682273025275E-05</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12039,7 +12039,7 @@
         <v>1.078454407179013</v>
       </c>
       <c r="K152">
-        <v>51.88732567113405</v>
+        <v>0.01887325671134055</v>
       </c>
       <c r="L152">
         <v>0.00676126289462417</v>
@@ -12069,13 +12069,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U152">
-        <v>1.000047336829947</v>
+        <v>4.733682994717547E-05</v>
       </c>
       <c r="V152">
-        <v>1.000056749394673</v>
+        <v>5.674939467326112E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12110,7 +12110,7 @@
         <v>1.170926571015508</v>
       </c>
       <c r="K153">
-        <v>53.93671930910939</v>
+        <v>0.03936719309109382</v>
       </c>
       <c r="L153">
         <v>0.005829542544695933</v>
@@ -12140,13 +12140,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U153">
-        <v>1.000056801507133</v>
+        <v>5.680150713316401E-05</v>
       </c>
       <c r="V153">
-        <v>0.9999810846085458</v>
+        <v>-1.891539145415511E-05</v>
       </c>
       <c r="W153">
-        <v>1.000283929585463</v>
+        <v>0.000283929585462861</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12181,7 +12181,7 @@
         <v>0.9801187735309712</v>
       </c>
       <c r="K154">
-        <v>49.4979789410921</v>
+        <v>-0.005020210589078977</v>
       </c>
       <c r="L154">
         <v>0.004823699458294643</v>
@@ -12211,13 +12211,13 @@
         <v>-0.2187499999999432</v>
       </c>
       <c r="U154">
-        <v>1.000037865520603</v>
+        <v>3.786552060347503E-05</v>
       </c>
       <c r="V154">
-        <v>0.9999621685014946</v>
+        <v>-3.783149850544731E-05</v>
       </c>
       <c r="W154">
-        <v>0.9994323020153278</v>
+        <v>-0.0005676979846721553</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12252,7 +12252,7 @@
         <v>0.9801187735309712</v>
       </c>
       <c r="K155">
-        <v>49.4979789410921</v>
+        <v>-0.005020210589078977</v>
       </c>
       <c r="L155">
         <v>0.003819511773041893</v>
@@ -12282,13 +12282,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U155">
-        <v>1.00003786408686</v>
+        <v>3.786408686012877E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999054176755447</v>
+        <v>-9.458232445525017E-05</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12323,7 +12323,7 @@
         <v>0.980118773530971</v>
       </c>
       <c r="K156">
-        <v>49.49797894109209</v>
+        <v>-0.005020210589079144</v>
       </c>
       <c r="L156">
         <v>0.002866423050743435</v>
@@ -12353,13 +12353,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U156">
-        <v>1.000028396989919</v>
+        <v>2.839698991929929E-05</v>
       </c>
       <c r="V156">
-        <v>0.9998864904746591</v>
+        <v>-0.000113509525340949</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12394,7 +12394,7 @@
         <v>0.9801187735309709</v>
       </c>
       <c r="K157">
-        <v>49.49797894109209</v>
+        <v>-0.005020210589079144</v>
       </c>
       <c r="L157">
         <v>0.001994591347889649</v>
@@ -12424,13 +12424,13 @@
         <v>-0.1750000000000682</v>
       </c>
       <c r="U157">
-        <v>1.000047326972588</v>
+        <v>4.732697258802432E-05</v>
       </c>
       <c r="V157">
-        <v>0.9998864775887841</v>
+        <v>-0.0001135224112158717</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12465,7 +12465,7 @@
         <v>0.9801187735309708</v>
       </c>
       <c r="K158">
-        <v>49.49797894109209</v>
+        <v>-0.005020210589079144</v>
       </c>
       <c r="L158">
         <v>0.001220277699587702</v>
@@ -12495,13 +12495,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U158">
-        <v>1.000028394839711</v>
+        <v>2.839483971128764E-05</v>
       </c>
       <c r="V158">
-        <v>0.9998486195999771</v>
+        <v>-0.000151380400022938</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12536,7 +12536,7 @@
         <v>0.9801187735309707</v>
       </c>
       <c r="K159">
-        <v>49.49797894109208</v>
+        <v>-0.005020210589079199</v>
       </c>
       <c r="L159">
         <v>0.0005499357226820754</v>
@@ -12566,13 +12566,13 @@
         <v>-0.1124999999999545</v>
       </c>
       <c r="U159">
-        <v>1.000037858711289</v>
+        <v>3.785871128947349E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999053729253015</v>
+        <v>-9.462707469853893E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12607,7 +12607,7 @@
         <v>0.9801187735309707</v>
       </c>
       <c r="K160">
-        <v>49.49797894109208</v>
+        <v>-0.005020210589079199</v>
       </c>
       <c r="L160">
         <v>-1.671039168985532E-05</v>
@@ -12637,13 +12637,13 @@
         <v>-0.09375000000005684</v>
       </c>
       <c r="U160">
-        <v>1.000047321597577</v>
+        <v>4.732159757714349E-05</v>
       </c>
       <c r="V160">
-        <v>0.9998675095582391</v>
+        <v>-0.0001324904417608908</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12678,7 +12678,7 @@
         <v>1.096792004446457</v>
       </c>
       <c r="K161">
-        <v>52.30809742313973</v>
+        <v>0.02308097423139732</v>
       </c>
       <c r="L161">
         <v>-0.000380990286816232</v>
@@ -12708,13 +12708,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U161">
-        <v>1.00005678323002</v>
+        <v>5.678323001956365E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999432108580838</v>
+        <v>-5.678914191620255E-05</v>
       </c>
       <c r="W161">
-        <v>1.000284010224368</v>
+        <v>0.0002840102243679699</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12749,7 +12749,7 @@
         <v>0.9768243675993112</v>
       </c>
       <c r="K162">
-        <v>49.41381660453645</v>
+        <v>-0.00586183395463552</v>
       </c>
       <c r="L162">
         <v>-0.0007014573120749256</v>
@@ -12779,13 +12779,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U162">
-        <v>1.000037853337245</v>
+        <v>3.785333724470874E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999621384219293</v>
+        <v>-3.786157807073032E-05</v>
       </c>
       <c r="W162">
-        <v>0.9997160704145373</v>
+        <v>-0.0002839295854627499</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12820,7 +12820,7 @@
         <v>0.7939888305794934</v>
       </c>
       <c r="K163">
-        <v>44.25829286367516</v>
+        <v>-0.05741707136324842</v>
       </c>
       <c r="L163">
         <v>-0.001179175583536101</v>
@@ -12850,13 +12850,13 @@
         <v>-0.04375000000004547</v>
       </c>
       <c r="U163">
-        <v>1.000018925952212</v>
+        <v>1.892595221186788E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999621369883761</v>
+        <v>-3.786301162389538E-05</v>
       </c>
       <c r="W163">
-        <v>0.9994319795512637</v>
+        <v>-0.0005680204487362728</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12891,7 +12891,7 @@
         <v>0.8925011457942826</v>
       </c>
       <c r="K164">
-        <v>47.15987347102503</v>
+        <v>-0.02840126528974968</v>
       </c>
       <c r="L164">
         <v>-0.00161405323701222</v>
@@ -12921,13 +12921,13 @@
         <v>-0.04999999999995453</v>
       </c>
       <c r="U164">
-        <v>1.000018925594027</v>
+        <v>1.892559402727478E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999621355547141</v>
+        <v>-3.78644452858623E-05</v>
       </c>
       <c r="W164">
-        <v>1.00028417163967</v>
+        <v>0.0002841716396704275</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12962,7 +12962,7 @@
         <v>1.099895493614832</v>
       </c>
       <c r="K165">
-        <v>52.37858250371471</v>
+        <v>0.0237858250371471</v>
       </c>
       <c r="L165">
         <v>-0.00178262634050098</v>
@@ -12992,13 +12992,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U165">
-        <v>1.000018925235856</v>
+        <v>1.892523585600436E-05</v>
       </c>
       <c r="V165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W165">
-        <v>1.000568181818182</v>
+        <v>0.0005681818181817455</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13033,7 +13033,7 @@
         <v>1.318205333425937</v>
       </c>
       <c r="K166">
-        <v>56.8631826706153</v>
+        <v>0.06863182670615298</v>
       </c>
       <c r="L166">
         <v>-0.001565852243420638</v>
@@ -13063,13 +13063,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U166">
-        <v>1.000028387316547</v>
+        <v>2.838731654675186E-05</v>
       </c>
       <c r="V166">
-        <v>1.000037865879056</v>
+        <v>3.786587905629801E-05</v>
       </c>
       <c r="W166">
-        <v>1.000567859170925</v>
+        <v>0.0005678591709254999</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13104,7 +13104,7 @@
         <v>1.433105249116025</v>
       </c>
       <c r="K167">
-        <v>58.90025717698355</v>
+        <v>0.0890025717698355</v>
       </c>
       <c r="L167">
         <v>-0.001020329754696657</v>
@@ -13134,13 +13134,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U167">
-        <v>1.00005677302146</v>
+        <v>5.677302146023244E-05</v>
       </c>
       <c r="V167">
-        <v>1.000056796667929</v>
+        <v>5.67966679290155E-05</v>
       </c>
       <c r="W167">
-        <v>1.000283768444949</v>
+        <v>0.0002837684449490396</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13175,7 +13175,7 @@
         <v>1.433105249116025</v>
       </c>
       <c r="K168">
-        <v>58.90025717698355</v>
+        <v>0.0890025717698355</v>
       </c>
       <c r="L168">
         <v>-0.0003066766422211898</v>
@@ -13205,13 +13205,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U168">
-        <v>1.000009461633078</v>
+        <v>9.461633077911813E-06</v>
       </c>
       <c r="V168">
-        <v>1.000037862294834</v>
+        <v>3.78622948336016E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13246,7 +13246,7 @@
         <v>1.271257710346804</v>
       </c>
       <c r="K169">
-        <v>55.97153086395874</v>
+        <v>0.05971530863958741</v>
       </c>
       <c r="L169">
         <v>0.0003610833717649879</v>
@@ -13276,13 +13276,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U169">
-        <v>1.000009461543556</v>
+        <v>9.461543555966401E-06</v>
       </c>
       <c r="V169">
-        <v>1.000056791292002</v>
+        <v>5.679129200175659E-05</v>
       </c>
       <c r="W169">
-        <v>0.9997163120567375</v>
+        <v>-0.0002836879432625006</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13317,7 +13317,7 @@
         <v>1.136188934794952</v>
       </c>
       <c r="K170">
-        <v>53.18766127322967</v>
+        <v>0.03187661273229669</v>
       </c>
       <c r="L170">
         <v>0.0008537735305782126</v>
@@ -13347,13 +13347,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U170">
-        <v>0.9999716156378914</v>
+        <v>-2.838436210861328E-05</v>
       </c>
       <c r="V170">
-        <v>1.000037858711289</v>
+        <v>3.785871128947349E-05</v>
       </c>
       <c r="W170">
-        <v>0.9997162315550512</v>
+        <v>-0.0002837684449488176</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13388,7 +13388,7 @@
         <v>1.24802908909132</v>
       </c>
       <c r="K171">
-        <v>55.51658984963527</v>
+        <v>0.05516589849635267</v>
       </c>
       <c r="L171">
         <v>0.001309279137952899</v>
@@ -13418,13 +13418,13 @@
         <v>0.125</v>
       </c>
       <c r="U171">
-        <v>0.9999716148321963</v>
+        <v>-2.83851678036795E-05</v>
       </c>
       <c r="V171">
-        <v>1.000056785917093</v>
+        <v>5.678591709257219E-05</v>
       </c>
       <c r="W171">
-        <v>1.000283848992336</v>
+        <v>0.0002838489923360221</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13459,7 +13459,7 @@
         <v>1.365755567298089</v>
       </c>
       <c r="K172">
-        <v>57.73020620460414</v>
+        <v>0.0773020620460414</v>
       </c>
       <c r="L172">
         <v>0.001811842259464832</v>
@@ -13489,13 +13489,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U172">
-        <v>0.999981076017637</v>
+        <v>-1.892398236302828E-05</v>
       </c>
       <c r="V172">
-        <v>1.000075710256847</v>
+        <v>7.571025684693922E-05</v>
       </c>
       <c r="W172">
-        <v>1.000283768444949</v>
+        <v>0.0002837684449490396</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13530,7 +13530,7 @@
         <v>1.365755567298089</v>
       </c>
       <c r="K173">
-        <v>57.73020620460414</v>
+        <v>0.0773020620460414</v>
       </c>
       <c r="L173">
         <v>0.002304275460388468</v>
@@ -13560,13 +13560,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U173">
-        <v>0.9999621513190265</v>
+        <v>-3.784868097345129E-05</v>
       </c>
       <c r="V173">
-        <v>1.000075704525238</v>
+        <v>7.570452523819604E-05</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13601,7 +13601,7 @@
         <v>1.208157625601945</v>
       </c>
       <c r="K174">
-        <v>54.71337786733412</v>
+        <v>0.04713377867334112</v>
       </c>
       <c r="L174">
         <v>0.002647400167144604</v>
@@ -13631,13 +13631,13 @@
         <v>0.15625</v>
       </c>
       <c r="U174">
-        <v>0.9999810749432249</v>
+        <v>-1.892505677514311E-05</v>
       </c>
       <c r="V174">
-        <v>1.000056774095872</v>
+        <v>5.677409587234727E-05</v>
       </c>
       <c r="W174">
-        <v>0.9997163120567375</v>
+        <v>-0.0002836879432625006</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13672,7 +13672,7 @@
         <v>1.208157625601945</v>
       </c>
       <c r="K175">
-        <v>54.71337786733412</v>
+        <v>0.04713377867334112</v>
       </c>
       <c r="L175">
         <v>0.002868557731267031</v>
@@ -13702,13 +13702,13 @@
         <v>0.1249999999999432</v>
       </c>
       <c r="U175">
-        <v>0.9999621491701206</v>
+        <v>-3.785082987939337E-05</v>
       </c>
       <c r="V175">
-        <v>1.000056770872758</v>
+        <v>5.677087275768322E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13743,7 +13743,7 @@
         <v>1.336016345195184</v>
       </c>
       <c r="K176">
-        <v>57.19208035265498</v>
+        <v>0.07192080352654973</v>
       </c>
       <c r="L176">
         <v>0.003094659896130691</v>
@@ -13773,13 +13773,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V176">
-        <v>1.000056767650009</v>
+        <v>5.676765000850459E-05</v>
       </c>
       <c r="W176">
-        <v>1.000283768444949</v>
+        <v>0.0002837684449490396</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13814,7 +13814,7 @@
         <v>1.177534221195891</v>
       </c>
       <c r="K177">
-        <v>54.0764966967635</v>
+        <v>0.04076496696763499</v>
       </c>
       <c r="L177">
         <v>0.00319469228141537</v>
@@ -13844,13 +13844,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U177">
-        <v>1.000009463065655</v>
+        <v>9.463065654635727E-06</v>
       </c>
       <c r="V177">
-        <v>1.000056764427625</v>
+        <v>5.676442762547751E-05</v>
       </c>
       <c r="W177">
-        <v>0.9997163120567375</v>
+        <v>-0.0002836879432625006</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13885,7 +13885,7 @@
         <v>1.3024004243829</v>
       </c>
       <c r="K178">
-        <v>56.56706846429528</v>
+        <v>0.06567068464295278</v>
       </c>
       <c r="L178">
         <v>0.003303712430758056</v>
@@ -13915,13 +13915,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U178">
-        <v>1.000037851904424</v>
+        <v>3.785190442395781E-05</v>
       </c>
       <c r="V178">
-        <v>1.000113522411216</v>
+        <v>0.0001135224112158717</v>
       </c>
       <c r="W178">
-        <v>1.000283768444949</v>
+        <v>0.0002837684449490396</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13956,7 +13956,7 @@
         <v>1.3024004243829</v>
       </c>
       <c r="K179">
-        <v>56.56706846429528</v>
+        <v>0.06567068464295278</v>
       </c>
       <c r="L179">
         <v>0.003399189582649901</v>
@@ -13986,13 +13986,13 @@
         <v>0.0625</v>
       </c>
       <c r="U179">
-        <v>1.000028387853784</v>
+        <v>2.838785378367348E-05</v>
       </c>
       <c r="V179">
-        <v>1.000094591271117</v>
+        <v>9.459127111743904E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14027,7 +14027,7 @@
         <v>1.144106531205026</v>
       </c>
       <c r="K180">
-        <v>53.36052638028288</v>
+        <v>0.0336052638028288</v>
       </c>
       <c r="L180">
         <v>0.00336462644231524</v>
@@ -14057,13 +14057,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U180">
-        <v>1.000018924698624</v>
+        <v>1.892469862396773E-05</v>
       </c>
       <c r="V180">
-        <v>1.000037832929782</v>
+        <v>3.783292978210007E-05</v>
       </c>
       <c r="W180">
-        <v>0.9997163120567375</v>
+        <v>-0.0002836879432625006</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14098,7 +14098,7 @@
         <v>1.014335527605049</v>
       </c>
       <c r="K181">
-        <v>50.35583763004202</v>
+        <v>0.003558376300420218</v>
       </c>
       <c r="L181">
         <v>0.003137876018881139</v>
@@ -14128,13 +14128,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U181">
-        <v>1.000009462170244</v>
+        <v>9.462170243557111E-06</v>
       </c>
       <c r="V181">
-        <v>0.9999810842507474</v>
+        <v>-1.891574925261263E-05</v>
       </c>
       <c r="W181">
-        <v>0.9997162315550512</v>
+        <v>-0.0002837684449488176</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14169,7 +14169,7 @@
         <v>0.9061458784025026</v>
       </c>
       <c r="K182">
-        <v>47.53811807740144</v>
+        <v>-0.02461881922598558</v>
       </c>
       <c r="L182">
         <v>0.002694374871434463</v>
@@ -14199,13 +14199,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V182">
-        <v>0.9999432516788044</v>
+        <v>-5.674832119562101E-05</v>
       </c>
       <c r="W182">
-        <v>0.9997161510076639</v>
+        <v>-0.0002838489923361331</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14240,7 +14240,7 @@
         <v>0.9061458784025027</v>
       </c>
       <c r="K183">
-        <v>47.53811807740144</v>
+        <v>-0.02461881922598558</v>
       </c>
       <c r="L183">
         <v>0.002138032043799892</v>
@@ -14270,13 +14270,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U183">
-        <v>0.9999905379192883</v>
+        <v>-9.462080711730714E-06</v>
       </c>
       <c r="V183">
-        <v>0.99994324845825</v>
+        <v>-5.675154174999975E-05</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14311,7 +14311,7 @@
         <v>0.9061458784025026</v>
       </c>
       <c r="K184">
-        <v>47.53811807740144</v>
+        <v>-0.02461881922598558</v>
       </c>
       <c r="L184">
         <v>0.001541005592154249</v>
@@ -14341,13 +14341,13 @@
         <v>-0.04375000000004547</v>
       </c>
       <c r="U184">
-        <v>1.000009462170244</v>
+        <v>9.462170243557111E-06</v>
       </c>
       <c r="V184">
-        <v>0.9999621634915529</v>
+        <v>-3.783650844713105E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14382,7 +14382,7 @@
         <v>0.9061458784025025</v>
       </c>
       <c r="K185">
-        <v>47.53811807740144</v>
+        <v>-0.02461881922598558</v>
       </c>
       <c r="L185">
         <v>0.0009517697400874076</v>
@@ -14412,13 +14412,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U185">
-        <v>1.000009462080711</v>
+        <v>9.462080711397647E-06</v>
       </c>
       <c r="V185">
-        <v>0.9999810810299485</v>
+        <v>-1.891897005146248E-05</v>
       </c>
       <c r="W185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14453,7 +14453,7 @@
         <v>0.8012245240074659</v>
       </c>
       <c r="K186">
-        <v>44.48221270188218</v>
+        <v>-0.05517787298117816</v>
       </c>
       <c r="L186">
         <v>0.0002979850981714476</v>
@@ -14483,13 +14483,13 @@
         <v>-0.09375000000005684</v>
       </c>
       <c r="U186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V186">
-        <v>0.9999432420160438</v>
+        <v>-5.675798395621268E-05</v>
       </c>
       <c r="W186">
-        <v>0.9997160704145373</v>
+        <v>-0.0002839295854627499</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14524,7 +14524,7 @@
         <v>0.923107251253162</v>
       </c>
       <c r="K187">
-        <v>48.00082006095261</v>
+        <v>-0.01999179939047396</v>
       </c>
       <c r="L187">
         <v>-0.0002509813329281415</v>
@@ -14554,13 +14554,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U187">
-        <v>1.000009461991182</v>
+        <v>9.461991181680673E-06</v>
       </c>
       <c r="V187">
-        <v>0.9999432387943918</v>
+        <v>-5.676120560815789E-05</v>
       </c>
       <c r="W187">
-        <v>1.000284010224368</v>
+        <v>0.0002840102243679699</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14595,7 +14595,7 @@
         <v>0.8181416365798845</v>
       </c>
       <c r="K188">
-        <v>44.99878447967865</v>
+        <v>-0.05001215520321345</v>
       </c>
       <c r="L188">
         <v>-0.0008039077206763791</v>
@@ -14625,13 +14625,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V188">
-        <v>0.9999243140964994</v>
+        <v>-7.568590350059967E-05</v>
       </c>
       <c r="W188">
-        <v>0.9997160704145373</v>
+        <v>-0.0002839295854627499</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14666,7 +14666,7 @@
         <v>0.8181416365798845</v>
       </c>
       <c r="K189">
-        <v>44.99878447967865</v>
+        <v>-0.05001215520321345</v>
       </c>
       <c r="L189">
         <v>-0.001321080941777141</v>
@@ -14696,13 +14696,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V189">
-        <v>0.9999432312757827</v>
+        <v>-5.676872421733759E-05</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14737,7 +14737,7 @@
         <v>0.5937252917431249</v>
       </c>
       <c r="K190">
-        <v>37.25392919464448</v>
+        <v>-0.1274607080535552</v>
       </c>
       <c r="L190">
         <v>-0.002088896355566427</v>
@@ -14767,13 +14767,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U190">
-        <v>0.9999716142950409</v>
+        <v>-2.838570495911075E-05</v>
       </c>
       <c r="V190">
-        <v>0.9998864561058228</v>
+        <v>-0.0001135438941771705</v>
       </c>
       <c r="W190">
-        <v>0.9991479693268958</v>
+        <v>-0.0008520306731042426</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14808,7 +14808,7 @@
         <v>0.8824622546907986</v>
       </c>
       <c r="K191">
-        <v>46.87808493858732</v>
+        <v>-0.03121915061412678</v>
       </c>
       <c r="L191">
         <v>-0.00264199372289823</v>
@@ -14838,13 +14838,13 @@
         <v>-0.1374999999999318</v>
       </c>
       <c r="U191">
-        <v>0.9999905378297568</v>
+        <v>-9.462170243224044E-06</v>
       </c>
       <c r="V191">
-        <v>0.9999242954747619</v>
+        <v>-7.570452523808502E-05</v>
       </c>
       <c r="W191">
-        <v>1.000852757248437</v>
+        <v>0.0008527572484366974</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14879,7 +14879,7 @@
         <v>1.085084684829498</v>
       </c>
       <c r="K192">
-        <v>52.04031724583061</v>
+        <v>0.02040317245830603</v>
       </c>
       <c r="L192">
         <v>-0.002813442246991268</v>
@@ -14909,13 +14909,13 @@
         <v>-0.1124999999998977</v>
       </c>
       <c r="U192">
-        <v>1.000018924519554</v>
+        <v>1.89245195536536E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999810724357883</v>
+        <v>-1.89275642117348E-05</v>
       </c>
       <c r="W192">
-        <v>1.000568020448736</v>
+        <v>0.0005680204487361618</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14950,7 +14950,7 @@
         <v>1.29837145339655</v>
       </c>
       <c r="K193">
-        <v>56.49093193695071</v>
+        <v>0.06490931936950706</v>
       </c>
       <c r="L193">
         <v>-0.00252577414029984</v>
@@ -14980,13 +14980,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U193">
-        <v>1.000056772484269</v>
+        <v>5.677248426927406E-05</v>
       </c>
       <c r="V193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W193">
-        <v>1.000567697984672</v>
+        <v>0.0005676979846720442</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15021,7 +15021,7 @@
         <v>1.298371453396549</v>
       </c>
       <c r="K194">
-        <v>56.4909319369507</v>
+        <v>0.06490931936950706</v>
       </c>
       <c r="L194">
         <v>-0.001969062191478076</v>
@@ -15051,13 +15051,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U194">
-        <v>1.000047307717781</v>
+        <v>4.730771778094223E-05</v>
       </c>
       <c r="V194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15092,7 +15092,7 @@
         <v>1.534700282833726</v>
       </c>
       <c r="K195">
-        <v>60.54760372370231</v>
+        <v>0.1054760372370231</v>
       </c>
       <c r="L195">
         <v>-0.001070911113126079</v>
@@ -15122,13 +15122,13 @@
         <v>0.01875000000006821</v>
       </c>
       <c r="U195">
-        <v>1.000047305479867</v>
+        <v>4.730547986686595E-05</v>
       </c>
       <c r="V195">
-        <v>1.000056783767414</v>
+        <v>5.678376741369284E-05</v>
       </c>
       <c r="W195">
-        <v>1.000567375886525</v>
+        <v>0.0005673758865247791</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15163,7 +15163,7 @@
         <v>1.534700282833726</v>
       </c>
       <c r="K196">
-        <v>60.54760372370231</v>
+        <v>0.1054760372370231</v>
       </c>
       <c r="L196">
         <v>-1.922656947521368E-05</v>
@@ -15193,13 +15193,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U196">
-        <v>1.000028381945298</v>
+        <v>2.838194529841687E-05</v>
       </c>
       <c r="V196">
-        <v>1.000075707390934</v>
+        <v>7.570739093409884E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15234,7 +15234,7 @@
         <v>1.35702488034656</v>
       </c>
       <c r="K197">
-        <v>57.57363410381281</v>
+        <v>0.0757363410381281</v>
       </c>
       <c r="L197">
         <v>0.0009551482621344313</v>
@@ -15264,13 +15264,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U197">
-        <v>1.000009460379929</v>
+        <v>9.460379928993845E-06</v>
       </c>
       <c r="V197">
-        <v>1.000075701659759</v>
+        <v>7.570165975878673E-05</v>
       </c>
       <c r="W197">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15305,7 +15305,7 @@
         <v>1.35702488034656</v>
       </c>
       <c r="K198">
-        <v>57.57363410381281</v>
+        <v>0.0757363410381281</v>
       </c>
       <c r="L198">
         <v>0.001817094080753017</v>
@@ -15335,13 +15335,13 @@
         <v>0.1937499999999659</v>
       </c>
       <c r="U198">
-        <v>1.000009460290431</v>
+        <v>9.460290430807206E-06</v>
       </c>
       <c r="V198">
-        <v>1.000075695929451</v>
+        <v>7.569592945122494E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15376,7 +15376,7 @@
         <v>1.202738453737857</v>
       </c>
       <c r="K199">
-        <v>54.60196382811193</v>
+        <v>0.04601963828111932</v>
       </c>
       <c r="L199">
         <v>0.002445994964935135</v>
@@ -15406,13 +15406,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U199">
-        <v>1.000009460200935</v>
+        <v>9.460200934618967E-06</v>
       </c>
       <c r="V199">
-        <v>1.000056767650009</v>
+        <v>5.676765000850459E-05</v>
       </c>
       <c r="W199">
-        <v>0.9997163925127622</v>
+        <v>-0.0002836074872377692</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15447,7 +15447,7 @@
         <v>1.202738453737857</v>
       </c>
       <c r="K200">
-        <v>54.60196382811195</v>
+        <v>0.04601963828111943</v>
       </c>
       <c r="L200">
         <v>0.002884713171065091</v>
@@ -15477,13 +15477,13 @@
         <v>0.2312500000000455</v>
       </c>
       <c r="U200">
-        <v>1.00001892022288</v>
+        <v>1.892022288019213E-05</v>
       </c>
       <c r="V200">
-        <v>1.000056764427625</v>
+        <v>5.676442762547751E-05</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15518,7 +15518,7 @@
         <v>1.202738453737857</v>
       </c>
       <c r="K201">
-        <v>54.60196382811195</v>
+        <v>0.04601963828111943</v>
       </c>
       <c r="L201">
         <v>0.003169743136904812</v>
@@ -15548,13 +15548,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U201">
-        <v>1.000009459932456</v>
+        <v>9.459932456046261E-06</v>
       </c>
       <c r="V201">
-        <v>1.000075681607477</v>
+        <v>7.568160747717378E-05</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15589,7 +15589,7 @@
         <v>1.202738453737857</v>
       </c>
       <c r="K202">
-        <v>54.60196382811195</v>
+        <v>0.04601963828111943</v>
       </c>
       <c r="L202">
         <v>0.003331953767279065</v>
@@ -15619,13 +15619,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V202">
-        <v>1.000056756910154</v>
+        <v>5.675691015372131E-05</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15660,7 +15660,7 @@
         <v>1.202738453737857</v>
       </c>
       <c r="K203">
-        <v>54.60196382811193</v>
+        <v>0.04601963828111932</v>
       </c>
       <c r="L203">
         <v>0.003397284705716463</v>
@@ -15690,13 +15690,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V203">
-        <v>1.00007567158532</v>
+        <v>7.567158531984752E-05</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15731,7 +15731,7 @@
         <v>1.349672312392023</v>
       </c>
       <c r="K204">
-        <v>57.44087400076754</v>
+        <v>0.07440874000767539</v>
       </c>
       <c r="L204">
         <v>0.003490735697629342</v>
@@ -15761,13 +15761,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U204">
-        <v>1.000018919685933</v>
+        <v>1.891968593326077E-05</v>
       </c>
       <c r="V204">
-        <v>1.000094582324455</v>
+        <v>9.458232445513914E-05</v>
       </c>
       <c r="W204">
-        <v>1.000283687943262</v>
+        <v>0.0002836879432623896</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15802,7 +15802,7 @@
         <v>1.5043395320279</v>
       </c>
       <c r="K205">
-        <v>60.06931219944264</v>
+        <v>0.1006931219944264</v>
       </c>
       <c r="L205">
         <v>0.003685887542745793</v>
@@ -15832,13 +15832,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U205">
-        <v>1.000028378991978</v>
+        <v>2.837899197816185E-05</v>
       </c>
       <c r="V205">
-        <v>1.000170232083073</v>
+        <v>0.0001702320830734294</v>
       </c>
       <c r="W205">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15873,7 +15873,7 @@
         <v>1.29371319255547</v>
       </c>
       <c r="K206">
-        <v>56.40257015368689</v>
+        <v>0.06402570153686893</v>
       </c>
       <c r="L206">
         <v>0.003813430684429873</v>
@@ -15903,13 +15903,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U206">
-        <v>1.000009459395545</v>
+        <v>9.459395544642035E-06</v>
       </c>
       <c r="V206">
-        <v>1.000094557282802</v>
+        <v>9.455728280194364E-05</v>
       </c>
       <c r="W206">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15944,7 +15944,7 @@
         <v>1.29371319255547</v>
       </c>
       <c r="K207">
-        <v>56.40257015368689</v>
+        <v>0.06402570153686893</v>
       </c>
       <c r="L207">
         <v>0.003877993442181824</v>
@@ -15974,13 +15974,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U207">
-        <v>1.000018918612131</v>
+        <v>1.891861213065837E-05</v>
       </c>
       <c r="V207">
-        <v>1.000056729005541</v>
+        <v>5.672900554065663E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16015,7 +16015,7 @@
         <v>1.448851697258869</v>
       </c>
       <c r="K208">
-        <v>59.16453409084129</v>
+        <v>0.09164534090841281</v>
       </c>
       <c r="L208">
         <v>0.003989492170083935</v>
@@ -16045,13 +16045,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U208">
-        <v>1.000018918254223</v>
+        <v>1.891825422339899E-05</v>
       </c>
       <c r="V208">
-        <v>1.000037817191695</v>
+        <v>3.781719169526632E-05</v>
       </c>
       <c r="W208">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16086,7 +16086,7 @@
         <v>1.775459075581907</v>
       </c>
       <c r="K209">
-        <v>63.96992451454762</v>
+        <v>0.1396992451454762</v>
       </c>
       <c r="L209">
         <v>0.0043144313075895</v>
@@ -16116,13 +16116,13 @@
         <v>0.03124999999994316</v>
       </c>
       <c r="U209">
-        <v>1.00003783579266</v>
+        <v>3.783579265981274E-05</v>
       </c>
       <c r="V209">
-        <v>1.000075631523219</v>
+        <v>7.563152321887756E-05</v>
       </c>
       <c r="W209">
-        <v>1.000567054153672</v>
+        <v>0.0005670541536717533</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16157,7 +16157,7 @@
         <v>2.291154936092016</v>
       </c>
       <c r="K210">
-        <v>69.6155295202413</v>
+        <v>0.1961552952024129</v>
       </c>
       <c r="L210">
         <v>0.005042185320090447</v>
@@ -16187,13 +16187,13 @@
         <v>0.07499999999993179</v>
       </c>
       <c r="U210">
-        <v>1.000075668722334</v>
+        <v>7.566872233355504E-05</v>
       </c>
       <c r="V210">
-        <v>1.000094532254405</v>
+        <v>9.45322544050331E-05</v>
       </c>
       <c r="W210">
-        <v>1.000850099178237</v>
+        <v>0.0008500991782374179</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16228,7 +16228,7 @@
         <v>2.291154936092016</v>
       </c>
       <c r="K211">
-        <v>69.6155295202413</v>
+        <v>0.1961552952024129</v>
       </c>
       <c r="L211">
         <v>0.005949139144745511</v>
@@ -16258,13 +16258,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U211">
-        <v>1.000085120871638</v>
+        <v>8.512087163792259E-05</v>
       </c>
       <c r="V211">
-        <v>1.000094523318903</v>
+        <v>9.452331890269505E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16299,7 +16299,7 @@
         <v>2.291154936092016</v>
       </c>
       <c r="K212">
-        <v>69.6155295202413</v>
+        <v>0.1961552952024129</v>
       </c>
       <c r="L212">
         <v>0.006885091975363999</v>
@@ -16329,13 +16329,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U212">
-        <v>1.000094570696324</v>
+        <v>9.457069632401449E-05</v>
       </c>
       <c r="V212">
-        <v>1.000113417262107</v>
+        <v>0.0001134172621073404</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16370,7 +16370,7 @@
         <v>2.491649025807798</v>
       </c>
       <c r="K213">
-        <v>71.3602371656284</v>
+        <v>0.213602371656284</v>
       </c>
       <c r="L213">
         <v>0.00785709598188509</v>
@@ -16400,13 +16400,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U213">
-        <v>1.000104017928908</v>
+        <v>0.000104017928908462</v>
       </c>
       <c r="V213">
-        <v>1.000132305133439</v>
+        <v>0.0001323051334389813</v>
       </c>
       <c r="W213">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16441,7 +16441,7 @@
         <v>2.057434797515707</v>
       </c>
       <c r="K214">
-        <v>67.29284298024797</v>
+        <v>0.1729284298024797</v>
       </c>
       <c r="L214">
         <v>0.008656961542904733</v>
@@ -16471,13 +16471,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U214">
-        <v>1.000094551918459</v>
+        <v>9.455191845852973E-05</v>
       </c>
       <c r="V214">
-        <v>1.000132287631107</v>
+        <v>0.0001322876311065091</v>
       </c>
       <c r="W214">
-        <v>0.9997169544296631</v>
+        <v>-0.0002830455703368706</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16512,7 +16512,7 @@
         <v>2.240874601434453</v>
       </c>
       <c r="K215">
-        <v>69.14413166256458</v>
+        <v>0.1914413166256458</v>
       </c>
       <c r="L215">
         <v>0.009373244833654577</v>
@@ -16542,13 +16542,13 @@
         <v>0.28125</v>
       </c>
       <c r="U215">
-        <v>1.000103997277162</v>
+        <v>0.0001039972771621489</v>
       </c>
       <c r="V215">
-        <v>1.000151165866747</v>
+        <v>0.0001511658667472382</v>
       </c>
       <c r="W215">
-        <v>1.000283125707814</v>
+        <v>0.0002831257078144134</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16583,7 +16583,7 @@
         <v>2.240874601434453</v>
       </c>
       <c r="K216">
-        <v>69.14413166256458</v>
+        <v>0.1914413166256458</v>
       </c>
       <c r="L216">
         <v>0.009959006949981869</v>
@@ -16613,13 +16613,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U216">
-        <v>1.000113439777658</v>
+        <v>0.0001134397776578755</v>
       </c>
       <c r="V216">
-        <v>1.000151143019082</v>
+        <v>0.000151143019081923</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16654,7 +16654,7 @@
         <v>2.444132001898323</v>
       </c>
       <c r="K217">
-        <v>70.96510820581719</v>
+        <v>0.2096510820581718</v>
       </c>
       <c r="L217">
         <v>0.01049527982388072</v>
@@ -16684,13 +16684,13 @@
         <v>0.3125</v>
       </c>
       <c r="U217">
-        <v>1.000113426910535</v>
+        <v>0.0001134269105345087</v>
       </c>
       <c r="V217">
-        <v>1.000170010200612</v>
+        <v>0.0001700102006119142</v>
       </c>
       <c r="W217">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16725,7 +16725,7 @@
         <v>2.444132001898323</v>
       </c>
       <c r="K218">
-        <v>70.96510820581719</v>
+        <v>0.2096510820581718</v>
       </c>
       <c r="L218">
         <v>0.01092906647195313</v>
@@ -16755,13 +16755,13 @@
         <v>0.2812500000000568</v>
       </c>
       <c r="U218">
-        <v>1.000122865216857</v>
+        <v>0.0001228652168572264</v>
       </c>
       <c r="V218">
-        <v>1.000169981302057</v>
+        <v>0.0001699813020568097</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16796,7 +16796,7 @@
         <v>1.685106333518692</v>
       </c>
       <c r="K219">
-        <v>62.75752704774443</v>
+        <v>0.1275752704774443</v>
       </c>
       <c r="L219">
         <v>0.01102673788246464</v>
@@ -16826,13 +16826,13 @@
         <v>0.2374999999999545</v>
       </c>
       <c r="U219">
-        <v>1.00010395010395</v>
+        <v>0.0001039501039501456</v>
       </c>
       <c r="V219">
-        <v>1.000113301608883</v>
+        <v>0.0001133016088830097</v>
       </c>
       <c r="W219">
-        <v>0.9994340690435767</v>
+        <v>-0.0005659309564233217</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16867,7 +16867,7 @@
         <v>2.012001275014274</v>
       </c>
       <c r="K220">
-        <v>66.79948284566177</v>
+        <v>0.1679948284566177</v>
       </c>
       <c r="L220">
         <v>0.01108087931356961</v>
@@ -16897,13 +16897,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U220">
-        <v>1.000151184435562</v>
+        <v>0.0001511844355623904</v>
       </c>
       <c r="V220">
-        <v>1.000132170235263</v>
+        <v>0.0001321702352627963</v>
       </c>
       <c r="W220">
-        <v>1.000566251415629</v>
+        <v>0.0005662514156286047</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16938,7 +16938,7 @@
         <v>2.012001275014274</v>
       </c>
       <c r="K221">
-        <v>66.79948284566177</v>
+        <v>0.1679948284566177</v>
       </c>
       <c r="L221">
         <v>0.01106478175100678</v>
@@ -16968,13 +16968,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U221">
-        <v>1.000122818785605</v>
+        <v>0.0001228187856054941</v>
       </c>
       <c r="V221">
-        <v>1.000151031735544</v>
+        <v>0.0001510317355435387</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17009,7 +17009,7 @@
         <v>1.703490275582348</v>
       </c>
       <c r="K222">
-        <v>63.01077873177871</v>
+        <v>0.1301077873177872</v>
       </c>
       <c r="L222">
         <v>0.01086360214010504</v>
@@ -17039,13 +17039,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U222">
-        <v>1.000094464386926</v>
+        <v>9.446438692606307E-05</v>
       </c>
       <c r="V222">
-        <v>1.000132132812352</v>
+        <v>0.0001321328123524701</v>
       </c>
       <c r="W222">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17080,7 +17080,7 @@
         <v>1.864895948872666</v>
       </c>
       <c r="K223">
-        <v>65.09471834767686</v>
+        <v>0.1509471834767686</v>
       </c>
       <c r="L223">
         <v>0.01062675711394231</v>
@@ -17110,13 +17110,13 @@
         <v>0.1124999999999545</v>
       </c>
       <c r="U223">
-        <v>1.000085009917824</v>
+        <v>8.50099178237862E-05</v>
       </c>
       <c r="V223">
-        <v>1.000132115355579</v>
+        <v>0.000132115355579332</v>
       </c>
       <c r="W223">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17151,7 +17151,7 @@
         <v>1.594063440565366</v>
       </c>
       <c r="K224">
-        <v>61.45044163676837</v>
+        <v>0.1145044163676837</v>
       </c>
       <c r="L224">
         <v>0.01024147820343617</v>
@@ -17181,13 +17181,13 @@
         <v>0.07500000000004547</v>
       </c>
       <c r="U224">
-        <v>1.000075557948224</v>
+        <v>7.555794822411421E-05</v>
       </c>
       <c r="V224">
-        <v>1.000075484516239</v>
+        <v>7.548451623851093E-05</v>
       </c>
       <c r="W224">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17222,7 +17222,7 @@
         <v>1.594063440565366</v>
       </c>
       <c r="K225">
-        <v>61.45044163676838</v>
+        <v>0.1145044163676838</v>
       </c>
       <c r="L225">
         <v>0.009753545100512124</v>
@@ -17252,13 +17252,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U225">
-        <v>1.000056664179739</v>
+        <v>5.666417973859694E-05</v>
       </c>
       <c r="V225">
-        <v>1.000018869704689</v>
+        <v>1.886970468900628E-05</v>
       </c>
       <c r="W225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17293,7 +17293,7 @@
         <v>1.594063440565366</v>
       </c>
       <c r="K226">
-        <v>61.45044163676837</v>
+        <v>0.1145044163676837</v>
       </c>
       <c r="L226">
         <v>0.0091990104027491</v>
@@ -17323,13 +17323,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U226">
-        <v>1.000056660969092</v>
+        <v>5.666096909173746E-05</v>
       </c>
       <c r="V226">
-        <v>1.00001886934863</v>
+        <v>1.886934863026823E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17364,7 +17364,7 @@
         <v>1.594063440565366</v>
       </c>
       <c r="K227">
-        <v>61.45044163676837</v>
+        <v>0.1145044163676837</v>
       </c>
       <c r="L227">
         <v>0.008605977932673732</v>
@@ -17394,13 +17394,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U227">
-        <v>1.000066100718609</v>
+        <v>6.610071860913003E-05</v>
       </c>
       <c r="V227">
-        <v>1.000018868992584</v>
+        <v>1.886899258440877E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17435,7 +17435,7 @@
         <v>1.772363613857377</v>
       </c>
       <c r="K228">
-        <v>63.92969540497495</v>
+        <v>0.1392969540497495</v>
       </c>
       <c r="L228">
         <v>0.008099235374698328</v>
@@ -17465,13 +17465,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U228">
-        <v>1.000075538685249</v>
+        <v>7.553868524912133E-05</v>
       </c>
       <c r="V228">
-        <v>1.000018868636552</v>
+        <v>1.886863655231608E-05</v>
       </c>
       <c r="W228">
-        <v>1.000283045570337</v>
+        <v>0.0002830455703366486</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17506,7 +17506,7 @@
         <v>1.492285008032827</v>
       </c>
       <c r="K229">
-        <v>59.87617801427513</v>
+        <v>0.09876178014275139</v>
       </c>
       <c r="L229">
         <v>0.007544405772496939</v>
@@ -17536,13 +17536,13 @@
         <v>0</v>
       </c>
       <c r="U229">
-        <v>1.000075532979587</v>
+        <v>7.553297958740046E-05</v>
       </c>
       <c r="V229">
-        <v>1.000018868280534</v>
+        <v>1.886828053354606E-05</v>
       </c>
       <c r="W229">
-        <v>0.9997170345217884</v>
+        <v>-0.0002829654782116053</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17577,7 +17577,7 @@
         <v>0.8960679143363078</v>
       </c>
       <c r="K230">
-        <v>47.25927312840817</v>
+        <v>-0.02740726871591831</v>
       </c>
       <c r="L230">
         <v>0.006555802367763313</v>
@@ -17607,13 +17607,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U230">
-        <v>1.000037763637394</v>
+        <v>3.776363739360633E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999245283018867</v>
+        <v>-7.547169811328303E-05</v>
       </c>
       <c r="W230">
-        <v>0.9988678177186526</v>
+        <v>-0.001132182281347371</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17648,7 +17648,7 @@
         <v>1.001208175304382</v>
       </c>
       <c r="K231">
-        <v>50.03018614753058</v>
+        <v>0.0003018614753057536</v>
       </c>
       <c r="L231">
         <v>0.005446764945220347</v>
@@ -17678,13 +17678,13 @@
         <v>-0.06249999999994316</v>
       </c>
       <c r="U231">
-        <v>1.000047202764194</v>
+        <v>4.720276419378777E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999433919541098</v>
+        <v>-5.660804589024959E-05</v>
       </c>
       <c r="W231">
-        <v>1.000283366392746</v>
+        <v>0.000283366392745954</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17719,7 +17719,7 @@
         <v>1.111882134218145</v>
       </c>
       <c r="K232">
-        <v>52.64887259580815</v>
+        <v>0.02648872595808149</v>
       </c>
       <c r="L232">
         <v>0.004418769115733178</v>
@@ -17749,13 +17749,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U232">
-        <v>1.000056640643438</v>
+        <v>5.664064343768871E-05</v>
       </c>
       <c r="V232">
-        <v>0.9999433887494575</v>
+        <v>-5.661125054245986E-05</v>
       </c>
       <c r="W232">
-        <v>1.00028328611898</v>
+        <v>0.0002832861189803193</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17790,7 +17790,7 @@
         <v>0.99586495796407</v>
       </c>
       <c r="K233">
-        <v>49.89640977413251</v>
+        <v>-0.001035902258674837</v>
       </c>
       <c r="L233">
         <v>0.003386176339001105</v>
@@ -17820,13 +17820,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U233">
-        <v>1.000047197862881</v>
+        <v>4.719786288087668E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999245140592565</v>
+        <v>-7.548594074346937E-05</v>
       </c>
       <c r="W233">
-        <v>0.9997167941093175</v>
+        <v>-0.0002832058906825363</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17861,7 +17861,7 @@
         <v>0.6428361063867881</v>
       </c>
       <c r="K234">
-        <v>39.12965534953</v>
+        <v>-0.1087034465047</v>
       </c>
       <c r="L234">
         <v>0.001888711176815543</v>
@@ -17891,13 +17891,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U234">
-        <v>0.9999905608729301</v>
+        <v>-9.439127069854614E-06</v>
       </c>
       <c r="V234">
-        <v>0.9998678896312233</v>
+        <v>-0.0001321103687766945</v>
       </c>
       <c r="W234">
-        <v>0.9985835694050992</v>
+        <v>-0.001416430594900819</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17932,7 +17932,7 @@
         <v>0.7174665699808817</v>
       </c>
       <c r="K235">
-        <v>41.77470365486463</v>
+        <v>-0.08225296345135369</v>
       </c>
       <c r="L235">
         <v>0.0003013057541150176</v>
@@ -17962,13 +17962,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U235">
-        <v>0.9999905607838326</v>
+        <v>-9.439216167361764E-06</v>
       </c>
       <c r="V235">
-        <v>0.9998489967723061</v>
+        <v>-0.0001510032276939022</v>
       </c>
       <c r="W235">
-        <v>1.000283687943262</v>
+        <v>0.0002836879432623896</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18003,7 +18003,7 @@
         <v>0.6652088393809947</v>
       </c>
       <c r="K236">
-        <v>39.94747227190265</v>
+        <v>-0.1005252772809735</v>
       </c>
       <c r="L236">
         <v>-0.001343669899790464</v>
@@ -18033,13 +18033,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U236">
-        <v>0.9999905606947329</v>
+        <v>-9.43930526708936E-06</v>
       </c>
       <c r="V236">
-        <v>0.9998300957127485</v>
+        <v>-0.0001699042872514989</v>
       </c>
       <c r="W236">
-        <v>0.9997163925127622</v>
+        <v>-0.0002836074872377692</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18074,7 +18074,7 @@
         <v>0.6652088393809948</v>
       </c>
       <c r="K237">
-        <v>39.94747227190265</v>
+        <v>-0.1005252772809735</v>
       </c>
       <c r="L237">
         <v>-0.002913869411142545</v>
@@ -18104,13 +18104,13 @@
         <v>-0.2812500000000568</v>
       </c>
       <c r="U237">
-        <v>0.9999905606056315</v>
+        <v>-9.43939436848229E-06</v>
       </c>
       <c r="V237">
-        <v>0.9998489483025566</v>
+        <v>-0.0001510516974434495</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18145,7 +18145,7 @@
         <v>0.57275947255084</v>
       </c>
       <c r="K238">
-        <v>36.4174867516066</v>
+        <v>-0.135825132483934</v>
       </c>
       <c r="L238">
         <v>-0.00453441664229612</v>
@@ -18175,13 +18175,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U238">
-        <v>0.9999622420661142</v>
+        <v>-3.775793388582915E-05</v>
       </c>
       <c r="V238">
-        <v>0.9997922725384293</v>
+        <v>-0.000207727461570717</v>
       </c>
       <c r="W238">
-        <v>0.9994326241134752</v>
+        <v>-0.0005673758865247791</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18216,7 +18216,7 @@
         <v>0.57275947255084</v>
       </c>
       <c r="K239">
-        <v>36.4174867516066</v>
+        <v>-0.135825132483934</v>
       </c>
       <c r="L239">
         <v>-0.006065815313427952</v>
@@ -18246,13 +18246,13 @@
         <v>-0.3124999999999432</v>
       </c>
       <c r="U239">
-        <v>0.999943360960598</v>
+        <v>-5.663903940200665E-05</v>
       </c>
       <c r="V239">
-        <v>0.99981111761706</v>
+        <v>-0.0001888823829400144</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18287,7 +18287,7 @@
         <v>0.5318120214010502</v>
       </c>
       <c r="K240">
-        <v>34.71783834903162</v>
+        <v>-0.1528216165096838</v>
       </c>
       <c r="L240">
         <v>-0.007526799295962425</v>
@@ -18317,13 +18317,13 @@
         <v>-0.3562499999999886</v>
       </c>
       <c r="U240">
-        <v>0.9999055962540596</v>
+        <v>-9.44037459403857E-05</v>
       </c>
       <c r="V240">
-        <v>0.9997921901271419</v>
+        <v>-0.0002078098728580668</v>
       </c>
       <c r="W240">
-        <v>0.9997161510076639</v>
+        <v>-0.0002838489923361331</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18358,7 +18358,7 @@
         <v>0.6823205061082507</v>
       </c>
       <c r="K241">
-        <v>40.55829454796802</v>
+        <v>-0.09441705452031973</v>
       </c>
       <c r="L241">
         <v>-0.008618513487872523</v>
@@ -18388,13 +18388,13 @@
         <v>-0.375</v>
       </c>
       <c r="U241">
-        <v>0.9999244698729205</v>
+        <v>-7.553012707950391E-05</v>
       </c>
       <c r="V241">
-        <v>0.9998299383999093</v>
+        <v>-0.0001700616000906985</v>
       </c>
       <c r="W241">
-        <v>1.000567859170925</v>
+        <v>0.0005678591709254999</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18429,7 +18429,7 @@
         <v>0.9199654819617479</v>
       </c>
       <c r="K242">
-        <v>47.91573028811757</v>
+        <v>-0.02084269711882425</v>
       </c>
       <c r="L242">
         <v>-0.009076224400582075</v>
@@ -18459,13 +18459,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U242">
-        <v>0.9999527901048059</v>
+        <v>-4.720989519413354E-05</v>
       </c>
       <c r="V242">
-        <v>0.9998866063160281</v>
+        <v>-0.0001133936839718963</v>
       </c>
       <c r="W242">
-        <v>1.000851305334847</v>
+        <v>0.0008513053348468969</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18500,7 +18500,7 @@
         <v>0.8491590335337383</v>
       </c>
       <c r="K243">
-        <v>45.92136307016263</v>
+        <v>-0.0407863692983737</v>
       </c>
       <c r="L243">
         <v>-0.009190741785989812</v>
@@ -18530,13 +18530,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U243">
-        <v>0.999933903026297</v>
+        <v>-6.609697370296708E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998487912752567</v>
+        <v>-0.0001512087247432792</v>
       </c>
       <c r="W243">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18571,7 +18571,7 @@
         <v>0.930176316322975</v>
       </c>
       <c r="K244">
-        <v>48.19126151620075</v>
+        <v>-0.01808738483799255</v>
       </c>
       <c r="L244">
         <v>-0.008953403904399344</v>
@@ -18601,13 +18601,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U244">
-        <v>0.9999527847551418</v>
+        <v>-4.721524485817863E-05</v>
       </c>
       <c r="V244">
-        <v>0.9998865763057903</v>
+        <v>-0.0001134236942097466</v>
       </c>
       <c r="W244">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18642,7 +18642,7 @@
         <v>0.930176316322975</v>
       </c>
       <c r="K245">
-        <v>48.19126151620075</v>
+        <v>-0.01808738483799255</v>
       </c>
       <c r="L245">
         <v>-0.008485374343326723</v>
@@ -18672,13 +18672,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U245">
-        <v>0.9999433390309088</v>
+        <v>-5.666096909118234E-05</v>
       </c>
       <c r="V245">
-        <v>0.9999621878131322</v>
+        <v>-3.781218686782495E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18713,7 +18713,7 @@
         <v>0.930176316322975</v>
       </c>
       <c r="K246">
-        <v>48.19126151620075</v>
+        <v>-0.01808738483799255</v>
       </c>
       <c r="L246">
         <v>-0.007876468806030374</v>
@@ -18743,13 +18743,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U246">
-        <v>0.9999433358202611</v>
+        <v>-5.666417973893001E-05</v>
       </c>
       <c r="V246">
-        <v>0.999943279574975</v>
+        <v>-5.672042502502528E-05</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18784,7 +18784,7 @@
         <v>1.024670887297499</v>
       </c>
       <c r="K247">
-        <v>50.60925673037234</v>
+        <v>0.006092567303723428</v>
       </c>
       <c r="L247">
         <v>-0.007089114762134807</v>
@@ -18814,13 +18814,13 @@
         <v>0</v>
       </c>
       <c r="U247">
-        <v>0.9999433326092501</v>
+        <v>-5.666739074994265E-05</v>
       </c>
       <c r="V247">
-        <v>0.9999432763575857</v>
+        <v>-5.672364241426919E-05</v>
       </c>
       <c r="W247">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18855,7 +18855,7 @@
         <v>1.024670887297499</v>
       </c>
       <c r="K248">
-        <v>50.60925673037234</v>
+        <v>0.006092567303723428</v>
       </c>
       <c r="L248">
         <v>-0.0062179602716478</v>
@@ -18885,13 +18885,13 @@
         <v>0.09375</v>
       </c>
       <c r="U248">
-        <v>0.9999433293978748</v>
+        <v>-5.667060212521946E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999621820932212</v>
+        <v>-3.781790677881425E-05</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18926,7 +18926,7 @@
         <v>1.024670887297499</v>
       </c>
       <c r="K249">
-        <v>50.60925673037234</v>
+        <v>0.006092567303723428</v>
       </c>
       <c r="L249">
         <v>-0.005328874465669264</v>
@@ -18956,13 +18956,13 @@
         <v>0.1562499999999432</v>
       </c>
       <c r="U249">
-        <v>0.9999622174574239</v>
+        <v>-3.778254257613689E-05</v>
       </c>
       <c r="V249">
-        <v>1.000056729005541</v>
+        <v>5.672900554065663E-05</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18997,7 +18997,7 @@
         <v>0.9229491400773079</v>
       </c>
       <c r="K250">
-        <v>47.99654451808345</v>
+        <v>-0.02003455481916555</v>
       </c>
       <c r="L250">
         <v>-0.004569363602113491</v>
@@ -19027,13 +19027,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U250">
-        <v>0.9999338780522362</v>
+        <v>-6.612194776378644E-05</v>
       </c>
       <c r="V250">
-        <v>1.000018908595848</v>
+        <v>1.890859584752214E-05</v>
       </c>
       <c r="W250">
-        <v>0.9997165532879818</v>
+        <v>-0.0002834467120181872</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19068,7 +19068,7 @@
         <v>0.9229491400773077</v>
       </c>
       <c r="K251">
-        <v>47.99654451808344</v>
+        <v>-0.02003455481916561</v>
       </c>
       <c r="L251">
         <v>-0.003920116728775788</v>
@@ -19098,13 +19098,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U251">
-        <v>0.9999338736798353</v>
+        <v>-6.612632016467224E-05</v>
       </c>
       <c r="V251">
-        <v>1.000037816476639</v>
+        <v>3.781647663880783E-05</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19139,7 +19139,7 @@
         <v>0.9229491400773078</v>
       </c>
       <c r="K252">
-        <v>47.99654451808345</v>
+        <v>-0.02003455481916555</v>
       </c>
       <c r="L252">
         <v>-0.003364771343424655</v>
@@ -19169,13 +19169,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U252">
-        <v>0.9999433165487337</v>
+        <v>-5.668345126630392E-05</v>
       </c>
       <c r="V252">
-        <v>1.000037815046607</v>
+        <v>3.781504660693713E-05</v>
       </c>
       <c r="W252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19210,7 +19210,7 @@
         <v>0.9229491400773078</v>
       </c>
       <c r="K253">
-        <v>47.99654451808345</v>
+        <v>-0.02003455481916555</v>
       </c>
       <c r="L253">
         <v>-0.002889452266474148</v>
@@ -19240,13 +19240,13 @@
         <v>0.1250000000000568</v>
       </c>
       <c r="U253">
-        <v>0.9999338655581275</v>
+        <v>-6.613444187253403E-05</v>
       </c>
       <c r="V253">
-        <v>1.000075627233367</v>
+        <v>7.56272333668484E-05</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19281,7 +19281,7 @@
         <v>0.9229491400773077</v>
       </c>
       <c r="K254">
-        <v>47.99654451808344</v>
+        <v>-0.02003455481916561</v>
       </c>
       <c r="L254">
         <v>-0.002482384208363385</v>
@@ -19311,13 +19311,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U254">
-        <v>0.9999433095863488</v>
+        <v>-5.669041365119476E-05</v>
       </c>
       <c r="V254">
-        <v>1.000075621514321</v>
+        <v>7.562151432094488E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19352,7 +19352,7 @@
         <v>0.9229491400773078</v>
       </c>
       <c r="K255">
-        <v>47.99654451808345</v>
+        <v>-0.02003455481916555</v>
       </c>
       <c r="L255">
         <v>-0.002133566051252958</v>
@@ -19382,13 +19382,13 @@
         <v>0.0625</v>
       </c>
       <c r="U255">
-        <v>0.9999433063723638</v>
+        <v>-5.669362763616181E-05</v>
       </c>
       <c r="V255">
-        <v>1.000094519745175</v>
+        <v>9.451974517493689E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19423,7 +19423,7 @@
         <v>0.9229491400773077</v>
       </c>
       <c r="K256">
-        <v>47.99654451808344</v>
+        <v>-0.02003455481916561</v>
       </c>
       <c r="L256">
         <v>-0.001834496834388106</v>
@@ -19453,13 +19453,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U256">
-        <v>0.9999433031580139</v>
+        <v>-5.669684198605918E-05</v>
       </c>
       <c r="V256">
-        <v>1.000056706487222</v>
+        <v>5.670648722189142E-05</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19494,7 +19494,7 @@
         <v>0.9229491400773077</v>
       </c>
       <c r="K257">
-        <v>47.99654451808344</v>
+        <v>-0.02003455481916561</v>
       </c>
       <c r="L257">
         <v>-0.001577945074397206</v>
@@ -19524,13 +19524,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U257">
-        <v>0.9999432999433</v>
+        <v>-5.670005669999867E-05</v>
       </c>
       <c r="V257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19565,7 +19565,7 @@
         <v>1.072586684104105</v>
       </c>
       <c r="K258">
-        <v>51.75111334693054</v>
+        <v>0.01751113346930544</v>
       </c>
       <c r="L258">
         <v>-0.001254523033754376</v>
@@ -19595,13 +19595,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U258">
-        <v>0.9999432967282212</v>
+        <v>-5.670327177875745E-05</v>
       </c>
       <c r="V258">
-        <v>1.000037802181186</v>
+        <v>3.780218118576428E-05</v>
       </c>
       <c r="W258">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19636,7 +19636,7 @@
         <v>1.230099888342749</v>
       </c>
       <c r="K259">
-        <v>55.15895923643453</v>
+        <v>0.05158959236434524</v>
       </c>
       <c r="L259">
         <v>-0.0008033937353417922</v>
@@ -19666,13 +19666,13 @@
         <v>5.684341886080801E-14</v>
       </c>
       <c r="U259">
-        <v>0.9999621956751854</v>
+        <v>-3.780432481459428E-05</v>
       </c>
       <c r="V259">
-        <v>1.000037800752235</v>
+        <v>3.780075223502877E-05</v>
       </c>
       <c r="W259">
-        <v>1.000283446712018</v>
+        <v>0.0002834467120180761</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19707,7 +19707,7 @@
         <v>1.230099888342749</v>
       </c>
       <c r="K260">
-        <v>55.15895923643453</v>
+        <v>0.05158959236434524</v>
       </c>
       <c r="L260">
         <v>-0.0003007137403859442</v>
@@ -19737,13 +19737,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U260">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V260">
-        <v>1.000037799323392</v>
+        <v>3.779932339220693E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19778,7 +19778,7 @@
         <v>1.404629754535251</v>
       </c>
       <c r="K261">
-        <v>58.41355626104392</v>
+        <v>0.0841355626104392</v>
       </c>
       <c r="L261">
         <v>0.0003054922621999355</v>
@@ -19808,13 +19808,13 @@
         <v>0.03124999999994316</v>
       </c>
       <c r="U261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V261">
-        <v>1.000056696841986</v>
+        <v>5.669684198594815E-05</v>
       </c>
       <c r="W261">
-        <v>1.000283366392746</v>
+        <v>0.000283366392745954</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19849,7 +19849,7 @@
         <v>1.404629754535251</v>
       </c>
       <c r="K262">
-        <v>58.41355626104392</v>
+        <v>0.0841355626104392</v>
       </c>
       <c r="L262">
         <v>0.0009346689181598748</v>
@@ -19879,13 +19879,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U262">
-        <v>0.9999905485614909</v>
+        <v>-9.451438509056054E-06</v>
       </c>
       <c r="V262">
-        <v>1.000037795751757</v>
+        <v>3.779575175744121E-05</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19920,7 +19920,7 @@
         <v>1.598014647823343</v>
       </c>
       <c r="K263">
-        <v>61.50906998011672</v>
+        <v>0.1150906998011672</v>
       </c>
       <c r="L263">
         <v>0.001637485392339752</v>
@@ -19950,13 +19950,13 @@
         <v>0.08125000000006821</v>
       </c>
       <c r="U263">
-        <v>1.00000945152784</v>
+        <v>9.451527839710039E-06</v>
       </c>
       <c r="V263">
-        <v>1.000056691484939</v>
+        <v>5.669148493869791E-05</v>
       </c>
       <c r="W263">
-        <v>1.00028328611898</v>
+        <v>0.0002832861189803193</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19991,7 +19991,7 @@
         <v>0.9921310148637665</v>
       </c>
       <c r="K264">
-        <v>49.80249830263369</v>
+        <v>-0.001975016973663146</v>
       </c>
       <c r="L264">
         <v>0.002024452089875569</v>
@@ -20021,13 +20021,13 @@
         <v>0.09375</v>
       </c>
       <c r="U264">
-        <v>1.000028354315527</v>
+        <v>2.835431552683509E-05</v>
       </c>
       <c r="V264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W264">
-        <v>0.9991503823279524</v>
+        <v>-0.000849617672047609</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20062,7 +20062,7 @@
         <v>0.8756407650242743</v>
       </c>
       <c r="K265">
-        <v>46.68488664528156</v>
+        <v>-0.03315113354718441</v>
       </c>
       <c r="L265">
         <v>0.002084808230710842</v>
@@ -20092,13 +20092,13 @@
         <v>0.1000000000000796</v>
       </c>
       <c r="U265">
-        <v>1.000009451170528</v>
+        <v>9.451170527530195E-06</v>
       </c>
       <c r="V265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W265">
-        <v>0.9997165532879818</v>
+        <v>-0.0002834467120181872</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20133,7 +20133,7 @@
         <v>0.999234639002053</v>
       </c>
       <c r="K266">
-        <v>49.98085865002997</v>
+        <v>-0.0001914134997003658</v>
       </c>
       <c r="L266">
         <v>0.002039095558637565</v>
@@ -20163,13 +20163,13 @@
         <v>0.09375</v>
       </c>
       <c r="U266">
-        <v>1.000028353243611</v>
+        <v>2.835324361094571E-05</v>
       </c>
       <c r="V266">
-        <v>1.000018896090399</v>
+        <v>1.889609039906759E-05</v>
       </c>
       <c r="W266">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20204,7 +20204,7 @@
         <v>0.8842011211695853</v>
       </c>
       <c r="K267">
-        <v>46.92710938526205</v>
+        <v>-0.0307289061473795</v>
       </c>
       <c r="L267">
         <v>0.00182139077508705</v>
@@ -20234,13 +20234,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U267">
-        <v>1.000018901626485</v>
+        <v>1.890162648510163E-05</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267">
-        <v>0.9997165532879818</v>
+        <v>-0.0002834467120181872</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20275,7 +20275,7 @@
         <v>1.005381781628667</v>
       </c>
       <c r="K268">
-        <v>50.13418346765612</v>
+        <v>0.001341834676561238</v>
       </c>
       <c r="L268">
         <v>0.001609961661031265</v>
@@ -20305,13 +20305,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U268">
-        <v>1.00004725317305</v>
+        <v>4.72531730504322E-05</v>
       </c>
       <c r="V268">
-        <v>1.000018895733343</v>
+        <v>1.889573334334926E-05</v>
       </c>
       <c r="W268">
-        <v>1.000283527076836</v>
+        <v>0.0002835270768359877</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20346,7 +20346,7 @@
         <v>1.005381781628667</v>
       </c>
       <c r="K269">
-        <v>50.13418346765612</v>
+        <v>0.001341834676561238</v>
       </c>
       <c r="L269">
         <v>0.001409945930707803</v>
@@ -20376,13 +20376,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U269">
-        <v>1.000047250940294</v>
+        <v>4.725094029356391E-05</v>
       </c>
       <c r="V269">
-        <v>1.000018895376301</v>
+        <v>1.88953763013977E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20417,7 +20417,7 @@
         <v>0.8863672949657532</v>
       </c>
       <c r="K270">
-        <v>46.98805462389259</v>
+        <v>-0.03011945376107411</v>
       </c>
       <c r="L270">
         <v>0.001121237337143556</v>
@@ -20447,13 +20447,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U270">
-        <v>1.000047248707748</v>
+        <v>4.724870774786005E-05</v>
       </c>
       <c r="V270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W270">
-        <v>0.9997165532879818</v>
+        <v>-0.0002834467120181872</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20488,7 +20488,7 @@
         <v>0.8863672949657532</v>
       </c>
       <c r="K271">
-        <v>46.98805462389259</v>
+        <v>-0.03011945376107411</v>
       </c>
       <c r="L271">
         <v>0.0007931153003373979</v>
@@ -20518,13 +20518,13 @@
         <v>-0.06874999999996589</v>
       </c>
       <c r="U271">
-        <v>1.000028347885248</v>
+        <v>2.834788524785914E-05</v>
       </c>
       <c r="V271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20559,7 +20559,7 @@
         <v>1.148699495115763</v>
       </c>
       <c r="K272">
-        <v>53.46022083250294</v>
+        <v>0.03460220832502936</v>
       </c>
       <c r="L272">
         <v>0.0006655733964726461</v>
@@ -20589,13 +20589,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U272">
-        <v>1.000018898054445</v>
+        <v>1.889805444532655E-05</v>
       </c>
       <c r="V272">
-        <v>1.000037790038546</v>
+        <v>3.779003854598173E-05</v>
       </c>
       <c r="W272">
-        <v>1.000567054153672</v>
+        <v>0.0005670541536717533</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20630,7 +20630,7 @@
         <v>1.424838653168483</v>
       </c>
       <c r="K273">
-        <v>58.76014271327611</v>
+        <v>0.08760142713276109</v>
       </c>
       <c r="L273">
         <v>0.0008716817715119249</v>
@@ -20660,13 +20660,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U273">
-        <v>1.000047244243289</v>
+        <v>4.724424328883536E-05</v>
       </c>
       <c r="V273">
-        <v>1.000056682915769</v>
+        <v>5.668291576887974E-05</v>
       </c>
       <c r="W273">
-        <v>1.000566732785492</v>
+        <v>0.0005667327854916859</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20701,7 +20701,7 @@
         <v>1.244035075147768</v>
       </c>
       <c r="K274">
-        <v>55.43741668413313</v>
+        <v>0.05437416684133123</v>
       </c>
       <c r="L274">
         <v>0.001160391766309655</v>
@@ -20731,13 +20731,13 @@
         <v>-0.03124999999994316</v>
       </c>
       <c r="U274">
-        <v>1.000028345206825</v>
+        <v>2.834520682548636E-05</v>
       </c>
       <c r="V274">
-        <v>1.000018893234333</v>
+        <v>1.889323433301726E-05</v>
       </c>
       <c r="W274">
-        <v>0.9997167941093175</v>
+        <v>-0.0002832058906825363</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20772,7 +20772,7 @@
         <v>0.8881409162494777</v>
       </c>
       <c r="K275">
-        <v>47.03785128567855</v>
+        <v>-0.0296214871432145</v>
       </c>
       <c r="L275">
         <v>0.00116686980122803</v>
@@ -20802,13 +20802,13 @@
         <v>-0.01875000000006821</v>
       </c>
       <c r="U275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V275">
-        <v>0.9999622142452295</v>
+        <v>-3.778575477053625E-05</v>
       </c>
       <c r="W275">
-        <v>0.9991501416430595</v>
+        <v>-0.0008498583569405138</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20843,7 +20843,7 @@
         <v>0.8071226560069117</v>
       </c>
       <c r="K276">
-        <v>44.66341304083704</v>
+        <v>-0.05336586959162964</v>
       </c>
       <c r="L276">
         <v>0.0008944955831911949</v>
@@ -20873,13 +20873,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U276">
-        <v>0.9999905518655342</v>
+        <v>-9.448134465794844E-06</v>
       </c>
       <c r="V276">
-        <v>0.9999244256348248</v>
+        <v>-7.557436517524607E-05</v>
       </c>
       <c r="W276">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20914,7 +20914,7 @@
         <v>0.9031461334105193</v>
       </c>
       <c r="K277">
-        <v>47.45542749216229</v>
+        <v>-0.02544572507837706</v>
       </c>
       <c r="L277">
         <v>0.0005705061353236116</v>
@@ -20944,13 +20944,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U277">
-        <v>0.9999905517762663</v>
+        <v>-9.448223733721228E-06</v>
       </c>
       <c r="V277">
-        <v>0.9999433149421811</v>
+        <v>-5.668505781886157E-05</v>
       </c>
       <c r="W277">
-        <v>1.000283607487238</v>
+        <v>0.0002836074872376582</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20985,7 +20985,7 @@
         <v>0.8202385943283556</v>
       </c>
       <c r="K278">
-        <v>45.06214717587685</v>
+        <v>-0.04937852824123146</v>
       </c>
       <c r="L278">
         <v>0.0001306043393637479</v>
@@ -21015,13 +21015,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U278">
-        <v>0.9999811033739923</v>
+        <v>-1.889662600773612E-05</v>
       </c>
       <c r="V278">
-        <v>0.9999055195480058</v>
+        <v>-9.448045199422772E-05</v>
       </c>
       <c r="W278">
-        <v>0.9997164729231642</v>
+        <v>-0.0002835270768357656</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21056,7 +21056,7 @@
         <v>0.7479628732327698</v>
       </c>
       <c r="K279">
-        <v>42.79054690958338</v>
+        <v>-0.07209453090416618</v>
       </c>
       <c r="L279">
         <v>-0.0004551761723404295</v>
@@ -21086,13 +21086,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U279">
-        <v>0.9999716545253551</v>
+        <v>-2.834547464491965E-05</v>
       </c>
       <c r="V279">
-        <v>0.9999433063723636</v>
+        <v>-5.669362763638386E-05</v>
       </c>
       <c r="W279">
-        <v>0.9997163925127622</v>
+        <v>-0.0002836074872377692</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21127,7 +21127,7 @@
         <v>0.7479628732327699</v>
       </c>
       <c r="K280">
-        <v>42.79054690958338</v>
+        <v>-0.07209453090416618</v>
       </c>
       <c r="L280">
         <v>-0.001090355551715639</v>
@@ -21157,13 +21157,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U280">
-        <v>0.9999811024812443</v>
+        <v>-1.889751875572276E-05</v>
       </c>
       <c r="V280">
-        <v>0.9999622021053428</v>
+        <v>-3.779789465718775E-05</v>
       </c>
       <c r="W280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21198,7 +21198,7 @@
         <v>0.7479628732327699</v>
       </c>
       <c r="K281">
-        <v>42.79054690958338</v>
+        <v>-0.07209453090416618</v>
       </c>
       <c r="L281">
         <v>-0.001711029961572659</v>
@@ -21228,13 +21228,13 @@
         <v>-0.08750000000003411</v>
       </c>
       <c r="U281">
-        <v>0.9999811021241213</v>
+        <v>-1.88978758787206E-05</v>
       </c>
       <c r="V281">
-        <v>0.9999433010149119</v>
+        <v>-5.669898508808835E-05</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Yara International 16.12.2020.xlsx
+++ b/data_clean/Yara International 16.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1280,13 +1283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:X281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,10 +1359,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>353.6</v>
@@ -1416,7 +1422,7 @@
         <v>353.6</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>353.6</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1427,10 +1433,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>353.6</v>
@@ -1487,7 +1496,7 @@
         <v>353.6</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>353.6</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1498,10 +1507,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>353.6</v>
@@ -1558,21 +1570,24 @@
         <v>353.6000000000001</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>353.6000000000001</v>
       </c>
       <c r="U4">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>2.220446049250313E-16</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>353</v>
@@ -1629,21 +1644,24 @@
         <v>353.45</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>353.4</v>
       </c>
       <c r="U5">
-        <v>-0.0004242081447964896</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>-0.0004242081447964896</v>
       </c>
       <c r="W5">
+        <v>-0.0004242081447964896</v>
+      </c>
+      <c r="X5">
         <v>-0.001696832579185625</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>352.8</v>
@@ -1700,21 +1718,24 @@
         <v>353.3200000000001</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>353.1333333333334</v>
       </c>
       <c r="U6">
-        <v>-0.0003678030838873969</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>-0.0003678030838873969</v>
       </c>
       <c r="W6">
+        <v>-0.0003678030838873969</v>
+      </c>
+      <c r="X6">
         <v>-0.0005665722379603055</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>352.5</v>
@@ -1771,21 +1792,24 @@
         <v>353.1833333333333</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>352.7666666666667</v>
       </c>
       <c r="U7">
-        <v>-0.0003868070493227016</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>-0.0003868070493227016</v>
       </c>
       <c r="W7">
+        <v>-0.0003868070493227016</v>
+      </c>
+      <c r="X7">
         <v>-0.0008503401360544505</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>352.2</v>
@@ -1842,21 +1866,24 @@
         <v>353.0428571428571</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>352.5</v>
       </c>
       <c r="U8">
-        <v>-0.0003977429771399033</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>-0.0003977429771399033</v>
       </c>
       <c r="W8">
+        <v>-0.0003977429771399033</v>
+      </c>
+      <c r="X8">
         <v>-0.0008510638297872797</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>352.5</v>
@@ -1913,21 +1940,24 @@
         <v>352.975</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>352.4</v>
       </c>
       <c r="U9">
-        <v>-0.0001922065309755139</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-0.0001922065309755139</v>
       </c>
       <c r="W9">
+        <v>-0.0001922065309755139</v>
+      </c>
+      <c r="X9">
         <v>0.0008517887563883608</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>352.5</v>
@@ -1984,21 +2014,24 @@
         <v>352.9222222222222</v>
       </c>
       <c r="T10">
+        <v>352.4</v>
+      </c>
+      <c r="U10">
         <v>-0.08472222222218306</v>
-      </c>
-      <c r="U10">
-        <v>-0.0001495227077775718</v>
       </c>
       <c r="V10">
         <v>-0.0001495227077775718</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>-0.0001495227077775718</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>351.8</v>
@@ -2055,21 +2088,24 @@
         <v>352.81</v>
       </c>
       <c r="T11">
+        <v>352.2666666666667</v>
+      </c>
+      <c r="U11">
         <v>-0.1974999999999909</v>
-      </c>
-      <c r="U11">
-        <v>-0.0003179800396687638</v>
       </c>
       <c r="V11">
         <v>-0.0003179800396687638</v>
       </c>
       <c r="W11">
+        <v>-0.0003179800396687638</v>
+      </c>
+      <c r="X11">
         <v>-0.001985815602836838</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>351.7</v>
@@ -2126,21 +2162,24 @@
         <v>352.7090909090909</v>
       </c>
       <c r="T12">
+        <v>352</v>
+      </c>
+      <c r="U12">
         <v>-0.3340909090909463</v>
-      </c>
-      <c r="U12">
-        <v>-0.0002860153932968679</v>
       </c>
       <c r="V12">
         <v>-0.0002860153932968679</v>
       </c>
       <c r="W12">
+        <v>-0.0002860153932968679</v>
+      </c>
+      <c r="X12">
         <v>-0.0002842524161456028</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>352.2</v>
@@ -2197,21 +2236,24 @@
         <v>352.6666666666667</v>
       </c>
       <c r="T13">
+        <v>351.9</v>
+      </c>
+      <c r="U13">
         <v>-0.3916666666667084</v>
-      </c>
-      <c r="U13">
-        <v>-0.0001202811141468585</v>
       </c>
       <c r="V13">
         <v>-0.0001202811141468585</v>
       </c>
       <c r="W13">
+        <v>-0.0001202811141468585</v>
+      </c>
+      <c r="X13">
         <v>0.001421666192777948</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>351.9</v>
@@ -2268,21 +2310,24 @@
         <v>352.6076923076923</v>
       </c>
       <c r="T14">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U14">
         <v>-0.4451923076922526</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001672240802677027</v>
       </c>
       <c r="V14">
         <v>-0.0001672240802677027</v>
       </c>
       <c r="W14">
+        <v>-0.0001672240802677027</v>
+      </c>
+      <c r="X14">
         <v>-0.0008517887563884718</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>352.2</v>
@@ -2339,21 +2384,24 @@
         <v>352.5785714285715</v>
       </c>
       <c r="T15">
+        <v>352.1</v>
+      </c>
+      <c r="U15">
         <v>-0.4535714285714789</v>
-      </c>
-      <c r="U15">
-        <v>-8.258719181708507E-05</v>
       </c>
       <c r="V15">
         <v>-8.258719181708507E-05</v>
       </c>
       <c r="W15">
+        <v>-8.258719181708507E-05</v>
+      </c>
+      <c r="X15">
         <v>0.0008525149190110604</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>352.3</v>
@@ -2410,21 +2458,24 @@
         <v>352.56</v>
       </c>
       <c r="T16">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="U16">
         <v>-0.4225000000000136</v>
-      </c>
-      <c r="U16">
-        <v>-5.26731630235977E-05</v>
       </c>
       <c r="V16">
         <v>-5.26731630235977E-05</v>
       </c>
       <c r="W16">
+        <v>-5.26731630235977E-05</v>
+      </c>
+      <c r="X16">
         <v>0.000283929585462861</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>352.8</v>
@@ -2481,21 +2532,24 @@
         <v>352.5066666666666</v>
       </c>
       <c r="T17">
+        <v>352.4333333333334</v>
+      </c>
+      <c r="U17">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4.254594962560532E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-0.0001512744875578065</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.001419244961680333</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>352.6</v>
@@ -2552,21 +2606,24 @@
         <v>352.44</v>
       </c>
       <c r="T18">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="U18">
         <v>-0.3249999999999886</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4.170994073016132E-06</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-0.0001891217187379723</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.0005668934240362633</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>352.7</v>
@@ -2623,21 +2680,24 @@
         <v>352.38</v>
       </c>
       <c r="T19">
+        <v>352.7</v>
+      </c>
+      <c r="U19">
         <v>-0.15625</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.946455782086964E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.0001702417432755121</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>352.8</v>
@@ -2694,21 +2754,24 @@
         <v>352.3666666666667</v>
       </c>
       <c r="T20">
+        <v>352.7</v>
+      </c>
+      <c r="U20">
         <v>0.03125</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3.234273345853467E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-3.783794010248087E-05</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>353</v>
@@ -2765,21 +2828,24 @@
         <v>352.38</v>
       </c>
       <c r="T21">
+        <v>352.8333333333333</v>
+      </c>
+      <c r="U21">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5.746869075884398E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3.783937186629949E-05</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0005668934240361523</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>353</v>
@@ -2836,21 +2902,24 @@
         <v>352.4133333333333</v>
       </c>
       <c r="T22">
+        <v>352.9333333333333</v>
+      </c>
+      <c r="U22">
         <v>0.2562500000000227</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>5.199249417442431E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>9.459485025620218E-05</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>352.7</v>
@@ -2907,21 +2976,24 @@
         <v>352.4466666666667</v>
       </c>
       <c r="T23">
+        <v>352.9</v>
+      </c>
+      <c r="U23">
         <v>0.3062500000000341</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>8.593353900021583E-06</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9.458590291711033E-05</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.0008498583569405138</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>352.5</v>
@@ -2978,21 +3050,24 @@
         <v>352.4466666666667</v>
       </c>
       <c r="T24">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U24">
         <v>0.3125</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-1.681293923805338E-05</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>-0.0005670541536716422</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>352.7</v>
@@ -3049,21 +3124,24 @@
         <v>352.46</v>
       </c>
       <c r="T25">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U25">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8.219797382080785E-06</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3.783078290808817E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.0005673758865247791</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>352.8</v>
@@ -3120,21 +3198,24 @@
         <v>352.5266666666666</v>
       </c>
       <c r="T26">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U26">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.890537857995866E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001891467589703044</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>352.5</v>
@@ -3191,21 +3272,24 @@
         <v>352.58</v>
       </c>
       <c r="T27">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U27">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-1.526944017871124E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0001512887913917016</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.0008503401360544505</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>352.7</v>
@@ -3262,21 +3346,24 @@
         <v>352.6133333333333</v>
       </c>
       <c r="T28">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U28">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>6.867313406155873E-06</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>9.454119159735264E-05</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.0005673758865247791</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>352.4</v>
@@ -3333,21 +3420,24 @@
         <v>352.6466666666667</v>
       </c>
       <c r="T29">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U29">
         <v>0.06249999999994316</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-2.400657780243787E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>9.453225440525515E-05</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0008505812305075189</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>352.7</v>
@@ -3404,21 +3494,24 @@
         <v>352.68</v>
       </c>
       <c r="T30">
+        <v>352.6</v>
+      </c>
+      <c r="U30">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>6.984840102974843E-06</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>9.452331890269505E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0008513053348468969</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>352.9</v>
@@ -3475,21 +3568,24 @@
         <v>352.72</v>
       </c>
       <c r="T31">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U31">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>2.542464038812753E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0001134172621073404</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.0005670541536717533</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>353</v>
@@ -3546,21 +3642,24 @@
         <v>352.7333333333333</v>
       </c>
       <c r="T32">
+        <v>352.8666666666666</v>
+      </c>
+      <c r="U32">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-5.671506352100675E-05</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.78014666968518E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.000283366392745954</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>352.7</v>
@@ -3617,21 +3716,24 @@
         <v>352.74</v>
       </c>
       <c r="T33">
+        <v>352.8666666666666</v>
+      </c>
+      <c r="U33">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-8.507742045271716E-05</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1.890001889992554E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0008498583569405138</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>352.6</v>
@@ -3688,21 +3790,24 @@
         <v>352.7333333333333</v>
       </c>
       <c r="T34">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U34">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-9.45385102620877E-05</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-1.889966169588142E-05</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>352.6</v>
@@ -3759,21 +3864,24 @@
         <v>352.72</v>
       </c>
       <c r="T35">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U35">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-3.781897945476231E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-3.780003779996211E-05</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>352.5</v>
@@ -3830,21 +3938,24 @@
         <v>352.6866666666667</v>
       </c>
       <c r="T36">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="U36">
         <v>-0.03125000000005684</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-2.836530733807408E-05</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-9.450366674235156E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.0002836074872377692</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>352.6</v>
@@ -3901,21 +4012,24 @@
         <v>352.66</v>
       </c>
       <c r="T37">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="U37">
         <v>0.01875000000006821</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>9.455370650446326E-06</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-7.561007882361803E-05</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0002836879432623896</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>352.5</v>
@@ -3972,21 +4086,24 @@
         <v>352.6466666666666</v>
       </c>
       <c r="T38">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U38">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>2.836584374210638E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-3.780789806984153E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.0002836074872377692</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>352.5</v>
@@ -4043,21 +4160,24 @@
         <v>352.6466666666666</v>
       </c>
       <c r="T39">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U39">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>352.5</v>
@@ -4114,21 +4234,24 @@
         <v>352.6333333333333</v>
       </c>
       <c r="T40">
+        <v>352.5</v>
+      </c>
+      <c r="U40">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
       <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
         <v>-3.780932756103361E-05</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>352.5</v>
@@ -4185,21 +4308,24 @@
         <v>352.6133333333333</v>
       </c>
       <c r="T41">
+        <v>352.5</v>
+      </c>
+      <c r="U41">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>6.618509133526906E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-5.671613574054213E-05</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>352.5</v>
@@ -4256,21 +4382,24 @@
         <v>352.6133333333333</v>
       </c>
       <c r="T42">
+        <v>352.5</v>
+      </c>
+      <c r="U42">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>7.563509846764127E-05</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>352.6</v>
@@ -4327,21 +4456,24 @@
         <v>352.6066666666667</v>
       </c>
       <c r="T43">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>3.781468911578934E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-1.890645088098442E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0002836879432623896</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>352.3</v>
@@ -4398,21 +4530,24 @@
         <v>352.6</v>
       </c>
       <c r="T44">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U44">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>3.781325921936585E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-1.89068083417121E-05</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.0008508224617129745</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>352.1</v>
@@ -4469,21 +4604,24 @@
         <v>352.56</v>
       </c>
       <c r="T45">
+        <v>352.3333333333333</v>
+      </c>
+      <c r="U45">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>-9.452957357658498E-06</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0001134429948951299</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.0005676979846721553</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>351.8</v>
@@ -4540,21 +4678,24 @@
         <v>352.4866666666667</v>
       </c>
       <c r="T46">
+        <v>352.0666666666667</v>
+      </c>
+      <c r="U46">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>-4.726523358478119E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0002080024203917619</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0008520306731042426</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>352.2</v>
@@ -4611,21 +4752,24 @@
         <v>352.4333333333333</v>
       </c>
       <c r="T47">
+        <v>352.0333333333334</v>
+      </c>
+      <c r="U47">
         <v>-0.1562499999999432</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-5.672096123132686E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0001513059595634747</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.001137009664582189</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>351.9</v>
@@ -4682,21 +4826,24 @@
         <v>352.3800000000001</v>
       </c>
       <c r="T48">
+        <v>351.9666666666666</v>
+      </c>
+      <c r="U48">
         <v>-0.1625000000000796</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-6.617820846110956E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0001513288565211379</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0008517887563884718</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>351.9</v>
@@ -4753,21 +4900,24 @@
         <v>352.3333333333333</v>
       </c>
       <c r="T49">
+        <v>352</v>
+      </c>
+      <c r="U49">
         <v>-0.1875000000000568</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-7.563724377890324E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>-0.0001324327903591271</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>352</v>
@@ -4824,21 +4974,24 @@
         <v>352.2933333333333</v>
       </c>
       <c r="T50">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U50">
         <v>-0.2124999999999773</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-7.564296520412572E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.000113528855250733</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>352</v>
@@ -4895,21 +5048,24 @@
         <v>352.26</v>
       </c>
       <c r="T51">
+        <v>351.9666666666667</v>
+      </c>
+      <c r="U51">
         <v>-0.25</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-9.456085936920822E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-9.461812126254632E-05</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>352</v>
@@ -4966,21 +5122,24 @@
         <v>352.22</v>
       </c>
       <c r="T52">
+        <v>352</v>
+      </c>
+      <c r="U52">
         <v>-0.2562499999999659</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-9.45698019708674E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0001135524896381801</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>351.9</v>
@@ -5037,21 +5196,24 @@
         <v>352.18</v>
       </c>
       <c r="T53">
+        <v>351.9666666666666</v>
+      </c>
+      <c r="U53">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-7.566299701144974E-05</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0001135653852706309</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0002840909090909838</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>352</v>
@@ -5108,21 +5270,24 @@
         <v>352.1466666666666</v>
       </c>
       <c r="T54">
+        <v>351.9666666666666</v>
+      </c>
+      <c r="U54">
         <v>-0.1812499999999773</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-4.729295145844414E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-9.464856986018955E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>352</v>
@@ -5179,21 +5344,24 @@
         <v>352.1133333333333</v>
       </c>
       <c r="T55">
+        <v>351.9666666666666</v>
+      </c>
+      <c r="U55">
         <v>-0.1750000000000114</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-6.621326346267775E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-9.465752905979397E-05</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>351.9</v>
@@ -5250,21 +5418,24 @@
         <v>352.0733333333334</v>
       </c>
       <c r="T56">
+        <v>351.9666666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-8.513697593448555E-05</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001135997879470052</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0002840909090909838</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>351.9</v>
@@ -5321,21 +5492,24 @@
         <v>352.0333333333334</v>
       </c>
       <c r="T57">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U57">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-5.676281657074345E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0001136126943250826</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>352</v>
@@ -5392,21 +5566,24 @@
         <v>351.9933333333333</v>
       </c>
       <c r="T58">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U58">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-6.622704523318035E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0001136256036362582</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>352.1</v>
@@ -5463,21 +5640,24 @@
         <v>351.98</v>
       </c>
       <c r="T59">
+        <v>352</v>
+      </c>
+      <c r="U59">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-2.838489923373544E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-3.787950529365869E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0002840909090908728</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>352.1</v>
@@ -5534,21 +5714,24 @@
         <v>351.98</v>
       </c>
       <c r="T60">
+        <v>352.0666666666667</v>
+      </c>
+      <c r="U60">
         <v>5.684341886080801E-14</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-5.67714099177774E-05</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>351.9</v>
@@ -5605,21 +5788,24 @@
         <v>351.9866666666667</v>
       </c>
       <c r="T61">
+        <v>352.0333333333334</v>
+      </c>
+      <c r="U61">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-9.462438849017207E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>1.89404701025353E-05</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.0005680204487362728</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>351.7</v>
@@ -5676,21 +5862,24 @@
         <v>351.9533333333333</v>
       </c>
       <c r="T62">
+        <v>351.8999999999999</v>
+      </c>
+      <c r="U62">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0001230233460456365</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-9.470055683935552E-05</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>-0.0005683432793407439</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>351.7</v>
@@ -5747,21 +5936,24 @@
         <v>351.9399999999999</v>
       </c>
       <c r="T63">
+        <v>351.7666666666667</v>
+      </c>
+      <c r="U63">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-9.464498665501253E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-3.788381035374488E-05</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>351.7</v>
@@ -5818,21 +6010,24 @@
         <v>351.9266666666666</v>
       </c>
       <c r="T64">
+        <v>351.7</v>
+      </c>
+      <c r="U64">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-8.518855065886566E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-3.788524559111828E-05</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>351.7</v>
@@ -5889,21 +6084,24 @@
         <v>351.9066666666667</v>
       </c>
       <c r="T65">
+        <v>351.7</v>
+      </c>
+      <c r="U65">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-8.519580836618967E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-5.683002140577376E-05</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>351.7</v>
@@ -5960,21 +6158,24 @@
         <v>351.8866666666667</v>
       </c>
       <c r="T66">
+        <v>351.7</v>
+      </c>
+      <c r="U66">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-7.573605983157705E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-5.683325124095084E-05</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>351.5</v>
@@ -6031,21 +6232,24 @@
         <v>351.8533333333334</v>
       </c>
       <c r="T67">
+        <v>351.6333333333334</v>
+      </c>
+      <c r="U67">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0001041449697980479</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-9.472746907135399E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.0005686664771111793</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>351.6</v>
@@ -6102,21 +6306,24 @@
         <v>351.8333333333333</v>
       </c>
       <c r="T68">
+        <v>351.6</v>
+      </c>
+      <c r="U68">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-8.521839581110413E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-5.684186592913587E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0002844950213372055</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>351.7</v>
@@ -6173,21 +6380,24 @@
         <v>351.8133333333334</v>
       </c>
       <c r="T69">
+        <v>351.6</v>
+      </c>
+      <c r="U69">
         <v>-0.1625000000000796</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-7.575614098209726E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-5.684509711012531E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.0002844141069395789</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>351.9</v>
@@ -6244,21 +6454,24 @@
         <v>351.8066666666667</v>
       </c>
       <c r="T70">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-5.682141030738386E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-1.894944288649558E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0005686664771111793</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>351.8</v>
@@ -6315,21 +6528,24 @@
         <v>351.8</v>
       </c>
       <c r="T71">
+        <v>351.8</v>
+      </c>
+      <c r="U71">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-6.629541235758651E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-1.894980197458818E-05</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0002841716396703164</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>351.6</v>
@@ -6386,21 +6602,24 @@
         <v>351.78</v>
       </c>
       <c r="T72">
+        <v>351.7666666666667</v>
+      </c>
+      <c r="U72">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-8.524260993925115E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-5.685048322923159E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0005685048322910946</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>351.9</v>
@@ -6457,21 +6676,24 @@
         <v>351.7733333333334</v>
       </c>
       <c r="T73">
+        <v>351.7666666666667</v>
+      </c>
+      <c r="U73">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-6.630545978092428E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-1.895123846329394E-05</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.0008532423208189588</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>352</v>
@@ -6528,21 +6750,24 @@
         <v>351.7666666666667</v>
       </c>
       <c r="T74">
+        <v>351.8333333333333</v>
+      </c>
+      <c r="U74">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-2.841850992296724E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-1.895159761977627E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>351.9</v>
@@ -6599,21 +6824,24 @@
         <v>351.7533333333333</v>
       </c>
       <c r="T75">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U75">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-1.894621170484001E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-3.790391357905154E-05</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0002840909090909838</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>351.9</v>
@@ -6670,21 +6898,24 @@
         <v>351.7533333333333</v>
       </c>
       <c r="T76">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="U76">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>9.473285335293014E-06</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>351.9</v>
@@ -6741,21 +6972,24 @@
         <v>351.7666666666667</v>
       </c>
       <c r="T77">
+        <v>351.8999999999999</v>
+      </c>
+      <c r="U77">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-2.841958677934908E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>3.790535034031706E-05</v>
       </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>351.6</v>
@@ -6812,21 +7046,24 @@
         <v>351.76</v>
       </c>
       <c r="T78">
+        <v>351.8</v>
+      </c>
+      <c r="U78">
         <v>0.06874999999996589</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-2.842039447492617E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-1.895195678947026E-05</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0008525149190109493</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>351.7</v>
@@ -6883,21 +7120,24 @@
         <v>351.76</v>
       </c>
       <c r="T79">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U79">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-1.894746814468107E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.0002844141069395789</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>351.8</v>
@@ -6954,21 +7194,24 @@
         <v>351.7666666666667</v>
       </c>
       <c r="T80">
+        <v>351.7</v>
+      </c>
+      <c r="U80">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-1.894782715772259E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>1.895231597281999E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0002843332385555897</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>351.7</v>
@@ -7025,21 +7268,24 @@
         <v>351.7666666666667</v>
       </c>
       <c r="T81">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U81">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-2.842227927746244E-05</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
       <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>-0.0002842524161456028</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>351.7</v>
@@ -7096,21 +7342,24 @@
         <v>351.78</v>
       </c>
       <c r="T82">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U82">
         <v>0.01250000000004547</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-2.84230871262503E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>3.790391357894052E-05</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>351.8</v>
@@ -7167,21 +7416,24 @@
         <v>351.7933333333334</v>
       </c>
       <c r="T83">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U83">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-9.474631673667133E-06</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>3.790247692703197E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0002843332385555897</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>351.7</v>
@@ -7238,21 +7490,24 @@
         <v>351.7933333333333</v>
       </c>
       <c r="T84">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U84">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-2.842416432957684E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0002842524161456028</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>351.8</v>
@@ -7309,21 +7564,24 @@
         <v>351.7866666666667</v>
       </c>
       <c r="T85">
+        <v>351.7666666666667</v>
+      </c>
+      <c r="U85">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-1.89499815237415E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-1.895052019162957E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0002843332385555897</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>351.4</v>
@@ -7380,21 +7638,24 @@
         <v>351.76</v>
       </c>
       <c r="T86">
+        <v>351.6333333333334</v>
+      </c>
+      <c r="U86">
         <v>-0.0625</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-4.737585158087754E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-7.580351728331269E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0011370096645823</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>351.4</v>
@@ -7451,21 +7712,24 @@
         <v>351.7466666666667</v>
       </c>
       <c r="T87">
+        <v>351.5333333333333</v>
+      </c>
+      <c r="U87">
         <v>-0.07499999999993179</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-4.737809615873445E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-3.790463194597304E-05</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>351.3</v>
@@ -7522,21 +7786,24 @@
         <v>351.7066666666666</v>
       </c>
       <c r="T88">
+        <v>351.3666666666666</v>
+      </c>
+      <c r="U88">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-6.633247732856784E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0001137182062849185</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>-0.0002845759817869942</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>351.4</v>
@@ -7593,21 +7860,24 @@
         <v>351.6666666666667</v>
       </c>
       <c r="T89">
+        <v>351.3666666666666</v>
+      </c>
+      <c r="U89">
         <v>-0.125</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-6.633687761792295E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.0001137311395859042</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.000284656988329024</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>351.4</v>
@@ -7664,21 +7934,24 @@
         <v>351.6333333333333</v>
       </c>
       <c r="T90">
+        <v>351.3666666666666</v>
+      </c>
+      <c r="U90">
         <v>-0.125</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-6.634127849114435E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-9.478672985785419E-05</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>351.6</v>
@@ -7735,21 +8008,24 @@
         <v>351.6133333333334</v>
       </c>
       <c r="T91">
+        <v>351.4666666666667</v>
+      </c>
+      <c r="U91">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-2.843386283502003E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-5.687742913995653E-05</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0005691519635744324</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>351.6</v>
@@ -7806,21 +8082,24 @@
         <v>351.5933333333333</v>
       </c>
       <c r="T92">
+        <v>351.5333333333333</v>
+      </c>
+      <c r="U92">
         <v>-0.1250000000000568</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-9.478223780834405E-06</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-5.688066436637662E-05</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>351.5</v>
@@ -7877,21 +8156,24 @@
         <v>351.5866666666666</v>
       </c>
       <c r="T93">
+        <v>351.5666666666667</v>
+      </c>
+      <c r="U93">
         <v>-0.1374999999999318</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-1.895662723705449E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-1.896129998668616E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>-0.000284414106939801</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>351.6</v>
@@ -7948,21 +8230,24 @@
         <v>351.58</v>
       </c>
       <c r="T94">
+        <v>351.5666666666667</v>
+      </c>
+      <c r="U94">
         <v>-0.1124999999999545</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-9.478493298575863E-06</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-1.896165952441908E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0002844950213372055</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>351.7</v>
@@ -8019,21 +8304,24 @@
         <v>351.5733333333333</v>
       </c>
       <c r="T95">
+        <v>351.6</v>
+      </c>
+      <c r="U95">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U95">
-        <v>0</v>
-      </c>
       <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
         <v>-1.896201907580775E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0002844141069395789</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>351.6</v>
@@ -8090,21 +8378,24 @@
         <v>351.5666666666667</v>
       </c>
       <c r="T96">
+        <v>351.6333333333334</v>
+      </c>
+      <c r="U96">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-9.478583141375729E-06</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-1.896237864074113E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0002843332385554787</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>351.9</v>
@@ -8161,21 +8452,24 @@
         <v>351.58</v>
       </c>
       <c r="T97">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U97">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>3.791469194336372E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>3.792547643866051E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0008532423208189588</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>351.7</v>
@@ -8232,21 +8526,24 @@
         <v>351.5733333333333</v>
       </c>
       <c r="T98">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U98">
         <v>0.0625</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>9.478313618194179E-06</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-1.896201907580775E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.0005683432793407439</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>352</v>
@@ -8303,21 +8600,24 @@
         <v>351.5933333333333</v>
       </c>
       <c r="T99">
+        <v>351.8666666666666</v>
+      </c>
+      <c r="U99">
         <v>0.1000000000000796</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>2.843467134261424E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>5.688713592233441E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.000852999715666769</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>352</v>
@@ -8374,21 +8674,24 @@
         <v>351.6066666666666</v>
       </c>
       <c r="T100">
+        <v>351.8999999999999</v>
+      </c>
+      <c r="U100">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>9.477954278303002E-06</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>3.792259997337233E-05</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>352</v>
@@ -8445,21 +8748,24 @@
         <v>351.6466666666666</v>
       </c>
       <c r="T101">
+        <v>352</v>
+      </c>
+      <c r="U101">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>1.895572889520913E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0001137634857133474</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>351.9</v>
@@ -8516,21 +8822,24 @@
         <v>351.6800000000001</v>
       </c>
       <c r="T102">
+        <v>351.9666666666667</v>
+      </c>
+      <c r="U102">
         <v>0.1874999999999432</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>2.843305437338906E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>9.479212087915023E-05</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>-0.0002840909090909838</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>352</v>
@@ -8587,21 +8896,24 @@
         <v>351.7266666666667</v>
       </c>
       <c r="T103">
+        <v>351.9666666666667</v>
+      </c>
+      <c r="U103">
         <v>0.1874999999999432</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>9.47741531920343E-06</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0001326963906580492</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>351.8</v>
@@ -8658,21 +8970,24 @@
         <v>351.7533333333333</v>
       </c>
       <c r="T104">
+        <v>351.9</v>
+      </c>
+      <c r="U104">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-1.895465099732707E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>7.581644837828527E-05</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0005681818181817455</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>351.8</v>
@@ -8729,21 +9044,24 @@
         <v>351.78</v>
       </c>
       <c r="T105">
+        <v>351.8666666666666</v>
+      </c>
+      <c r="U105">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-9.477505141686215E-06</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>7.581070068041207E-05</v>
       </c>
-      <c r="W105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>351.8</v>
@@ -8800,21 +9118,24 @@
         <v>351.7933333333333</v>
       </c>
       <c r="T106">
+        <v>351.8</v>
+      </c>
+      <c r="U106">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-9.477594965501268E-06</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>3.790247692680992E-05</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>351.9</v>
@@ -8871,21 +9192,24 @@
         <v>351.8133333333333</v>
       </c>
       <c r="T107">
+        <v>351.8333333333333</v>
+      </c>
+      <c r="U107">
         <v>0.1000000000000796</v>
       </c>
-      <c r="U107">
-        <v>0</v>
-      </c>
       <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
         <v>5.685156057544383E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0002842524161454918</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>351.9</v>
@@ -8942,21 +9266,24 @@
         <v>351.84</v>
       </c>
       <c r="T108">
+        <v>351.8666666666666</v>
+      </c>
+      <c r="U108">
         <v>0.06874999999996589</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>2.843305437338906E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>7.579777154553824E-05</v>
       </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>351.8</v>
@@ -9013,21 +9340,24 @@
         <v>351.8533333333334</v>
       </c>
       <c r="T109">
+        <v>351.8666666666666</v>
+      </c>
+      <c r="U109">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>9.47741531920343E-06</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>3.789601333936687E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0002841716396703164</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>351.8</v>
@@ -9084,21 +9414,24 @@
         <v>351.86</v>
       </c>
       <c r="T110">
+        <v>351.8333333333333</v>
+      </c>
+      <c r="U110">
         <v>5.684341886080801E-14</v>
       </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
       <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
         <v>1.894728864271222E-05</v>
       </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>351.8</v>
@@ -9155,21 +9488,24 @@
         <v>351.8733333333333</v>
       </c>
       <c r="T111">
+        <v>351.8</v>
+      </c>
+      <c r="U111">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>9.477325498830069E-06</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>3.789385929997557E-05</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>351.6</v>
@@ -9226,21 +9562,24 @@
         <v>351.8533333333334</v>
       </c>
       <c r="T112">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U112">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>-9.47723568001102E-06</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-5.683863511474208E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.0005685048322910946</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>351.7</v>
@@ -9297,21 +9636,24 @@
         <v>351.8533333333334</v>
       </c>
       <c r="T113">
+        <v>351.7</v>
+      </c>
+      <c r="U113">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>-9.477325498608025E-06</v>
       </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
       <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
         <v>0.0002844141069395789</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>351.7</v>
@@ -9368,21 +9710,24 @@
         <v>351.8333333333333</v>
       </c>
       <c r="T114">
+        <v>351.6666666666667</v>
+      </c>
+      <c r="U114">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-5.684186592913587E-05</v>
       </c>
-      <c r="W114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>351.7</v>
@@ -9439,21 +9784,24 @@
         <v>351.8133333333333</v>
       </c>
       <c r="T115">
+        <v>351.7</v>
+      </c>
+      <c r="U115">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>-9.477415319092408E-06</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-5.684509711034735E-05</v>
       </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>351.7</v>
@@ -9510,21 +9858,24 @@
         <v>351.7933333333334</v>
       </c>
       <c r="T116">
+        <v>351.7</v>
+      </c>
+      <c r="U116">
         <v>-0.08125000000006821</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>2.843251542450353E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-5.684832865904266E-05</v>
       </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>351.7</v>
@@ -9581,21 +9932,24 @@
         <v>351.78</v>
       </c>
       <c r="T117">
+        <v>351.7</v>
+      </c>
+      <c r="U117">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>2.843170703958897E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-3.790104038370323E-05</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>351.7</v>
@@ -9652,21 +10006,24 @@
         <v>351.76</v>
       </c>
       <c r="T118">
+        <v>351.7</v>
+      </c>
+      <c r="U118">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>3.790786493418352E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-5.685371539021489E-05</v>
       </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>351.7</v>
@@ -9723,21 +10080,24 @@
         <v>351.7533333333333</v>
       </c>
       <c r="T119">
+        <v>351.7</v>
+      </c>
+      <c r="U119">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>2.842982098694158E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-1.895231597304203E-05</v>
       </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>351.7</v>
@@ -9794,21 +10154,24 @@
         <v>351.7466666666667</v>
       </c>
       <c r="T120">
+        <v>351.7</v>
+      </c>
+      <c r="U120">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>2.842901275523779E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-1.895267517004751E-05</v>
       </c>
-      <c r="W120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>351.7</v>
@@ -9865,21 +10228,24 @@
         <v>351.74</v>
       </c>
       <c r="T121">
+        <v>351.7</v>
+      </c>
+      <c r="U121">
         <v>-0.04375000000004547</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>9.476068189684383E-06</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-1.895303438081974E-05</v>
       </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>351.7</v>
@@ -9936,21 +10302,24 @@
         <v>351.7266666666667</v>
       </c>
       <c r="T122">
+        <v>351.7</v>
+      </c>
+      <c r="U122">
         <v>-0.03750000000007958</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>9.475978394846152E-06</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-3.790678721016238E-05</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>351.7</v>
@@ -10007,21 +10376,24 @@
         <v>351.7133333333333</v>
       </c>
       <c r="T123">
+        <v>351.7</v>
+      </c>
+      <c r="U123">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>1.895177720268038E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-3.790822418936468E-05</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>351.7</v>
@@ -10078,21 +10450,24 @@
         <v>351.7066666666666</v>
       </c>
       <c r="T124">
+        <v>351.7</v>
+      </c>
+      <c r="U124">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>9.475709019879375E-06</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-1.895483063851788E-05</v>
       </c>
-      <c r="W124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>351.7</v>
@@ -10149,21 +10524,24 @@
         <v>351.7</v>
       </c>
       <c r="T125">
+        <v>351.7</v>
+      </c>
+      <c r="U125">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U125">
-        <v>0</v>
-      </c>
       <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
         <v>-1.895518993100254E-05</v>
       </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>351.8</v>
@@ -10220,21 +10598,24 @@
         <v>351.7</v>
       </c>
       <c r="T126">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U126">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>1.895123846362701E-05</v>
       </c>
-      <c r="V126">
-        <v>0</v>
-      </c>
       <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
         <v>0.0002843332385555897</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>351.6</v>
@@ -10291,21 +10672,24 @@
         <v>351.7</v>
       </c>
       <c r="T127">
+        <v>351.7</v>
+      </c>
+      <c r="U127">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-2.842631898136716E-05</v>
       </c>
-      <c r="V127">
-        <v>0</v>
-      </c>
       <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
         <v>-0.0005685048322910946</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>351.8</v>
@@ -10362,21 +10746,24 @@
         <v>351.7066666666667</v>
       </c>
       <c r="T128">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U128">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>9.475709019879375E-06</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>1.895554923714293E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0005688282138793799</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>351.7</v>
@@ -10433,21 +10820,24 @@
         <v>351.7066666666667</v>
       </c>
       <c r="T129">
+        <v>351.7</v>
+      </c>
+      <c r="U129">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-2.842685769499642E-05</v>
       </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
       <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
         <v>-0.0002842524161456028</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>351.6</v>
@@ -10504,21 +10894,24 @@
         <v>351.7</v>
       </c>
       <c r="T130">
+        <v>351.7</v>
+      </c>
+      <c r="U130">
         <v>5.684341886080801E-14</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-3.790355440580484E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-1.895518993111356E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0002843332385554787</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>351.6</v>
@@ -10575,21 +10968,24 @@
         <v>351.6933333333333</v>
       </c>
       <c r="T131">
+        <v>351.6333333333334</v>
+      </c>
+      <c r="U131">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-3.790499113998091E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-1.895554923703191E-05</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>351.7</v>
@@ -10646,21 +11042,24 @@
         <v>351.6933333333333</v>
       </c>
       <c r="T132">
+        <v>351.6333333333334</v>
+      </c>
+      <c r="U132">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-1.895321399103533E-05</v>
       </c>
-      <c r="V132">
-        <v>0</v>
-      </c>
       <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
         <v>0.0002844141069395789</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>351.7</v>
@@ -10717,21 +11116,24 @@
         <v>351.6933333333333</v>
       </c>
       <c r="T133">
+        <v>351.6666666666667</v>
+      </c>
+      <c r="U133">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-2.843035983357556E-05</v>
       </c>
-      <c r="V133">
-        <v>0</v>
-      </c>
       <c r="W133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>351.8</v>
@@ -10788,21 +11190,24 @@
         <v>351.7</v>
       </c>
       <c r="T134">
+        <v>351.7333333333333</v>
+      </c>
+      <c r="U134">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>1.8955908556606E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0002843332385555897</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>352</v>
@@ -10859,21 +11264,24 @@
         <v>351.72</v>
       </c>
       <c r="T135">
+        <v>351.8333333333333</v>
+      </c>
+      <c r="U135">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>1.895411209473785E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>5.686664771120675E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0.0005685048322909836</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>352.1</v>
@@ -10930,21 +11338,24 @@
         <v>351.7466666666667</v>
       </c>
       <c r="T136">
+        <v>351.9666666666667</v>
+      </c>
+      <c r="U136">
         <v>0.03125</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>2.843062926438655E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>7.581788543919998E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0.0002840909090908728</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>351.9</v>
@@ -11001,21 +11412,24 @@
         <v>351.76</v>
       </c>
       <c r="T137">
+        <v>352</v>
+      </c>
+      <c r="U137">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U137">
-        <v>0</v>
-      </c>
       <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
         <v>3.790606876163949E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>-0.0005680204487362728</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>352.4</v>
@@ -11072,21 +11486,24 @@
         <v>351.8066666666667</v>
       </c>
       <c r="T138">
+        <v>352.1333333333334</v>
+      </c>
+      <c r="U138">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>4.738303497830998E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001326662118110722</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0.001420858198351915</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>352.3</v>
@@ -11143,21 +11560,24 @@
         <v>351.8466666666666</v>
       </c>
       <c r="T139">
+        <v>352.2</v>
+      </c>
+      <c r="U139">
         <v>0.1500000000000341</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>4.738078993260508E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.000113698811847307</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.0002837684449488176</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>352.6</v>
@@ -11214,21 +11634,24 @@
         <v>351.9066666666667</v>
       </c>
       <c r="T140">
+        <v>352.4333333333334</v>
+      </c>
+      <c r="U140">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>7.580567215925704E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0001705288288460505</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0008515469770082884</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>352.7</v>
@@ -11285,21 +11708,24 @@
         <v>351.9666666666666</v>
       </c>
       <c r="T141">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U141">
         <v>0.2687499999999545</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>8.527491685694777E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.0001704997537224084</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>352.7</v>
@@ -11356,21 +11782,24 @@
         <v>352.04</v>
       </c>
       <c r="T142">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U142">
         <v>0.3250000000000455</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>0.0001042160113691182</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.0002083530637371211</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>352.9</v>
@@ -11427,21 +11856,24 @@
         <v>352.1133333333333</v>
       </c>
       <c r="T143">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U143">
         <v>0.3562500000000455</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>0.0001136783471167302</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.000208309661781092</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.0005670541536717533</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>352.6</v>
@@ -11498,21 +11930,24 @@
         <v>352.1733333333333</v>
       </c>
       <c r="T144">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U144">
         <v>0.3687500000000341</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>8.524906936435706E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>0.0001703996819204523</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0008500991782373069</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>352.8</v>
@@ -11569,21 +12004,24 @@
         <v>352.2533333333333</v>
       </c>
       <c r="T145">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U145">
         <v>0.4125000000000227</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>0.0001041844253755198</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>0.0002271608677546499</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.0005672149744753163</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>352.5</v>
@@ -11640,21 +12078,24 @@
         <v>352.3133333333333</v>
       </c>
       <c r="T146">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U146">
         <v>0.3687499999999773</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>7.576259789954243E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0.0001703319580605989</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0008503401360544505</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>352.3</v>
@@ -11711,21 +12152,24 @@
         <v>352.3533333333334</v>
       </c>
       <c r="T147">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U147">
         <v>0.3249999999999886</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>5.681764377252208E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>0.0001135353000170092</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>-0.0005673758865247791</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>352.1</v>
@@ -11782,21 +12226,24 @@
         <v>352.3800000000001</v>
       </c>
       <c r="T148">
+        <v>352.3</v>
+      </c>
+      <c r="U148">
         <v>0.2374999999999545</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>3.787627714046948E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>7.568160747739583E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0005676979846721553</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>352.2</v>
@@ -11853,21 +12300,24 @@
         <v>352.4066666666667</v>
       </c>
       <c r="T149">
+        <v>352.2</v>
+      </c>
+      <c r="U149">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>4.734355322844053E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>7.567588020496174E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.0002840102243679699</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>352.2</v>
@@ -11924,21 +12374,24 @@
         <v>352.42</v>
       </c>
       <c r="T150">
+        <v>352.1666666666667</v>
+      </c>
+      <c r="U150">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>4.734131192218882E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>3.78350768996949E-05</v>
       </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>352.2</v>
@@ -11995,21 +12448,24 @@
         <v>352.4266666666666</v>
       </c>
       <c r="T151">
+        <v>352.2</v>
+      </c>
+      <c r="U151">
         <v>-0.04375000000004547</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>4.733907082909994E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>1.891682273025275E-05</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>352.2</v>
@@ -12066,21 +12522,24 @@
         <v>352.4466666666667</v>
       </c>
       <c r="T152">
+        <v>352.2</v>
+      </c>
+      <c r="U152">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>4.733682994717547E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>5.674939467326112E-05</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>352.3</v>
@@ -12137,21 +12596,24 @@
         <v>352.4399999999999</v>
       </c>
       <c r="T153">
+        <v>352.2333333333333</v>
+      </c>
+      <c r="U153">
         <v>-0.1875</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>5.680150713316401E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-1.891539145415511E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.000283929585462861</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>352.1</v>
@@ -12208,21 +12670,24 @@
         <v>352.4266666666667</v>
       </c>
       <c r="T154">
+        <v>352.2</v>
+      </c>
+      <c r="U154">
         <v>-0.2187499999999432</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>3.786552060347503E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-3.783149850544731E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0005676979846721553</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>352.1</v>
@@ -12279,21 +12744,24 @@
         <v>352.3933333333333</v>
       </c>
       <c r="T155">
+        <v>352.1666666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>3.786408686012877E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-9.458232445525017E-05</v>
       </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>352.1</v>
@@ -12350,21 +12818,24 @@
         <v>352.3533333333334</v>
       </c>
       <c r="T156">
+        <v>352.1000000000001</v>
+      </c>
+      <c r="U156">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>2.839698991929929E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-0.000113509525340949</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>352.1</v>
@@ -12421,21 +12892,24 @@
         <v>352.3133333333334</v>
       </c>
       <c r="T157">
+        <v>352.1</v>
+      </c>
+      <c r="U157">
         <v>-0.1750000000000682</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>4.732697258802432E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-0.0001135224112158717</v>
       </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>352.1</v>
@@ -12492,21 +12966,24 @@
         <v>352.26</v>
       </c>
       <c r="T158">
+        <v>352.1000000000001</v>
+      </c>
+      <c r="U158">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>2.839483971128764E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.000151380400022938</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>352.1</v>
@@ -12563,21 +13040,24 @@
         <v>352.2266666666667</v>
       </c>
       <c r="T159">
+        <v>352.1</v>
+      </c>
+      <c r="U159">
         <v>-0.1124999999999545</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>3.785871128947349E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-9.462707469853893E-05</v>
       </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>352.1</v>
@@ -12634,21 +13114,24 @@
         <v>352.1800000000001</v>
       </c>
       <c r="T160">
+        <v>352.1000000000001</v>
+      </c>
+      <c r="U160">
         <v>-0.09375000000005684</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>4.732159757714349E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0001324904417608908</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>352.2</v>
@@ -12705,21 +13188,24 @@
         <v>352.16</v>
       </c>
       <c r="T161">
+        <v>352.1333333333334</v>
+      </c>
+      <c r="U161">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>5.678323001956365E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-5.678914191620255E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0002840102243679699</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>352.1</v>
@@ -12776,21 +13262,24 @@
         <v>352.1466666666666</v>
       </c>
       <c r="T162">
+        <v>352.1333333333334</v>
+      </c>
+      <c r="U162">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>3.785333724470874E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-3.786157807073032E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0002839295854627499</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>351.9</v>
@@ -12847,21 +13336,24 @@
         <v>352.1333333333333</v>
       </c>
       <c r="T163">
+        <v>352.0666666666666</v>
+      </c>
+      <c r="U163">
         <v>-0.04375000000004547</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>1.892595221186788E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-3.786301162389538E-05</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0005680204487362728</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>352</v>
@@ -12918,21 +13410,24 @@
         <v>352.12</v>
       </c>
       <c r="T164">
+        <v>352</v>
+      </c>
+      <c r="U164">
         <v>-0.04999999999995453</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>1.892559402727478E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-3.78644452858623E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0002841716396704275</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>352.2</v>
@@ -12989,21 +13484,24 @@
         <v>352.12</v>
       </c>
       <c r="T165">
+        <v>352.0333333333333</v>
+      </c>
+      <c r="U165">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>1.892523585600436E-05</v>
       </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
       <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
         <v>0.0005681818181817455</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>352.4</v>
@@ -13060,21 +13558,24 @@
         <v>352.1333333333333</v>
       </c>
       <c r="T166">
+        <v>352.2</v>
+      </c>
+      <c r="U166">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>2.838731654675186E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>3.786587905629801E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.0005678591709254999</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>352.5</v>
@@ -13131,21 +13632,24 @@
         <v>352.1533333333334</v>
       </c>
       <c r="T167">
+        <v>352.3666666666666</v>
+      </c>
+      <c r="U167">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>5.677302146023244E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>5.67966679290155E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0002837684449490396</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>352.5</v>
@@ -13202,21 +13706,24 @@
         <v>352.1666666666667</v>
       </c>
       <c r="T168">
+        <v>352.4666666666666</v>
+      </c>
+      <c r="U168">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>9.461633077911813E-06</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>3.78622948336016E-05</v>
       </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>352.4</v>
@@ -13273,21 +13780,24 @@
         <v>352.1866666666667</v>
       </c>
       <c r="T169">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U169">
         <v>0.06874999999996589</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>9.461543555966401E-06</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>5.679129200175659E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.0002836879432625006</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>352.3</v>
@@ -13344,21 +13854,24 @@
         <v>352.2</v>
       </c>
       <c r="T170">
+        <v>352.4</v>
+      </c>
+      <c r="U170">
         <v>0.08124999999995453</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-2.838436210861328E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>3.785871128947349E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0002837684449488176</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>352.4</v>
@@ -13415,21 +13928,24 @@
         <v>352.22</v>
       </c>
       <c r="T171">
+        <v>352.3666666666666</v>
+      </c>
+      <c r="U171">
         <v>0.125</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-2.83851678036795E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>5.678591709257219E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.0002838489923360221</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>352.5</v>
@@ -13486,21 +14002,24 @@
         <v>352.2466666666667</v>
       </c>
       <c r="T172">
+        <v>352.3999999999999</v>
+      </c>
+      <c r="U172">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-1.892398236302828E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>7.571025684693922E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>0.0002837684449490396</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>352.5</v>
@@ -13557,21 +14076,24 @@
         <v>352.2733333333334</v>
       </c>
       <c r="T173">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U173">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-3.784868097345129E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>7.570452523819604E-05</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>352.4</v>
@@ -13628,21 +14150,24 @@
         <v>352.2933333333333</v>
       </c>
       <c r="T174">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U174">
         <v>0.15625</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-1.892505677514311E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>5.677409587234727E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0002836879432625006</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>352.4</v>
@@ -13699,21 +14224,24 @@
         <v>352.3133333333333</v>
       </c>
       <c r="T175">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U175">
         <v>0.1249999999999432</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-3.785082987939337E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>5.677087275768322E-05</v>
       </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>352.5</v>
@@ -13770,21 +14298,24 @@
         <v>352.3333333333333</v>
       </c>
       <c r="T176">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U176">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
       <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
         <v>5.676765000850459E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0002837684449490396</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>352.4</v>
@@ -13841,21 +14372,24 @@
         <v>352.3533333333334</v>
       </c>
       <c r="T177">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U177">
         <v>0.08750000000003411</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>9.463065654635727E-06</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>5.676442762547751E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0002836879432625006</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>352.5</v>
@@ -13912,21 +14446,24 @@
         <v>352.3933333333333</v>
       </c>
       <c r="T178">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U178">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>3.785190442395781E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>0.0001135224112158717</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0002837684449490396</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>352.5</v>
@@ -13983,21 +14520,24 @@
         <v>352.4266666666666</v>
       </c>
       <c r="T179">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U179">
         <v>0.0625</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>2.838785378367348E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>9.459127111743904E-05</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>352.4</v>
@@ -14054,21 +14594,24 @@
         <v>352.4399999999999</v>
       </c>
       <c r="T180">
+        <v>352.4666666666667</v>
+      </c>
+      <c r="U180">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>1.892469862396773E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>3.783292978210007E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.0002836879432625006</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>352.3</v>
@@ -14125,21 +14668,24 @@
         <v>352.4333333333333</v>
       </c>
       <c r="T181">
+        <v>352.4</v>
+      </c>
+      <c r="U181">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>9.462170243557111E-06</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-1.891574925261263E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0002837684449488176</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>352.2</v>
@@ -14196,21 +14742,24 @@
         <v>352.4133333333333</v>
       </c>
       <c r="T182">
+        <v>352.3</v>
+      </c>
+      <c r="U182">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U182">
-        <v>0</v>
-      </c>
       <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
         <v>-5.674832119562101E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.0002838489923361331</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>352.2</v>
@@ -14267,21 +14816,24 @@
         <v>352.3933333333334</v>
       </c>
       <c r="T183">
+        <v>352.2333333333333</v>
+      </c>
+      <c r="U183">
         <v>-0.02500000000003411</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-9.462080711730714E-06</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-5.675154174999975E-05</v>
       </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>352.2</v>
@@ -14338,21 +14890,24 @@
         <v>352.38</v>
       </c>
       <c r="T184">
+        <v>352.2</v>
+      </c>
+      <c r="U184">
         <v>-0.04375000000004547</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>9.462170243557111E-06</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-3.783650844713105E-05</v>
       </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>352.2</v>
@@ -14409,21 +14964,24 @@
         <v>352.3733333333333</v>
       </c>
       <c r="T185">
+        <v>352.2</v>
+      </c>
+      <c r="U185">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>9.462080711397647E-06</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-1.891897005146248E-05</v>
       </c>
-      <c r="W185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>352.1</v>
@@ -14480,21 +15038,24 @@
         <v>352.3533333333334</v>
       </c>
       <c r="T186">
+        <v>352.1666666666667</v>
+      </c>
+      <c r="U186">
         <v>-0.09375000000005684</v>
       </c>
-      <c r="U186">
-        <v>0</v>
-      </c>
       <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
         <v>-5.675798395621268E-05</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0002839295854627499</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>352.2</v>
@@ -14551,21 +15112,24 @@
         <v>352.3333333333333</v>
       </c>
       <c r="T187">
+        <v>352.1666666666667</v>
+      </c>
+      <c r="U187">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>9.461991181680673E-06</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-5.676120560815789E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0002840102243679699</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>352.1</v>
@@ -14622,21 +15186,24 @@
         <v>352.3066666666666</v>
       </c>
       <c r="T188">
+        <v>352.1333333333334</v>
+      </c>
+      <c r="U188">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U188">
-        <v>0</v>
-      </c>
       <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
         <v>-7.568590350059967E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.0002839295854627499</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>352.1</v>
@@ -14693,21 +15260,24 @@
         <v>352.2866666666667</v>
       </c>
       <c r="T189">
+        <v>352.1333333333334</v>
+      </c>
+      <c r="U189">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U189">
-        <v>0</v>
-      </c>
       <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
         <v>-5.676872421733759E-05</v>
       </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>351.8</v>
@@ -14764,21 +15334,24 @@
         <v>352.2466666666667</v>
       </c>
       <c r="T190">
+        <v>352</v>
+      </c>
+      <c r="U190">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-2.838570495911075E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001135438941771705</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0008520306731042426</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>352.1</v>
@@ -14835,21 +15408,24 @@
         <v>352.22</v>
       </c>
       <c r="T191">
+        <v>352</v>
+      </c>
+      <c r="U191">
         <v>-0.1374999999999318</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-9.462170243224044E-06</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-7.570452523808502E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0.0008527572484366974</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>352.3</v>
@@ -14906,21 +15482,24 @@
         <v>352.2133333333333</v>
       </c>
       <c r="T192">
+        <v>352.0666666666667</v>
+      </c>
+      <c r="U192">
         <v>-0.1124999999998977</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>1.89245195536536E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-1.89275642117348E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0005680204487361618</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>352.5</v>
@@ -14977,21 +15556,24 @@
         <v>352.2133333333333</v>
       </c>
       <c r="T193">
+        <v>352.3</v>
+      </c>
+      <c r="U193">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>5.677248426927406E-05</v>
       </c>
-      <c r="V193">
-        <v>0</v>
-      </c>
       <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
         <v>0.0005676979846720442</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>352.5</v>
@@ -15048,21 +15630,24 @@
         <v>352.2133333333333</v>
       </c>
       <c r="T194">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U194">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>4.730771778094223E-05</v>
       </c>
-      <c r="V194">
-        <v>0</v>
-      </c>
       <c r="W194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>352.7</v>
@@ -15119,21 +15704,24 @@
         <v>352.2333333333333</v>
       </c>
       <c r="T195">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="U195">
         <v>0.01875000000006821</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>4.730547986686595E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>5.678376741369284E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.0005673758865247791</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>352.7</v>
@@ -15190,21 +15778,24 @@
         <v>352.26</v>
       </c>
       <c r="T196">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U196">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>2.838194529841687E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>7.570739093409884E-05</v>
       </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>352.6</v>
@@ -15261,21 +15852,24 @@
         <v>352.2866666666667</v>
       </c>
       <c r="T197">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U197">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>9.460379928993845E-06</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>7.570165975878673E-05</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>352.6</v>
@@ -15332,21 +15926,24 @@
         <v>352.3133333333333</v>
       </c>
       <c r="T198">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U198">
         <v>0.1937499999999659</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>9.460290430807206E-06</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>7.569592945122494E-05</v>
       </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>352.5</v>
@@ -15403,21 +16000,24 @@
         <v>352.3333333333333</v>
       </c>
       <c r="T199">
+        <v>352.5666666666667</v>
+      </c>
+      <c r="U199">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>9.460200934618967E-06</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>5.676765000850459E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0002836074872377692</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>352.5</v>
@@ -15474,21 +16074,24 @@
         <v>352.3533333333334</v>
       </c>
       <c r="T200">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U200">
         <v>0.2312500000000455</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>1.892022288019213E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>5.676442762547751E-05</v>
       </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="X200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>352.5</v>
@@ -15545,21 +16148,24 @@
         <v>352.38</v>
       </c>
       <c r="T201">
+        <v>352.5</v>
+      </c>
+      <c r="U201">
         <v>0.2125000000000341</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>9.459932456046261E-06</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>7.568160747717378E-05</v>
       </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>352.5</v>
@@ -15616,21 +16222,24 @@
         <v>352.4</v>
       </c>
       <c r="T202">
+        <v>352.5</v>
+      </c>
+      <c r="U202">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U202">
-        <v>0</v>
-      </c>
       <c r="V202">
+        <v>0</v>
+      </c>
+      <c r="W202">
         <v>5.675691015372131E-05</v>
       </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>352.5</v>
@@ -15687,21 +16296,24 @@
         <v>352.4266666666667</v>
       </c>
       <c r="T203">
+        <v>352.5</v>
+      </c>
+      <c r="U203">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U203">
-        <v>0</v>
-      </c>
       <c r="V203">
+        <v>0</v>
+      </c>
+      <c r="W203">
         <v>7.567158531984752E-05</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>352.6</v>
@@ -15758,21 +16370,24 @@
         <v>352.46</v>
       </c>
       <c r="T204">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U204">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>1.891968593326077E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>9.458232445513914E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0002836879432623896</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>352.7</v>
@@ -15829,21 +16444,24 @@
         <v>352.52</v>
       </c>
       <c r="T205">
+        <v>352.6</v>
+      </c>
+      <c r="U205">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>2.837899197816185E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>0.0001702320830734294</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>352.6</v>
@@ -15900,21 +16518,24 @@
         <v>352.5533333333333</v>
       </c>
       <c r="T206">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U206">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>9.459395544642035E-06</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>9.455728280194364E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>352.6</v>
@@ -15971,21 +16592,24 @@
         <v>352.5733333333334</v>
       </c>
       <c r="T207">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U207">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>1.891861213065837E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>5.672900554065663E-05</v>
       </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>352.7</v>
@@ -16042,21 +16666,24 @@
         <v>352.5866666666667</v>
       </c>
       <c r="T208">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U208">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>1.891825422339899E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>3.781719169526632E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>352.9</v>
@@ -16113,21 +16740,24 @@
         <v>352.6133333333334</v>
       </c>
       <c r="T209">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U209">
         <v>0.03124999999994316</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>3.783579265981274E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>7.563152321887756E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0005670541536717533</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>353.2</v>
@@ -16184,21 +16814,24 @@
         <v>352.6466666666667</v>
       </c>
       <c r="T210">
+        <v>352.9333333333333</v>
+      </c>
+      <c r="U210">
         <v>0.07499999999993179</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>7.566872233355504E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>9.45322544050331E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0008500991782374179</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>353.2</v>
@@ -16255,21 +16888,24 @@
         <v>352.68</v>
       </c>
       <c r="T211">
+        <v>353.1</v>
+      </c>
+      <c r="U211">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>8.512087163792259E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>9.452331890269505E-05</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>353.2</v>
@@ -16326,21 +16962,24 @@
         <v>352.72</v>
       </c>
       <c r="T212">
+        <v>353.2</v>
+      </c>
+      <c r="U212">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>9.457069632401449E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>0.0001134172621073404</v>
       </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>353.3</v>
@@ -16397,21 +17036,24 @@
         <v>352.7666666666667</v>
       </c>
       <c r="T213">
+        <v>353.2333333333333</v>
+      </c>
+      <c r="U213">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>0.000104017928908462</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>0.0001323051334389813</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.0002831257078144134</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>353.2</v>
@@ -16468,21 +17110,24 @@
         <v>352.8133333333333</v>
       </c>
       <c r="T214">
+        <v>353.2333333333333</v>
+      </c>
+      <c r="U214">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>9.455191845852973E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0.0001322876311065091</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>-0.0002830455703368706</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>353.3</v>
@@ -16539,21 +17184,24 @@
         <v>352.8666666666667</v>
       </c>
       <c r="T215">
+        <v>353.2666666666667</v>
+      </c>
+      <c r="U215">
         <v>0.28125</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>0.0001039972771621489</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0001511658667472382</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0002831257078144134</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>353.3</v>
@@ -16610,21 +17258,24 @@
         <v>352.92</v>
       </c>
       <c r="T216">
+        <v>353.2666666666667</v>
+      </c>
+      <c r="U216">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>0.0001134397776578755</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.000151143019081923</v>
       </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="X216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>353.4</v>
@@ -16681,21 +17332,24 @@
         <v>352.98</v>
       </c>
       <c r="T217">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U217">
         <v>0.3125</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>0.0001134269105345087</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.0001700102006119142</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.0002830455703366486</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>353.4</v>
@@ -16752,21 +17406,24 @@
         <v>353.04</v>
       </c>
       <c r="T218">
+        <v>353.3666666666666</v>
+      </c>
+      <c r="U218">
         <v>0.2812500000000568</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>0.0001228652168572264</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.0001699813020568097</v>
       </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="X218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>353.2</v>
@@ -16823,21 +17480,24 @@
         <v>353.08</v>
       </c>
       <c r="T219">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U219">
         <v>0.2374999999999545</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>0.0001039501039501456</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0001133016088830097</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>-0.0005659309564233217</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>353.4</v>
@@ -16894,21 +17554,24 @@
         <v>353.1266666666667</v>
       </c>
       <c r="T220">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U220">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>0.0001511844355623904</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0001321702352627963</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0.0005662514156286047</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>353.4</v>
@@ -16965,21 +17628,24 @@
         <v>353.18</v>
       </c>
       <c r="T221">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U221">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>0.0001228187856054941</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0001510317355435387</v>
       </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="X221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>353.3</v>
@@ -17036,21 +17702,24 @@
         <v>353.2266666666666</v>
       </c>
       <c r="T222">
+        <v>353.3666666666666</v>
+      </c>
+      <c r="U222">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>9.446438692606307E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0001321328123524701</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>-0.0002829654782116053</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>353.4</v>
@@ -17107,21 +17776,24 @@
         <v>353.2733333333334</v>
       </c>
       <c r="T223">
+        <v>353.3666666666666</v>
+      </c>
+      <c r="U223">
         <v>0.1124999999999545</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>8.50099178237862E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.000132115355579332</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0.0002830455703366486</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>353.3</v>
@@ -17178,21 +17850,24 @@
         <v>353.3</v>
       </c>
       <c r="T224">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U224">
         <v>0.07500000000004547</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>7.555794822411421E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>7.548451623851093E-05</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0002829654782116053</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>353.3</v>
@@ -17249,21 +17924,24 @@
         <v>353.3066666666666</v>
       </c>
       <c r="T225">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U225">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>5.666417973859694E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>1.886970468900628E-05</v>
       </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="X225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>353.3</v>
@@ -17320,21 +17998,24 @@
         <v>353.3133333333333</v>
       </c>
       <c r="T226">
+        <v>353.3</v>
+      </c>
+      <c r="U226">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>5.666096909173746E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>1.886934863026823E-05</v>
       </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="X226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>353.3</v>
@@ -17391,21 +18072,24 @@
         <v>353.32</v>
       </c>
       <c r="T227">
+        <v>353.3</v>
+      </c>
+      <c r="U227">
         <v>0.02500000000003411</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>6.610071860913003E-05</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>1.886899258440877E-05</v>
       </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>353.4</v>
@@ -17462,21 +18146,24 @@
         <v>353.3266666666667</v>
       </c>
       <c r="T228">
+        <v>353.3333333333333</v>
+      </c>
+      <c r="U228">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>7.553868524912133E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>1.886863655231608E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0002830455703366486</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>353.3</v>
@@ -17533,21 +18220,24 @@
         <v>353.3333333333333</v>
       </c>
       <c r="T229">
-        <v>0</v>
+        <v>353.3333333333333</v>
       </c>
       <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
         <v>7.553297958740046E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>1.886828053354606E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.0002829654782116053</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>352.9</v>
@@ -17604,21 +18294,24 @@
         <v>353.3066666666666</v>
       </c>
       <c r="T230">
+        <v>353.2</v>
+      </c>
+      <c r="U230">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>3.776363739360633E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-7.547169811328303E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.001132182281347371</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>353</v>
@@ -17675,21 +18368,24 @@
         <v>353.2866666666666</v>
       </c>
       <c r="T231">
+        <v>353.0666666666666</v>
+      </c>
+      <c r="U231">
         <v>-0.06249999999994316</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>4.720276419378777E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-5.660804589024959E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.000283366392745954</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>353.1</v>
@@ -17746,21 +18442,24 @@
         <v>353.2666666666667</v>
       </c>
       <c r="T232">
+        <v>353</v>
+      </c>
+      <c r="U232">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>5.664064343768871E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-5.661125054245986E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0.0002832861189803193</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>353</v>
@@ -17817,21 +18516,24 @@
         <v>353.24</v>
       </c>
       <c r="T233">
+        <v>353.0333333333333</v>
+      </c>
+      <c r="U233">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>4.719786288087668E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-7.548594074346937E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0002832058906825363</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>352.5</v>
@@ -17888,21 +18590,24 @@
         <v>353.1933333333333</v>
       </c>
       <c r="T234">
+        <v>352.8666666666666</v>
+      </c>
+      <c r="U234">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-9.439127069854614E-06</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-0.0001321103687766945</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.001416430594900819</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>352.6</v>
@@ -17959,21 +18664,24 @@
         <v>353.14</v>
       </c>
       <c r="T235">
+        <v>352.7</v>
+      </c>
+      <c r="U235">
         <v>-0.1812500000000341</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-9.439216167361764E-06</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-0.0001510032276939022</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0.0002836879432623896</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>352.5</v>
@@ -18030,21 +18738,24 @@
         <v>353.08</v>
       </c>
       <c r="T236">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U236">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-9.43930526708936E-06</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-0.0001699042872514989</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0002836074872377692</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>352.5</v>
@@ -18101,21 +18812,24 @@
         <v>353.0266666666667</v>
       </c>
       <c r="T237">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U237">
         <v>-0.2812500000000568</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-9.43939436848229E-06</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-0.0001510516974434495</v>
       </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="X237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>352.3</v>
@@ -18172,21 +18886,24 @@
         <v>352.9533333333333</v>
       </c>
       <c r="T238">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U238">
         <v>-0.2937499999999886</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-3.775793388582915E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-0.000207727461570717</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.0005673758865247791</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>352.3</v>
@@ -18243,21 +18960,24 @@
         <v>352.8866666666667</v>
       </c>
       <c r="T239">
+        <v>352.3666666666666</v>
+      </c>
+      <c r="U239">
         <v>-0.3124999999999432</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-5.663903940200665E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-0.0001888823829400144</v>
       </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="X239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>352.2</v>
@@ -18314,21 +19034,24 @@
         <v>352.8133333333333</v>
       </c>
       <c r="T240">
+        <v>352.2666666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.3562499999999886</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-9.44037459403857E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-0.0002078098728580668</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.0002838489923361331</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>352.4</v>
@@ -18385,21 +19108,24 @@
         <v>352.7533333333333</v>
       </c>
       <c r="T241">
+        <v>352.3</v>
+      </c>
+      <c r="U241">
         <v>-0.375</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-7.553012707950391E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-0.0001700616000906985</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0005678591709254999</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>352.7</v>
@@ -18456,21 +19182,24 @@
         <v>352.7133333333333</v>
       </c>
       <c r="T242">
+        <v>352.4333333333333</v>
+      </c>
+      <c r="U242">
         <v>-0.3125</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-4.720989519413354E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-0.0001133936839718963</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.0008513053348468969</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>352.6</v>
@@ -18527,21 +19256,24 @@
         <v>352.66</v>
       </c>
       <c r="T243">
+        <v>352.5666666666666</v>
+      </c>
+      <c r="U243">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-6.609697370296708E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-0.0001512087247432792</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>352.7</v>
@@ -18598,21 +19330,24 @@
         <v>352.62</v>
       </c>
       <c r="T244">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U244">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-4.721524485817863E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>-0.0001134236942097466</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>352.7</v>
@@ -18669,21 +19404,24 @@
         <v>352.6066666666667</v>
       </c>
       <c r="T245">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U245">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>-5.666096909118234E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>-3.781218686782495E-05</v>
       </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="X245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>352.7</v>
@@ -18740,21 +19478,24 @@
         <v>352.5866666666667</v>
       </c>
       <c r="T246">
+        <v>352.7</v>
+      </c>
+      <c r="U246">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>-5.666417973893001E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-5.672042502502528E-05</v>
       </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="X246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>352.8</v>
@@ -18811,21 +19552,24 @@
         <v>352.5666666666667</v>
       </c>
       <c r="T247">
-        <v>0</v>
+        <v>352.7333333333333</v>
       </c>
       <c r="U247">
+        <v>0</v>
+      </c>
+      <c r="V247">
         <v>-5.666739074994265E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-5.672364241426919E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>352.8</v>
@@ -18882,21 +19626,24 @@
         <v>352.5533333333333</v>
       </c>
       <c r="T248">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U248">
         <v>0.09375</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>-5.667060212521946E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-3.781790677881425E-05</v>
       </c>
-      <c r="W248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="X248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>352.8</v>
@@ -18953,21 +19700,24 @@
         <v>352.5733333333334</v>
       </c>
       <c r="T249">
+        <v>352.8</v>
+      </c>
+      <c r="U249">
         <v>0.1562499999999432</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-3.778254257613689E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>5.672900554065663E-05</v>
       </c>
-      <c r="W249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="X249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>352.7</v>
@@ -19024,21 +19774,24 @@
         <v>352.58</v>
       </c>
       <c r="T250">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U250">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-6.612194776378644E-05</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>1.890859584752214E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0002834467120181872</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>352.7</v>
@@ -19095,21 +19848,24 @@
         <v>352.5933333333333</v>
       </c>
       <c r="T251">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U251">
         <v>0.1500000000000341</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-6.612632016467224E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>3.781647663880783E-05</v>
       </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="X251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>352.7</v>
@@ -19166,21 +19922,24 @@
         <v>352.6066666666666</v>
       </c>
       <c r="T252">
+        <v>352.7</v>
+      </c>
+      <c r="U252">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-5.668345126630392E-05</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>3.781504660693713E-05</v>
       </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="X252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>352.7</v>
@@ -19237,21 +19996,24 @@
         <v>352.6333333333333</v>
       </c>
       <c r="T253">
+        <v>352.7</v>
+      </c>
+      <c r="U253">
         <v>0.1250000000000568</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-6.613444187253403E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>7.56272333668484E-05</v>
       </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="X253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>352.7</v>
@@ -19308,21 +20070,24 @@
         <v>352.66</v>
       </c>
       <c r="T254">
+        <v>352.7</v>
+      </c>
+      <c r="U254">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-5.669041365119476E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>7.562151432094488E-05</v>
       </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="X254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>352.7</v>
@@ -19379,21 +20144,24 @@
         <v>352.6933333333334</v>
       </c>
       <c r="T255">
+        <v>352.7</v>
+      </c>
+      <c r="U255">
         <v>0.0625</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-5.669362763616181E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>9.451974517493689E-05</v>
       </c>
-      <c r="W255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="X255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>352.7</v>
@@ -19450,21 +20218,24 @@
         <v>352.7133333333333</v>
       </c>
       <c r="T256">
+        <v>352.7</v>
+      </c>
+      <c r="U256">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-5.669684198605918E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>5.670648722189142E-05</v>
       </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="X256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>352.7</v>
@@ -19521,21 +20292,24 @@
         <v>352.7133333333333</v>
       </c>
       <c r="T257">
+        <v>352.7</v>
+      </c>
+      <c r="U257">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-5.670005669999867E-05</v>
       </c>
-      <c r="V257">
-        <v>0</v>
-      </c>
       <c r="W257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="X257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>352.8</v>
@@ -19592,21 +20366,24 @@
         <v>352.7266666666666</v>
       </c>
       <c r="T258">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U258">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-5.670327177875745E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>3.780218118576428E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>352.9</v>
@@ -19663,21 +20440,24 @@
         <v>352.74</v>
       </c>
       <c r="T259">
+        <v>352.8</v>
+      </c>
+      <c r="U259">
         <v>5.684341886080801E-14</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-3.780432481459428E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>3.780075223502877E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0002834467120180761</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>352.9</v>
@@ -19734,21 +20514,24 @@
         <v>352.7533333333333</v>
       </c>
       <c r="T260">
+        <v>352.8666666666666</v>
+      </c>
+      <c r="U260">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>3.779932339220693E-05</v>
       </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="X260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>353</v>
@@ -19805,21 +20588,24 @@
         <v>352.7733333333334</v>
       </c>
       <c r="T261">
+        <v>352.9333333333333</v>
+      </c>
+      <c r="U261">
         <v>0.03124999999994316</v>
       </c>
-      <c r="U261">
-        <v>0</v>
-      </c>
       <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
         <v>5.669684198594815E-05</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.000283366392745954</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>353</v>
@@ -19876,21 +20662,24 @@
         <v>352.7866666666667</v>
       </c>
       <c r="T262">
+        <v>352.9666666666666</v>
+      </c>
+      <c r="U262">
         <v>0.04999999999995453</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-9.451438509056054E-06</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>3.779575175744121E-05</v>
       </c>
-      <c r="W262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="X262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>353.1</v>
@@ -19947,21 +20736,24 @@
         <v>352.8066666666666</v>
       </c>
       <c r="T263">
+        <v>353.0333333333334</v>
+      </c>
+      <c r="U263">
         <v>0.08125000000006821</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>9.451527839710039E-06</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>5.669148493869791E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.0002832861189803193</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>352.8</v>
@@ -20018,21 +20810,24 @@
         <v>352.8066666666666</v>
       </c>
       <c r="T264">
+        <v>352.9666666666667</v>
+      </c>
+      <c r="U264">
         <v>0.09375</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>2.835431552683509E-05</v>
       </c>
-      <c r="V264">
-        <v>0</v>
-      </c>
       <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
         <v>-0.000849617672047609</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>352.7</v>
@@ -20089,21 +20884,24 @@
         <v>352.8066666666666</v>
       </c>
       <c r="T265">
+        <v>352.8666666666667</v>
+      </c>
+      <c r="U265">
         <v>0.1000000000000796</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>9.451170527530195E-06</v>
       </c>
-      <c r="V265">
-        <v>0</v>
-      </c>
       <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
         <v>-0.0002834467120181872</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>352.8</v>
@@ -20160,21 +20958,24 @@
         <v>352.8133333333333</v>
       </c>
       <c r="T266">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U266">
         <v>0.09375</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>2.835324361094571E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>1.889609039906759E-05</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>352.7</v>
@@ -20231,21 +21032,24 @@
         <v>352.8133333333333</v>
       </c>
       <c r="T267">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U267">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>1.890162648510163E-05</v>
       </c>
-      <c r="V267">
-        <v>0</v>
-      </c>
       <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
         <v>-0.0002834467120181872</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>352.8</v>
@@ -20302,21 +21106,24 @@
         <v>352.82</v>
       </c>
       <c r="T268">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U268">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>4.72531730504322E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>1.889573334334926E-05</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0.0002835270768359877</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>352.8</v>
@@ -20373,21 +21180,24 @@
         <v>352.8266666666667</v>
       </c>
       <c r="T269">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U269">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>4.725094029356391E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>1.88953763013977E-05</v>
       </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="X269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>352.7</v>
@@ -20444,21 +21254,24 @@
         <v>352.8266666666667</v>
       </c>
       <c r="T270">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U270">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>4.724870774786005E-05</v>
       </c>
-      <c r="V270">
-        <v>0</v>
-      </c>
       <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
         <v>-0.0002834467120181872</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>352.7</v>
@@ -20515,21 +21328,24 @@
         <v>352.8266666666667</v>
       </c>
       <c r="T271">
+        <v>352.7333333333333</v>
+      </c>
+      <c r="U271">
         <v>-0.06874999999996589</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>2.834788524785914E-05</v>
       </c>
-      <c r="V271">
-        <v>0</v>
-      </c>
       <c r="W271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="X271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>352.9</v>
@@ -20586,21 +21402,24 @@
         <v>352.84</v>
       </c>
       <c r="T272">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U272">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>1.889805444532655E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>3.779003854598173E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0005670541536717533</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>353.1</v>
@@ -20657,21 +21476,24 @@
         <v>352.86</v>
       </c>
       <c r="T273">
+        <v>352.9</v>
+      </c>
+      <c r="U273">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>4.724424328883536E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>5.668291576887974E-05</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.0005667327854916859</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>353</v>
@@ -20728,21 +21550,24 @@
         <v>352.8666666666667</v>
       </c>
       <c r="T274">
+        <v>353</v>
+      </c>
+      <c r="U274">
         <v>-0.03124999999994316</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>2.834520682548636E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>1.889323433301726E-05</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0002832058906825363</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>352.7</v>
@@ -20799,21 +21624,24 @@
         <v>352.8533333333333</v>
       </c>
       <c r="T275">
+        <v>352.9333333333334</v>
+      </c>
+      <c r="U275">
         <v>-0.01875000000006821</v>
       </c>
-      <c r="U275">
-        <v>0</v>
-      </c>
       <c r="V275">
+        <v>0</v>
+      </c>
+      <c r="W275">
         <v>-3.778575477053625E-05</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>-0.0008498583569405138</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>352.6</v>
@@ -20870,21 +21698,24 @@
         <v>352.8266666666667</v>
       </c>
       <c r="T276">
+        <v>352.7666666666667</v>
+      </c>
+      <c r="U276">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-9.448134465794844E-06</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-7.557436517524607E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>352.7</v>
@@ -20941,21 +21772,24 @@
         <v>352.8066666666666</v>
       </c>
       <c r="T277">
+        <v>352.6666666666667</v>
+      </c>
+      <c r="U277">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-9.448223733721228E-06</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-5.668505781886157E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.0002836074872376582</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>352.6</v>
@@ -21012,21 +21846,24 @@
         <v>352.7733333333334</v>
       </c>
       <c r="T278">
+        <v>352.6333333333334</v>
+      </c>
+      <c r="U278">
         <v>-0.006249999999965894</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-1.889662600773612E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-9.448045199422772E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.0002835270768357656</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>352.5</v>
@@ -21083,21 +21920,24 @@
         <v>352.7533333333333</v>
       </c>
       <c r="T279">
+        <v>352.6</v>
+      </c>
+      <c r="U279">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-2.834547464491965E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-5.669362763638386E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0002836074872377692</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>352.5</v>
@@ -21154,21 +21994,24 @@
         <v>352.74</v>
       </c>
       <c r="T280">
+        <v>352.5333333333333</v>
+      </c>
+      <c r="U280">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-1.889751875572276E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-3.779789465718775E-05</v>
       </c>
-      <c r="W280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="X280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>352.5</v>
@@ -21225,15 +22068,18 @@
         <v>352.72</v>
       </c>
       <c r="T281">
+        <v>352.5</v>
+      </c>
+      <c r="U281">
         <v>-0.08750000000003411</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-1.88978758787206E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-5.669898508808835E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0</v>
       </c>
     </row>
